--- a/JupyterNotebooks/AvgHW/CopperA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.088096470005097</v>
+      </c>
+      <c r="D3">
+        <v>1.03050888989264</v>
+      </c>
+      <c r="E3">
+        <v>0.9578570720223452</v>
+      </c>
+      <c r="F3">
+        <v>0.9578570720223452</v>
+      </c>
+      <c r="G3">
+        <v>1.041233105886447</v>
+      </c>
+      <c r="H3">
+        <v>0.9604933475364092</v>
+      </c>
+      <c r="I3">
+        <v>0.9845960719278705</v>
+      </c>
+      <c r="J3">
+        <v>1.046242591011267</v>
+      </c>
+      <c r="K3">
+        <v>0.9612557958717943</v>
+      </c>
+      <c r="L3">
         <v>1.088096470005099</v>
       </c>
-      <c r="D3">
-        <v>0.9578570720223452</v>
-      </c>
-      <c r="E3">
-        <v>1.03050888989264</v>
-      </c>
-      <c r="F3">
+      <c r="M3">
         <v>1.088096470005099</v>
-      </c>
-      <c r="G3">
-        <v>1.046242591011267</v>
-      </c>
-      <c r="H3">
-        <v>0.9612557958717943</v>
-      </c>
-      <c r="I3">
-        <v>1.088096470005097</v>
-      </c>
-      <c r="J3">
-        <v>0.9578570720223452</v>
-      </c>
-      <c r="K3">
-        <v>1.041233105886447</v>
-      </c>
-      <c r="L3">
-        <v>0.9845960719278705</v>
-      </c>
-      <c r="M3">
-        <v>0.9604933475364092</v>
       </c>
       <c r="N3">
         <v>1.088096470005099</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.145971862819932</v>
+      </c>
+      <c r="D4">
+        <v>1.065610559024315</v>
+      </c>
+      <c r="E4">
+        <v>0.9389443473461672</v>
+      </c>
+      <c r="F4">
+        <v>0.9389443473461672</v>
+      </c>
+      <c r="G4">
+        <v>1.066631321207997</v>
+      </c>
+      <c r="H4">
+        <v>0.9501479730209618</v>
+      </c>
+      <c r="I4">
+        <v>0.9784991514486676</v>
+      </c>
+      <c r="J4">
+        <v>1.065435370003966</v>
+      </c>
+      <c r="K4">
+        <v>0.9556153547180026</v>
+      </c>
+      <c r="L4">
         <v>1.145971862819936</v>
       </c>
-      <c r="D4">
-        <v>0.9389443473461672</v>
-      </c>
-      <c r="E4">
-        <v>1.065610559024315</v>
-      </c>
-      <c r="F4">
+      <c r="M4">
         <v>1.145971862819936</v>
-      </c>
-      <c r="G4">
-        <v>1.065435370003966</v>
-      </c>
-      <c r="H4">
-        <v>0.9556153547180026</v>
-      </c>
-      <c r="I4">
-        <v>1.145971862819932</v>
-      </c>
-      <c r="J4">
-        <v>0.9389443473461672</v>
-      </c>
-      <c r="K4">
-        <v>1.066631321207997</v>
-      </c>
-      <c r="L4">
-        <v>0.9784991514486676</v>
-      </c>
-      <c r="M4">
-        <v>0.9501479730209618</v>
       </c>
       <c r="N4">
         <v>1.145971862819936</v>
@@ -783,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.314325285482043</v>
+      </c>
+      <c r="D5">
+        <v>1.48385224340547</v>
+      </c>
+      <c r="E5">
+        <v>0.7395383512493192</v>
+      </c>
+      <c r="F5">
+        <v>0.7395383512493192</v>
+      </c>
+      <c r="G5">
+        <v>1.178474583227805</v>
+      </c>
+      <c r="H5">
+        <v>0.8460152596984222</v>
+      </c>
+      <c r="I5">
+        <v>0.7986850682140122</v>
+      </c>
+      <c r="J5">
+        <v>1.3907792673713</v>
+      </c>
+      <c r="K5">
+        <v>0.8727591039710728</v>
+      </c>
+      <c r="L5">
         <v>1.314325285482058</v>
       </c>
-      <c r="D5">
-        <v>0.7395383512493194</v>
-      </c>
-      <c r="E5">
-        <v>1.48385224340547</v>
-      </c>
-      <c r="F5">
+      <c r="M5">
         <v>1.314325285482058</v>
-      </c>
-      <c r="G5">
-        <v>1.3907792673713</v>
-      </c>
-      <c r="H5">
-        <v>0.8727591039710728</v>
-      </c>
-      <c r="I5">
-        <v>1.314325285482043</v>
-      </c>
-      <c r="J5">
-        <v>0.7395383512493194</v>
-      </c>
-      <c r="K5">
-        <v>1.178474583227805</v>
-      </c>
-      <c r="L5">
-        <v>0.7986850682140121</v>
-      </c>
-      <c r="M5">
-        <v>0.8460152596984222</v>
       </c>
       <c r="N5">
         <v>1.314325285482058</v>
@@ -857,34 +869,34 @@
         <v>2.565641111240899</v>
       </c>
       <c r="D6">
+        <v>1.151249508480644</v>
+      </c>
+      <c r="E6">
         <v>0.7786477807869666</v>
       </c>
-      <c r="E6">
-        <v>1.151249508480644</v>
-      </c>
       <c r="F6">
+        <v>0.7786477807869666</v>
+      </c>
+      <c r="G6">
+        <v>1.203162009877595</v>
+      </c>
+      <c r="H6">
+        <v>0.8485302553490859</v>
+      </c>
+      <c r="I6">
+        <v>0.7172146972836324</v>
+      </c>
+      <c r="J6">
+        <v>1.753190958844787</v>
+      </c>
+      <c r="K6">
+        <v>1.126843897696946</v>
+      </c>
+      <c r="L6">
         <v>2.565641111240899</v>
       </c>
-      <c r="G6">
-        <v>1.753190958844787</v>
-      </c>
-      <c r="H6">
-        <v>1.126843897696946</v>
-      </c>
-      <c r="I6">
+      <c r="M6">
         <v>2.565641111240899</v>
-      </c>
-      <c r="J6">
-        <v>0.7786477807869666</v>
-      </c>
-      <c r="K6">
-        <v>1.203162009877595</v>
-      </c>
-      <c r="L6">
-        <v>0.7172146972836324</v>
-      </c>
-      <c r="M6">
-        <v>0.8485302553490859</v>
       </c>
       <c r="N6">
         <v>2.565641111240899</v>
@@ -925,46 +937,46 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.006781160073852</v>
+        <v>1.006781160073849</v>
       </c>
       <c r="D7">
-        <v>0.9972956987087749</v>
+        <v>1.000052070752198</v>
       </c>
       <c r="E7">
-        <v>1.000052070752199</v>
+        <v>0.9972956987087751</v>
       </c>
       <c r="F7">
-        <v>1.006781160073852</v>
+        <v>0.9972956987087751</v>
       </c>
       <c r="G7">
+        <v>0.9990647930591284</v>
+      </c>
+      <c r="H7">
+        <v>0.9992141111836842</v>
+      </c>
+      <c r="I7">
+        <v>1.012045830377895</v>
+      </c>
+      <c r="J7">
         <v>1.000304672977763</v>
       </c>
-      <c r="H7">
-        <v>0.9985927780707087</v>
-      </c>
-      <c r="I7">
-        <v>1.00678116007385</v>
-      </c>
-      <c r="J7">
-        <v>0.9972956987087749</v>
-      </c>
       <c r="K7">
-        <v>0.9990647930591283</v>
+        <v>0.9985927780707086</v>
       </c>
       <c r="L7">
-        <v>1.012045830377895</v>
+        <v>1.006781160073851</v>
       </c>
       <c r="M7">
-        <v>0.9992141111836842</v>
+        <v>1.006781160073851</v>
       </c>
       <c r="N7">
-        <v>1.006781160073852</v>
+        <v>1.006781160073851</v>
       </c>
       <c r="O7">
-        <v>1.000052070752199</v>
+        <v>1.000052070752198</v>
       </c>
       <c r="P7">
-        <v>0.998673884730487</v>
+        <v>0.9986738847304868</v>
       </c>
       <c r="Q7">
         <v>1.000178371864981</v>
@@ -985,7 +997,7 @@
         <v>1.002242952517288</v>
       </c>
       <c r="W7">
-        <v>1.001668889400501</v>
+        <v>1.0016688894005</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,55 +1008,55 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.0206870903939</v>
+        <v>1.020687090393898</v>
       </c>
       <c r="D8">
-        <v>0.9976531351811119</v>
+        <v>0.990785535253317</v>
       </c>
       <c r="E8">
-        <v>0.9907855352533176</v>
+        <v>0.9976531351811131</v>
       </c>
       <c r="F8">
-        <v>1.0206870903939</v>
+        <v>0.9976531351811131</v>
       </c>
       <c r="G8">
-        <v>0.9985690040349654</v>
+        <v>0.9953360072071875</v>
       </c>
       <c r="H8">
-        <v>0.9965679336709532</v>
+        <v>0.9920809741333685</v>
       </c>
       <c r="I8">
-        <v>1.020687090393897</v>
+        <v>1.029214847590023</v>
       </c>
       <c r="J8">
-        <v>0.9976531351811119</v>
+        <v>0.9985690040349668</v>
       </c>
       <c r="K8">
-        <v>0.9953360072071893</v>
+        <v>0.9965679336709522</v>
       </c>
       <c r="L8">
-        <v>1.029214847590021</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="M8">
-        <v>0.9920809741333679</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="N8">
-        <v>1.0206870903939</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="O8">
-        <v>0.9907855352533176</v>
+        <v>0.990785535253317</v>
       </c>
       <c r="P8">
-        <v>0.9942193352172147</v>
+        <v>0.9942193352172151</v>
       </c>
       <c r="Q8">
-        <v>0.9946772696441415</v>
+        <v>0.9946772696441419</v>
       </c>
       <c r="R8">
         <v>1.00304192027611</v>
       </c>
       <c r="S8">
-        <v>0.9956692248231316</v>
+        <v>0.9956692248231324</v>
       </c>
       <c r="T8">
         <v>1.00304192027611</v>
@@ -1053,10 +1065,10 @@
         <v>1.001923691215824</v>
       </c>
       <c r="V8">
-        <v>1.005676371051439</v>
+        <v>1.00567637105144</v>
       </c>
       <c r="W8">
-        <v>1.002611815933103</v>
+        <v>1.002611815933104</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.081580611680687</v>
+      </c>
+      <c r="D9">
+        <v>0.99937134808087</v>
+      </c>
+      <c r="E9">
+        <v>0.983157246914566</v>
+      </c>
+      <c r="F9">
+        <v>0.983157246914566</v>
+      </c>
+      <c r="G9">
+        <v>0.9872057038235125</v>
+      </c>
+      <c r="H9">
+        <v>0.9893203942947312</v>
+      </c>
+      <c r="I9">
+        <v>1.030214032476727</v>
+      </c>
+      <c r="J9">
+        <v>1.009037303558819</v>
+      </c>
+      <c r="K9">
+        <v>0.9944099612826865</v>
+      </c>
+      <c r="L9">
         <v>1.08158061168069</v>
       </c>
-      <c r="D9">
-        <v>0.983157246914566</v>
-      </c>
-      <c r="E9">
-        <v>0.99937134808087</v>
-      </c>
-      <c r="F9">
+      <c r="M9">
         <v>1.08158061168069</v>
-      </c>
-      <c r="G9">
-        <v>1.009037303558819</v>
-      </c>
-      <c r="H9">
-        <v>0.9944099612826865</v>
-      </c>
-      <c r="I9">
-        <v>1.081580611680687</v>
-      </c>
-      <c r="J9">
-        <v>0.983157246914566</v>
-      </c>
-      <c r="K9">
-        <v>0.9872057038235125</v>
-      </c>
-      <c r="L9">
-        <v>1.030214032476727</v>
-      </c>
-      <c r="M9">
-        <v>0.9893203942947312</v>
       </c>
       <c r="N9">
         <v>1.08158061168069</v>
@@ -1112,13 +1124,13 @@
         <v>1.004204325819845</v>
       </c>
       <c r="R9">
-        <v>1.021369735558708</v>
+        <v>1.021369735558709</v>
       </c>
       <c r="S9">
         <v>0.9971886328514185</v>
       </c>
       <c r="T9">
-        <v>1.021369735558708</v>
+        <v>1.021369735558709</v>
       </c>
       <c r="U9">
         <v>1.018286627558736</v>
@@ -1138,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.119418755226334</v>
+      </c>
+      <c r="D10">
+        <v>0.9938004153855537</v>
+      </c>
+      <c r="E10">
+        <v>0.9867865888180729</v>
+      </c>
+      <c r="F10">
+        <v>0.9867865888180729</v>
+      </c>
+      <c r="G10">
+        <v>0.9952383064012894</v>
+      </c>
+      <c r="H10">
+        <v>0.9887231856468607</v>
+      </c>
+      <c r="I10">
+        <v>1.072779076811434</v>
+      </c>
+      <c r="J10">
+        <v>1.00465409135102</v>
+      </c>
+      <c r="K10">
+        <v>0.9901880480689254</v>
+      </c>
+      <c r="L10">
         <v>1.119418755226342</v>
       </c>
-      <c r="D10">
-        <v>0.9867865888180729</v>
-      </c>
-      <c r="E10">
-        <v>0.9938004153855537</v>
-      </c>
-      <c r="F10">
+      <c r="M10">
         <v>1.119418755226342</v>
-      </c>
-      <c r="G10">
-        <v>1.00465409135102</v>
-      </c>
-      <c r="H10">
-        <v>0.9901880480689254</v>
-      </c>
-      <c r="I10">
-        <v>1.119418755226334</v>
-      </c>
-      <c r="J10">
-        <v>0.9867865888180729</v>
-      </c>
-      <c r="K10">
-        <v>0.9952383064012894</v>
-      </c>
-      <c r="L10">
-        <v>1.072779076811434</v>
-      </c>
-      <c r="M10">
-        <v>0.9887231856468607</v>
       </c>
       <c r="N10">
         <v>1.119418755226342</v>
@@ -1180,13 +1192,13 @@
         <v>0.9902935021018133</v>
       </c>
       <c r="Q10">
-        <v>0.9992272533682868</v>
+        <v>0.9992272533682869</v>
       </c>
       <c r="R10">
         <v>1.033335253143323</v>
       </c>
       <c r="S10">
-        <v>0.9950803651848821</v>
+        <v>0.9950803651848822</v>
       </c>
       <c r="T10">
         <v>1.033335253143323</v>
@@ -1212,40 +1224,40 @@
         <v>1.410038437625749</v>
       </c>
       <c r="D11">
+        <v>0.997865825041343</v>
+      </c>
+      <c r="E11">
         <v>1.16817868244776</v>
       </c>
-      <c r="E11">
-        <v>0.9978658250413432</v>
-      </c>
       <c r="F11">
+        <v>1.16817868244776</v>
+      </c>
+      <c r="G11">
+        <v>0.9860811672819638</v>
+      </c>
+      <c r="H11">
+        <v>1.057396578977097</v>
+      </c>
+      <c r="I11">
+        <v>1.114171511208776</v>
+      </c>
+      <c r="J11">
+        <v>1.059881886452539</v>
+      </c>
+      <c r="K11">
+        <v>0.9924431226287668</v>
+      </c>
+      <c r="L11">
         <v>1.410038437625749</v>
       </c>
-      <c r="G11">
-        <v>1.059881886452539</v>
-      </c>
-      <c r="H11">
-        <v>0.9924431226287668</v>
-      </c>
-      <c r="I11">
+      <c r="M11">
         <v>1.410038437625749</v>
-      </c>
-      <c r="J11">
-        <v>1.16817868244776</v>
-      </c>
-      <c r="K11">
-        <v>0.9860811672819638</v>
-      </c>
-      <c r="L11">
-        <v>1.114171511208776</v>
-      </c>
-      <c r="M11">
-        <v>1.057396578977097</v>
       </c>
       <c r="N11">
         <v>1.410038437625749</v>
       </c>
       <c r="O11">
-        <v>0.9978658250413432</v>
+        <v>0.997865825041343</v>
       </c>
       <c r="P11">
         <v>1.083022253744552</v>
@@ -1280,67 +1292,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.04122531831870994</v>
+        <v>0.04122531831870988</v>
       </c>
       <c r="D12">
-        <v>0.03059505010989016</v>
+        <v>0.06882008110392791</v>
       </c>
       <c r="E12">
-        <v>0.0688200811039279</v>
+        <v>0.03059505010989017</v>
       </c>
       <c r="F12">
-        <v>0.04122531831870994</v>
+        <v>0.03059505010989017</v>
       </c>
       <c r="G12">
+        <v>1.585706857333606</v>
+      </c>
+      <c r="H12">
+        <v>1.649610209158356</v>
+      </c>
+      <c r="I12">
+        <v>1.659235194594477</v>
+      </c>
+      <c r="J12">
         <v>1.707159803680534</v>
       </c>
-      <c r="H12">
-        <v>0.4928651132763635</v>
-      </c>
-      <c r="I12">
-        <v>0.04122531831870994</v>
-      </c>
-      <c r="J12">
-        <v>0.03059505010989016</v>
-      </c>
       <c r="K12">
-        <v>1.585706857333606</v>
+        <v>0.492865113276363</v>
       </c>
       <c r="L12">
-        <v>1.659235194594476</v>
+        <v>0.04122531831870988</v>
       </c>
       <c r="M12">
-        <v>1.649610209158356</v>
+        <v>0.04122531831870988</v>
       </c>
       <c r="N12">
-        <v>0.04122531831870994</v>
+        <v>0.04122531831870988</v>
       </c>
       <c r="O12">
-        <v>0.0688200811039279</v>
+        <v>0.06882008110392791</v>
       </c>
       <c r="P12">
-        <v>0.04970756560690903</v>
+        <v>0.04970756560690904</v>
       </c>
       <c r="Q12">
-        <v>0.8879899423922311</v>
+        <v>0.8879899423922307</v>
       </c>
       <c r="R12">
-        <v>0.04688014984417601</v>
+        <v>0.04688014984417599</v>
       </c>
       <c r="S12">
-        <v>0.6021916449647841</v>
+        <v>0.6021916449647838</v>
       </c>
       <c r="T12">
-        <v>0.04688014984417601</v>
+        <v>0.04688014984417599</v>
       </c>
       <c r="U12">
-        <v>0.4619500633032655</v>
+        <v>0.4619500633032654</v>
       </c>
       <c r="V12">
-        <v>0.3778051143063544</v>
+        <v>0.3778051143063543</v>
       </c>
       <c r="W12">
-        <v>0.904402203446983</v>
+        <v>0.9044022034469829</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1354,34 +1366,34 @@
         <v>2.10923066971491</v>
       </c>
       <c r="D13">
-        <v>2.837886055274508</v>
+        <v>1.99979456413514</v>
       </c>
       <c r="E13">
-        <v>1.99979456413514</v>
+        <v>2.837886055274509</v>
       </c>
       <c r="F13">
+        <v>2.837886055274509</v>
+      </c>
+      <c r="G13">
+        <v>0.9632593806865919</v>
+      </c>
+      <c r="H13">
+        <v>0.8732713772621292</v>
+      </c>
+      <c r="I13">
+        <v>0.1471805849603647</v>
+      </c>
+      <c r="J13">
+        <v>0.4499063559951609</v>
+      </c>
+      <c r="K13">
+        <v>1.183671385942961</v>
+      </c>
+      <c r="L13">
         <v>2.10923066971491</v>
       </c>
-      <c r="G13">
-        <v>0.449906355995161</v>
-      </c>
-      <c r="H13">
-        <v>1.18367138594296</v>
-      </c>
-      <c r="I13">
+      <c r="M13">
         <v>2.10923066971491</v>
-      </c>
-      <c r="J13">
-        <v>2.837886055274508</v>
-      </c>
-      <c r="K13">
-        <v>0.9632593806865921</v>
-      </c>
-      <c r="L13">
-        <v>0.1471805849603647</v>
-      </c>
-      <c r="M13">
-        <v>0.8732713772621288</v>
       </c>
       <c r="N13">
         <v>2.10923066971491</v>
@@ -1390,7 +1402,7 @@
         <v>1.99979456413514</v>
       </c>
       <c r="P13">
-        <v>2.418840309704824</v>
+        <v>2.418840309704825</v>
       </c>
       <c r="Q13">
         <v>1.224850460065151</v>
@@ -1422,67 +1434,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0001211739101641088</v>
+        <v>0.0001211739101641081</v>
       </c>
       <c r="D14">
-        <v>0.0003641762212946879</v>
+        <v>1.862018421830997</v>
       </c>
       <c r="E14">
-        <v>1.862018421830995</v>
+        <v>0.0003641762212946885</v>
       </c>
       <c r="F14">
-        <v>0.0001211739101641088</v>
+        <v>0.0003641762212946885</v>
       </c>
       <c r="G14">
-        <v>0.01136983510383893</v>
+        <v>1.381973720091928</v>
       </c>
       <c r="H14">
+        <v>0.0002569795542226354</v>
+      </c>
+      <c r="I14">
+        <v>0.04551524375942597</v>
+      </c>
+      <c r="J14">
+        <v>0.01136983510383892</v>
+      </c>
+      <c r="K14">
         <v>2.785446655620628</v>
       </c>
-      <c r="I14">
-        <v>0.0001211739101641088</v>
-      </c>
-      <c r="J14">
-        <v>0.0003641762212946879</v>
-      </c>
-      <c r="K14">
-        <v>1.381973720091928</v>
-      </c>
       <c r="L14">
-        <v>0.04551524375942603</v>
+        <v>0.0001211739101641081</v>
       </c>
       <c r="M14">
-        <v>0.0002569795542226351</v>
+        <v>0.0001211739101641081</v>
       </c>
       <c r="N14">
-        <v>0.0001211739101641088</v>
+        <v>0.0001211739101641081</v>
       </c>
       <c r="O14">
-        <v>1.862018421830995</v>
+        <v>1.862018421830997</v>
       </c>
       <c r="P14">
-        <v>0.9311912990261447</v>
+        <v>0.9311912990261457</v>
       </c>
       <c r="Q14">
-        <v>0.9366941284674168</v>
+        <v>0.9366941284674178</v>
       </c>
       <c r="R14">
-        <v>0.6208345906541511</v>
+        <v>0.6208345906541518</v>
       </c>
       <c r="S14">
-        <v>0.6245841443853761</v>
+        <v>0.6245841443853768</v>
       </c>
       <c r="T14">
-        <v>0.6208345906541511</v>
+        <v>0.6208345906541518</v>
       </c>
       <c r="U14">
-        <v>0.4684684017665731</v>
+        <v>0.4684684017665736</v>
       </c>
       <c r="V14">
-        <v>0.3747989561952913</v>
+        <v>0.3747989561952917</v>
       </c>
       <c r="W14">
-        <v>0.7608832757615622</v>
+        <v>0.7608832757615624</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1496,43 +1508,43 @@
         <v>1.292570538149609</v>
       </c>
       <c r="D15">
-        <v>0.005991714432968144</v>
+        <v>1.487689455301568E-05</v>
       </c>
       <c r="E15">
-        <v>1.487689455301548E-05</v>
+        <v>0.005991714432968145</v>
       </c>
       <c r="F15">
+        <v>0.005991714432968145</v>
+      </c>
+      <c r="G15">
+        <v>0.8391380875820508</v>
+      </c>
+      <c r="H15">
+        <v>0.6248453032206281</v>
+      </c>
+      <c r="I15">
+        <v>2.194377304364672</v>
+      </c>
+      <c r="J15">
+        <v>1.706995109393747</v>
+      </c>
+      <c r="K15">
+        <v>0.2146094748090753</v>
+      </c>
+      <c r="L15">
         <v>1.292570538149609</v>
       </c>
-      <c r="G15">
-        <v>1.706995109393747</v>
-      </c>
-      <c r="H15">
-        <v>0.2146094748090753</v>
-      </c>
-      <c r="I15">
+      <c r="M15">
         <v>1.292570538149609</v>
-      </c>
-      <c r="J15">
-        <v>0.005991714432968144</v>
-      </c>
-      <c r="K15">
-        <v>0.839138087582051</v>
-      </c>
-      <c r="L15">
-        <v>2.194377304364673</v>
-      </c>
-      <c r="M15">
-        <v>0.6248453032206283</v>
       </c>
       <c r="N15">
         <v>1.292570538149609</v>
       </c>
       <c r="O15">
-        <v>1.487689455301548E-05</v>
+        <v>1.487689455301568E-05</v>
       </c>
       <c r="P15">
-        <v>0.003003295663760579</v>
+        <v>0.00300329566376058</v>
       </c>
       <c r="Q15">
         <v>0.8535049931441497</v>
@@ -1553,7 +1565,7 @@
         <v>0.8596285554040971</v>
       </c>
       <c r="W15">
-        <v>0.859817801105913</v>
+        <v>0.8598178011059129</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9847179780176707</v>
+        <v>2.280588241331856</v>
       </c>
       <c r="D16">
-        <v>1.000849738189512</v>
+        <v>1.572722035716359</v>
       </c>
       <c r="E16">
-        <v>1.0143008985123</v>
+        <v>0.2088910491602734</v>
       </c>
       <c r="F16">
-        <v>0.9847179780176707</v>
+        <v>0.2088910491602734</v>
       </c>
       <c r="G16">
-        <v>0.9927346114629173</v>
+        <v>1.634688522628786</v>
       </c>
       <c r="H16">
-        <v>1.002562240912709</v>
+        <v>0.3600977882977351</v>
       </c>
       <c r="I16">
-        <v>0.9847179780176694</v>
+        <v>0.6212007664887649</v>
       </c>
       <c r="J16">
-        <v>1.000849738189512</v>
+        <v>1.619283901663346</v>
       </c>
       <c r="K16">
-        <v>1.00305374329573</v>
+        <v>0.3407945207206747</v>
       </c>
       <c r="L16">
-        <v>1.009060273105469</v>
+        <v>2.28058824133188</v>
       </c>
       <c r="M16">
-        <v>1.001057952061716</v>
+        <v>2.28058824133188</v>
       </c>
       <c r="N16">
-        <v>0.9847179780176707</v>
+        <v>2.28058824133188</v>
       </c>
       <c r="O16">
-        <v>1.0143008985123</v>
+        <v>1.572722035716359</v>
       </c>
       <c r="P16">
-        <v>1.007575318350906</v>
+        <v>0.8908065424383163</v>
       </c>
       <c r="Q16">
-        <v>1.003517754987609</v>
+        <v>1.596002968689853</v>
       </c>
       <c r="R16">
-        <v>0.9999562049064944</v>
+        <v>1.354067108736171</v>
       </c>
       <c r="S16">
-        <v>1.00262841605491</v>
+        <v>1.13363232884666</v>
       </c>
       <c r="T16">
-        <v>0.9999562049064942</v>
+        <v>1.354067108736171</v>
       </c>
       <c r="U16">
-        <v>0.9981508065456</v>
+        <v>1.420371306967965</v>
       </c>
       <c r="V16">
-        <v>0.9954642408400141</v>
+        <v>1.592414693840748</v>
       </c>
       <c r="W16">
-        <v>1.001042179444753</v>
+        <v>1.079783353250977</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.026836882610509</v>
+        <v>1.873173595447033</v>
       </c>
       <c r="D17">
-        <v>0.9891697619618893</v>
+        <v>1.344578563915996</v>
       </c>
       <c r="E17">
-        <v>0.9713629600775756</v>
+        <v>0.4162110626911268</v>
       </c>
       <c r="F17">
-        <v>1.026836882610509</v>
+        <v>0.4162110626911268</v>
       </c>
       <c r="G17">
-        <v>1.02524692083327</v>
+        <v>1.386491241035061</v>
       </c>
       <c r="H17">
-        <v>1.003343200252853</v>
+        <v>0.5322914139186178</v>
       </c>
       <c r="I17">
-        <v>1.026836882610507</v>
+        <v>0.9687521150563123</v>
       </c>
       <c r="J17">
-        <v>0.9891697619618893</v>
+        <v>1.434301975736214</v>
       </c>
       <c r="K17">
-        <v>0.9930204570533889</v>
+        <v>0.5387030491567144</v>
       </c>
       <c r="L17">
-        <v>1.012292232849553</v>
+        <v>1.873173595447047</v>
       </c>
       <c r="M17">
-        <v>1.000471482141446</v>
+        <v>1.873173595447047</v>
       </c>
       <c r="N17">
-        <v>1.026836882610509</v>
+        <v>1.873173595447047</v>
       </c>
       <c r="O17">
-        <v>0.9713629600775756</v>
+        <v>1.344578563915996</v>
       </c>
       <c r="P17">
-        <v>0.9802663610197324</v>
+        <v>0.8803948133035613</v>
       </c>
       <c r="Q17">
-        <v>0.9983049404554225</v>
+        <v>1.389440269826105</v>
       </c>
       <c r="R17">
-        <v>0.9957898682166578</v>
+        <v>1.211321074018056</v>
       </c>
       <c r="S17">
-        <v>0.9952598809575782</v>
+        <v>1.065030534114445</v>
       </c>
       <c r="T17">
-        <v>0.9957898682166579</v>
+        <v>1.211321074018056</v>
       </c>
       <c r="U17">
-        <v>1.003154131370811</v>
+        <v>1.267066299447596</v>
       </c>
       <c r="V17">
-        <v>1.00789068161875</v>
+        <v>1.388287758647486</v>
       </c>
       <c r="W17">
-        <v>1.00271798722256</v>
+        <v>1.061812877119636</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.123291695185911</v>
+        <v>1.099299815228436</v>
       </c>
       <c r="D18">
-        <v>0.9728788568495987</v>
+        <v>0.9037516422495977</v>
       </c>
       <c r="E18">
-        <v>1.071741884001333</v>
+        <v>0.8414559402992636</v>
       </c>
       <c r="F18">
-        <v>1.123291695185911</v>
+        <v>0.8414559402992636</v>
       </c>
       <c r="G18">
-        <v>1.092471344666595</v>
+        <v>0.893537155956767</v>
       </c>
       <c r="H18">
-        <v>0.9962542423867041</v>
+        <v>0.8670785629653583</v>
       </c>
       <c r="I18">
-        <v>1.123291695185908</v>
+        <v>1.648515636591351</v>
       </c>
       <c r="J18">
-        <v>0.9728788568495987</v>
+        <v>1.06772628466901</v>
       </c>
       <c r="K18">
-        <v>1.081433295951298</v>
+        <v>0.9379852954229404</v>
       </c>
       <c r="L18">
-        <v>1.02012897608073</v>
+        <v>1.099299815228435</v>
       </c>
       <c r="M18">
-        <v>0.9752380658806912</v>
+        <v>1.099299815228435</v>
       </c>
       <c r="N18">
-        <v>1.123291695185911</v>
+        <v>1.099299815228435</v>
       </c>
       <c r="O18">
-        <v>1.071741884001333</v>
+        <v>0.9037516422495977</v>
       </c>
       <c r="P18">
-        <v>1.022310370425466</v>
+        <v>0.8726037912744307</v>
       </c>
       <c r="Q18">
-        <v>1.082106614333964</v>
+        <v>0.9857389634593038</v>
       </c>
       <c r="R18">
-        <v>1.055970812012281</v>
+        <v>0.9481691325924319</v>
       </c>
       <c r="S18">
-        <v>1.045697361839175</v>
+        <v>0.937644622405957</v>
       </c>
       <c r="T18">
-        <v>1.055970812012281</v>
+        <v>0.9481691325924319</v>
       </c>
       <c r="U18">
-        <v>1.065095945175859</v>
+        <v>0.9780584206115763</v>
       </c>
       <c r="V18">
-        <v>1.07673509517787</v>
+        <v>1.002306699534948</v>
       </c>
       <c r="W18">
-        <v>1.041679795125358</v>
+        <v>1.03241879167284</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.839797145421603</v>
+        <v>0.8840594611904913</v>
       </c>
       <c r="D19">
+        <v>0.8624944859569099</v>
+      </c>
+      <c r="E19">
+        <v>0.6264641030859048</v>
+      </c>
+      <c r="F19">
+        <v>0.6264641030859048</v>
+      </c>
+      <c r="G19">
+        <v>0.8426215581496785</v>
+      </c>
+      <c r="H19">
+        <v>0.8930592050802686</v>
+      </c>
+      <c r="I19">
+        <v>1.991458129719665</v>
+      </c>
+      <c r="J19">
+        <v>1.13694442782779</v>
+      </c>
+      <c r="K19">
+        <v>0.8490619878107004</v>
+      </c>
+      <c r="L19">
+        <v>0.8840594611904913</v>
+      </c>
+      <c r="M19">
+        <v>0.8840594611904913</v>
+      </c>
+      <c r="N19">
+        <v>0.8840594611904913</v>
+      </c>
+      <c r="O19">
+        <v>0.8624944859569099</v>
+      </c>
+      <c r="P19">
+        <v>0.7444792945214074</v>
+      </c>
+      <c r="Q19">
+        <v>0.9997194568923499</v>
+      </c>
+      <c r="R19">
+        <v>0.7910060167444354</v>
+      </c>
+      <c r="S19">
+        <v>0.8753010056235349</v>
+      </c>
+      <c r="T19">
+        <v>0.7910060167444354</v>
+      </c>
+      <c r="U19">
+        <v>0.877490619515274</v>
+      </c>
+      <c r="V19">
+        <v>0.8788043878503174</v>
+      </c>
+      <c r="W19">
+        <v>1.010770419852676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9847179780176704</v>
+      </c>
+      <c r="D20">
+        <v>1.014300898512301</v>
+      </c>
+      <c r="E20">
+        <v>1.000849738189512</v>
+      </c>
+      <c r="F20">
+        <v>1.000849738189512</v>
+      </c>
+      <c r="G20">
+        <v>1.003053743295728</v>
+      </c>
+      <c r="H20">
+        <v>1.001057952061715</v>
+      </c>
+      <c r="I20">
+        <v>1.009060273105468</v>
+      </c>
+      <c r="J20">
+        <v>0.9927346114629189</v>
+      </c>
+      <c r="K20">
+        <v>1.002562240912709</v>
+      </c>
+      <c r="L20">
+        <v>0.9847179780176718</v>
+      </c>
+      <c r="M20">
+        <v>0.9847179780176718</v>
+      </c>
+      <c r="N20">
+        <v>0.9847179780176718</v>
+      </c>
+      <c r="O20">
+        <v>1.014300898512301</v>
+      </c>
+      <c r="P20">
+        <v>1.007575318350906</v>
+      </c>
+      <c r="Q20">
+        <v>1.00351775498761</v>
+      </c>
+      <c r="R20">
+        <v>0.9999562049064948</v>
+      </c>
+      <c r="S20">
+        <v>1.00262841605491</v>
+      </c>
+      <c r="T20">
+        <v>0.9999562049064946</v>
+      </c>
+      <c r="U20">
+        <v>0.9981508065456007</v>
+      </c>
+      <c r="V20">
+        <v>0.9954642408400149</v>
+      </c>
+      <c r="W20">
+        <v>1.001042179444753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.026836882610507</v>
+      </c>
+      <c r="D21">
+        <v>0.9713629600775763</v>
+      </c>
+      <c r="E21">
+        <v>0.9891697619618893</v>
+      </c>
+      <c r="F21">
+        <v>0.9891697619618893</v>
+      </c>
+      <c r="G21">
+        <v>0.9930204570533889</v>
+      </c>
+      <c r="H21">
+        <v>1.000471482141445</v>
+      </c>
+      <c r="I21">
+        <v>1.012292232849553</v>
+      </c>
+      <c r="J21">
+        <v>1.025246920833269</v>
+      </c>
+      <c r="K21">
+        <v>1.003343200252852</v>
+      </c>
+      <c r="L21">
+        <v>1.026836882610509</v>
+      </c>
+      <c r="M21">
+        <v>1.026836882610509</v>
+      </c>
+      <c r="N21">
+        <v>1.026836882610509</v>
+      </c>
+      <c r="O21">
+        <v>0.9713629600775763</v>
+      </c>
+      <c r="P21">
+        <v>0.9802663610197329</v>
+      </c>
+      <c r="Q21">
+        <v>0.9983049404554225</v>
+      </c>
+      <c r="R21">
+        <v>0.9957898682166583</v>
+      </c>
+      <c r="S21">
+        <v>0.9952598809575782</v>
+      </c>
+      <c r="T21">
+        <v>0.995789868216658</v>
+      </c>
+      <c r="U21">
+        <v>1.003154131370811</v>
+      </c>
+      <c r="V21">
+        <v>1.007890681618751</v>
+      </c>
+      <c r="W21">
+        <v>1.00271798722256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.123291695185909</v>
+      </c>
+      <c r="D22">
+        <v>1.071741884001334</v>
+      </c>
+      <c r="E22">
+        <v>0.9728788568495984</v>
+      </c>
+      <c r="F22">
+        <v>0.9728788568495984</v>
+      </c>
+      <c r="G22">
+        <v>1.081433295951298</v>
+      </c>
+      <c r="H22">
+        <v>0.9752380658806912</v>
+      </c>
+      <c r="I22">
+        <v>1.02012897608073</v>
+      </c>
+      <c r="J22">
+        <v>1.092471344666595</v>
+      </c>
+      <c r="K22">
+        <v>0.996254242386704</v>
+      </c>
+      <c r="L22">
+        <v>1.123291695185913</v>
+      </c>
+      <c r="M22">
+        <v>1.123291695185913</v>
+      </c>
+      <c r="N22">
+        <v>1.123291695185913</v>
+      </c>
+      <c r="O22">
+        <v>1.071741884001334</v>
+      </c>
+      <c r="P22">
+        <v>1.022310370425466</v>
+      </c>
+      <c r="Q22">
+        <v>1.082106614333965</v>
+      </c>
+      <c r="R22">
+        <v>1.055970812012282</v>
+      </c>
+      <c r="S22">
+        <v>1.045697361839176</v>
+      </c>
+      <c r="T22">
+        <v>1.055970812012282</v>
+      </c>
+      <c r="U22">
+        <v>1.06509594517586</v>
+      </c>
+      <c r="V22">
+        <v>1.076735095177871</v>
+      </c>
+      <c r="W22">
+        <v>1.041679795125358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.8397971454215949</v>
+      </c>
+      <c r="D23">
+        <v>1.192563673556887</v>
+      </c>
+      <c r="E23">
         <v>0.7844595799847061</v>
       </c>
-      <c r="E19">
+      <c r="F23">
+        <v>0.7844595799847061</v>
+      </c>
+      <c r="G23">
+        <v>1.08396462939503</v>
+      </c>
+      <c r="H23">
+        <v>1.034561169937635</v>
+      </c>
+      <c r="I23">
+        <v>0.9433631019229672</v>
+      </c>
+      <c r="J23">
+        <v>1.014644920484191</v>
+      </c>
+      <c r="K23">
+        <v>0.9122545845888161</v>
+      </c>
+      <c r="L23">
+        <v>0.8397971454216029</v>
+      </c>
+      <c r="M23">
+        <v>0.8397971454216029</v>
+      </c>
+      <c r="N23">
+        <v>0.8397971454216029</v>
+      </c>
+      <c r="O23">
         <v>1.192563673556887</v>
       </c>
-      <c r="F19">
-        <v>0.839797145421603</v>
-      </c>
-      <c r="G19">
-        <v>1.014644920484191</v>
-      </c>
-      <c r="H19">
-        <v>0.9122545845888161</v>
-      </c>
-      <c r="I19">
-        <v>0.839797145421595</v>
-      </c>
-      <c r="J19">
-        <v>0.7844595799847061</v>
-      </c>
-      <c r="K19">
-        <v>1.08396462939503</v>
-      </c>
-      <c r="L19">
-        <v>0.9433631019229672</v>
-      </c>
-      <c r="M19">
-        <v>1.034561169937635</v>
-      </c>
-      <c r="N19">
-        <v>0.839797145421603</v>
-      </c>
-      <c r="O19">
-        <v>1.192563673556887</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9885116267707963</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.103604297020539</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9389401329877319</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.997222724675261</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9389401329877319</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9578663298618466</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9342524929737979</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9757011006614794</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 3]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.088096470005097</v>
+        <v>1.102062085766269</v>
       </c>
       <c r="D3">
-        <v>1.03050888989264</v>
+        <v>0.8995451935870699</v>
       </c>
       <c r="E3">
-        <v>0.9578570720223452</v>
+        <v>0.8280594355865986</v>
       </c>
       <c r="F3">
-        <v>0.9578570720223452</v>
+        <v>0.8280594355865986</v>
       </c>
       <c r="G3">
-        <v>1.041233105886447</v>
+        <v>0.8797638267940923</v>
       </c>
       <c r="H3">
-        <v>0.9604933475364092</v>
+        <v>0.8522367258236537</v>
       </c>
       <c r="I3">
-        <v>0.9845960719278705</v>
+        <v>1.963873167267354</v>
       </c>
       <c r="J3">
-        <v>1.046242591011267</v>
+        <v>1.088071348964817</v>
       </c>
       <c r="K3">
-        <v>0.9612557958717943</v>
+        <v>0.9055202589760148</v>
       </c>
       <c r="L3">
-        <v>1.088096470005099</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="M3">
-        <v>1.088096470005099</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="N3">
-        <v>1.088096470005099</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="O3">
-        <v>1.03050888989264</v>
+        <v>0.8995451935870699</v>
       </c>
       <c r="P3">
-        <v>0.9941829809574928</v>
+        <v>0.8638023145868342</v>
       </c>
       <c r="Q3">
-        <v>1.038375740451954</v>
+        <v>0.9938082712759437</v>
       </c>
       <c r="R3">
-        <v>1.025487477306695</v>
+        <v>0.943222238313313</v>
       </c>
       <c r="S3">
-        <v>1.011536184308751</v>
+        <v>0.9385586593794953</v>
       </c>
       <c r="T3">
-        <v>1.025487477306695</v>
+        <v>0.943222238313313</v>
       </c>
       <c r="U3">
-        <v>1.030676255732838</v>
+        <v>0.979434515976189</v>
       </c>
       <c r="V3">
-        <v>1.04216029858729</v>
+        <v>1.003960029934205</v>
       </c>
       <c r="W3">
-        <v>1.008785418019234</v>
+        <v>1.064891505345734</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.145971862819932</v>
+        <v>1.055057263482224</v>
       </c>
       <c r="D4">
-        <v>1.065610559024315</v>
+        <v>0.8945214135714995</v>
       </c>
       <c r="E4">
-        <v>0.9389443473461672</v>
+        <v>0.8327110649775368</v>
       </c>
       <c r="F4">
-        <v>0.9389443473461672</v>
+        <v>0.8327110649775368</v>
       </c>
       <c r="G4">
-        <v>1.066631321207997</v>
+        <v>0.8850257403739866</v>
       </c>
       <c r="H4">
-        <v>0.9501479730209618</v>
+        <v>0.8671859107928418</v>
       </c>
       <c r="I4">
-        <v>0.9784991514486676</v>
+        <v>1.79953804205826</v>
       </c>
       <c r="J4">
-        <v>1.065435370003966</v>
+        <v>1.076148359975028</v>
       </c>
       <c r="K4">
-        <v>0.9556153547180026</v>
+        <v>0.9229828135180883</v>
       </c>
       <c r="L4">
-        <v>1.145971862819936</v>
+        <v>1.055057263482226</v>
       </c>
       <c r="M4">
-        <v>1.145971862819936</v>
+        <v>1.055057263482226</v>
       </c>
       <c r="N4">
-        <v>1.145971862819936</v>
+        <v>1.055057263482226</v>
       </c>
       <c r="O4">
-        <v>1.065610559024315</v>
+        <v>0.8945214135714995</v>
       </c>
       <c r="P4">
-        <v>1.002277453185241</v>
+        <v>0.8636162392745181</v>
       </c>
       <c r="Q4">
-        <v>1.06552296451414</v>
+        <v>0.9853348867732636</v>
       </c>
       <c r="R4">
-        <v>1.050175589730139</v>
+        <v>0.9274299140104206</v>
       </c>
       <c r="S4">
-        <v>1.023330092124816</v>
+        <v>0.9344602795080214</v>
       </c>
       <c r="T4">
-        <v>1.050175589730139</v>
+        <v>0.9274299140104206</v>
       </c>
       <c r="U4">
-        <v>1.053990534798596</v>
+        <v>0.9646095255015724</v>
       </c>
       <c r="V4">
-        <v>1.072386800402864</v>
+        <v>0.982699073097703</v>
       </c>
       <c r="W4">
-        <v>1.020856992448752</v>
+        <v>1.041646326093683</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.314325285482043</v>
+        <v>1.265725322094917</v>
       </c>
       <c r="D5">
-        <v>1.48385224340547</v>
+        <v>0.9351611108150942</v>
       </c>
       <c r="E5">
-        <v>0.7395383512493192</v>
+        <v>0.7854754751714075</v>
       </c>
       <c r="F5">
-        <v>0.7395383512493192</v>
+        <v>0.7854754751714075</v>
       </c>
       <c r="G5">
-        <v>1.178474583227805</v>
+        <v>0.8664934160876017</v>
       </c>
       <c r="H5">
-        <v>0.8460152596984222</v>
+        <v>0.8443101559850396</v>
       </c>
       <c r="I5">
-        <v>0.7986850682140122</v>
+        <v>2.34888783093146</v>
       </c>
       <c r="J5">
-        <v>1.3907792673713</v>
+        <v>1.139036580922508</v>
       </c>
       <c r="K5">
-        <v>0.8727591039710728</v>
+        <v>0.9108559483553369</v>
       </c>
       <c r="L5">
-        <v>1.314325285482058</v>
+        <v>1.265725322094923</v>
       </c>
       <c r="M5">
-        <v>1.314325285482058</v>
+        <v>1.265725322094923</v>
       </c>
       <c r="N5">
-        <v>1.314325285482058</v>
+        <v>1.265725322094923</v>
       </c>
       <c r="O5">
-        <v>1.48385224340547</v>
+        <v>0.9351611108150942</v>
       </c>
       <c r="P5">
-        <v>1.111695297327395</v>
+        <v>0.8603182929932509</v>
       </c>
       <c r="Q5">
-        <v>1.437315755388385</v>
+        <v>1.037098845868801</v>
       </c>
       <c r="R5">
-        <v>1.179238626712283</v>
+        <v>0.9954539693604748</v>
       </c>
       <c r="S5">
-        <v>1.20472328734203</v>
+        <v>0.9532243889696699</v>
       </c>
       <c r="T5">
-        <v>1.179238626712283</v>
+        <v>0.9954539693604748</v>
       </c>
       <c r="U5">
-        <v>1.232123786877037</v>
+        <v>1.031349622250983</v>
       </c>
       <c r="V5">
-        <v>1.248564086598041</v>
+        <v>1.078224762219771</v>
       </c>
       <c r="W5">
-        <v>1.078053645327433</v>
+        <v>1.136993230045421</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.565641111240899</v>
+        <v>1.533828763901478</v>
       </c>
       <c r="D6">
-        <v>1.151249508480644</v>
+        <v>1.288618587253693</v>
       </c>
       <c r="E6">
-        <v>0.7786477807869666</v>
+        <v>0.5403614333106586</v>
       </c>
       <c r="F6">
-        <v>0.7786477807869666</v>
+        <v>0.5403614333106586</v>
       </c>
       <c r="G6">
-        <v>1.203162009877595</v>
+        <v>0.7499514276092223</v>
       </c>
       <c r="H6">
-        <v>0.8485302553490859</v>
+        <v>0.6311590875325559</v>
       </c>
       <c r="I6">
-        <v>0.7172146972836324</v>
+        <v>2.98967280323159</v>
       </c>
       <c r="J6">
-        <v>1.753190958844787</v>
+        <v>1.318661749720454</v>
       </c>
       <c r="K6">
-        <v>1.126843897696946</v>
+        <v>0.6978147598805117</v>
       </c>
       <c r="L6">
-        <v>2.565641111240899</v>
+        <v>1.533828763901478</v>
       </c>
       <c r="M6">
-        <v>2.565641111240899</v>
+        <v>1.533828763901478</v>
       </c>
       <c r="N6">
-        <v>2.565641111240899</v>
+        <v>1.533828763901478</v>
       </c>
       <c r="O6">
-        <v>1.151249508480644</v>
+        <v>1.288618587253693</v>
       </c>
       <c r="P6">
-        <v>0.9649486446338056</v>
+        <v>0.914490010282176</v>
       </c>
       <c r="Q6">
-        <v>1.452220233662716</v>
+        <v>1.303640168487074</v>
       </c>
       <c r="R6">
-        <v>1.498512800169503</v>
+        <v>1.12093626148861</v>
       </c>
       <c r="S6">
-        <v>1.227696082704133</v>
+        <v>1.049213923428269</v>
       </c>
       <c r="T6">
-        <v>1.498512800169503</v>
+        <v>1.12093626148861</v>
       </c>
       <c r="U6">
-        <v>1.562182339838324</v>
+        <v>1.170367633546571</v>
       </c>
       <c r="V6">
-        <v>1.762874094118839</v>
+        <v>1.243059859617552</v>
       </c>
       <c r="W6">
-        <v>1.26806002744507</v>
+        <v>1.21875857655502</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.006781160073849</v>
+        <v>5.785063909513694</v>
       </c>
       <c r="D7">
-        <v>1.000052070752198</v>
+        <v>1.895392282717904</v>
       </c>
       <c r="E7">
-        <v>0.9972956987087751</v>
+        <v>3.785478289468077</v>
       </c>
       <c r="F7">
-        <v>0.9972956987087751</v>
+        <v>3.785478289468077</v>
       </c>
       <c r="G7">
-        <v>0.9990647930591284</v>
+        <v>0.001207487393928872</v>
       </c>
       <c r="H7">
-        <v>0.9992141111836842</v>
+        <v>1.89253022800279</v>
       </c>
       <c r="I7">
-        <v>1.012045830377895</v>
+        <v>1.269604677659864</v>
       </c>
       <c r="J7">
-        <v>1.000304672977763</v>
+        <v>1.760292564600118</v>
       </c>
       <c r="K7">
-        <v>0.9985927780707086</v>
+        <v>1.893942970356455</v>
       </c>
       <c r="L7">
-        <v>1.006781160073851</v>
+        <v>5.785063909513694</v>
       </c>
       <c r="M7">
-        <v>1.006781160073851</v>
+        <v>5.785063909513694</v>
       </c>
       <c r="N7">
-        <v>1.006781160073851</v>
+        <v>5.785063909513694</v>
       </c>
       <c r="O7">
-        <v>1.000052070752198</v>
+        <v>1.895392282717904</v>
       </c>
       <c r="P7">
-        <v>0.9986738847304868</v>
+        <v>2.84043528609299</v>
       </c>
       <c r="Q7">
-        <v>1.000178371864981</v>
+        <v>1.827842423659011</v>
       </c>
       <c r="R7">
-        <v>1.001376309844942</v>
+        <v>3.821978160566558</v>
       </c>
       <c r="S7">
-        <v>0.9992174808129123</v>
+        <v>2.480387712262033</v>
       </c>
       <c r="T7">
-        <v>1.001376309844942</v>
+        <v>3.821978160566558</v>
       </c>
       <c r="U7">
-        <v>1.001108400628147</v>
+        <v>3.306556761574948</v>
       </c>
       <c r="V7">
-        <v>1.002242952517288</v>
+        <v>3.802258191162697</v>
       </c>
       <c r="W7">
-        <v>1.0016688894005</v>
+        <v>2.285439051214104</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.020687090393898</v>
+        <v>5.832237165862105</v>
       </c>
       <c r="D8">
-        <v>0.990785535253317</v>
+        <v>1.885724113833821</v>
       </c>
       <c r="E8">
-        <v>0.9976531351811131</v>
+        <v>3.763022004417179</v>
       </c>
       <c r="F8">
-        <v>0.9976531351811131</v>
+        <v>3.763022004417179</v>
       </c>
       <c r="G8">
-        <v>0.9953360072071875</v>
+        <v>0.00120454327565099</v>
       </c>
       <c r="H8">
-        <v>0.9920809741333685</v>
+        <v>1.880164334510104</v>
       </c>
       <c r="I8">
-        <v>1.029214847590023</v>
+        <v>1.308818660563083</v>
       </c>
       <c r="J8">
-        <v>0.9985690040349668</v>
+        <v>1.757991991705512</v>
       </c>
       <c r="K8">
-        <v>0.9965679336709522</v>
+        <v>1.884090894036707</v>
       </c>
       <c r="L8">
-        <v>1.020687090393901</v>
+        <v>5.832237165862105</v>
       </c>
       <c r="M8">
-        <v>1.020687090393901</v>
+        <v>5.832237165862105</v>
       </c>
       <c r="N8">
-        <v>1.020687090393901</v>
+        <v>5.832237165862105</v>
       </c>
       <c r="O8">
-        <v>0.990785535253317</v>
+        <v>1.885724113833821</v>
       </c>
       <c r="P8">
-        <v>0.9942193352172151</v>
+        <v>2.8243730591255</v>
       </c>
       <c r="Q8">
-        <v>0.9946772696441419</v>
+        <v>1.821858052769667</v>
       </c>
       <c r="R8">
-        <v>1.00304192027611</v>
+        <v>3.826994428037702</v>
       </c>
       <c r="S8">
-        <v>0.9956692248231324</v>
+        <v>2.468912703318837</v>
       </c>
       <c r="T8">
-        <v>1.00304192027611</v>
+        <v>3.826994428037702</v>
       </c>
       <c r="U8">
-        <v>1.001923691215824</v>
+        <v>3.309743818954654</v>
       </c>
       <c r="V8">
-        <v>1.00567637105144</v>
+        <v>3.814242488336144</v>
       </c>
       <c r="W8">
-        <v>1.002611815933104</v>
+        <v>2.289156713525521</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.081580611680687</v>
+        <v>5.81028722648778</v>
       </c>
       <c r="D9">
-        <v>0.99937134808087</v>
+        <v>1.880245294963406</v>
       </c>
       <c r="E9">
-        <v>0.983157246914566</v>
+        <v>3.745639107762121</v>
       </c>
       <c r="F9">
-        <v>0.983157246914566</v>
+        <v>3.745639107762121</v>
       </c>
       <c r="G9">
-        <v>0.9872057038235125</v>
+        <v>0.001187592613521426</v>
       </c>
       <c r="H9">
-        <v>0.9893203942947312</v>
+        <v>1.868635128245735</v>
       </c>
       <c r="I9">
-        <v>1.030214032476727</v>
+        <v>1.366701699170918</v>
       </c>
       <c r="J9">
-        <v>1.009037303558819</v>
+        <v>1.752649689610005</v>
       </c>
       <c r="K9">
-        <v>0.9944099612826865</v>
+        <v>1.878394392088513</v>
       </c>
       <c r="L9">
-        <v>1.08158061168069</v>
+        <v>5.81028722648778</v>
       </c>
       <c r="M9">
-        <v>1.08158061168069</v>
+        <v>5.81028722648778</v>
       </c>
       <c r="N9">
-        <v>1.08158061168069</v>
+        <v>5.81028722648778</v>
       </c>
       <c r="O9">
-        <v>0.99937134808087</v>
+        <v>1.880245294963406</v>
       </c>
       <c r="P9">
-        <v>0.9912642974977179</v>
+        <v>2.812942201362763</v>
       </c>
       <c r="Q9">
-        <v>1.004204325819845</v>
+        <v>1.816447492286705</v>
       </c>
       <c r="R9">
-        <v>1.021369735558709</v>
+        <v>3.812057209737769</v>
       </c>
       <c r="S9">
-        <v>0.9971886328514185</v>
+        <v>2.459511364111844</v>
       </c>
       <c r="T9">
-        <v>1.021369735558709</v>
+        <v>3.812057209737768</v>
       </c>
       <c r="U9">
-        <v>1.018286627558736</v>
+        <v>3.297205329705827</v>
       </c>
       <c r="V9">
-        <v>1.030945424383127</v>
+        <v>3.799821709062218</v>
       </c>
       <c r="W9">
-        <v>1.009287075264075</v>
+        <v>2.28796751636775</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.119418755226334</v>
+        <v>6.11346656194898</v>
       </c>
       <c r="D10">
-        <v>0.9938004153855537</v>
+        <v>1.855237147334917</v>
       </c>
       <c r="E10">
-        <v>0.9867865888180729</v>
+        <v>3.688463407481958</v>
       </c>
       <c r="F10">
-        <v>0.9867865888180729</v>
+        <v>3.688463407481958</v>
       </c>
       <c r="G10">
-        <v>0.9952383064012894</v>
+        <v>0.001219333681434473</v>
       </c>
       <c r="H10">
-        <v>0.9887231856468607</v>
+        <v>1.831541697644849</v>
       </c>
       <c r="I10">
-        <v>1.072779076811434</v>
+        <v>1.466547834455421</v>
       </c>
       <c r="J10">
-        <v>1.00465409135102</v>
+        <v>1.720351189169126</v>
       </c>
       <c r="K10">
-        <v>0.9901880480689254</v>
+        <v>1.853956500471845</v>
       </c>
       <c r="L10">
-        <v>1.119418755226342</v>
+        <v>6.11346656194898</v>
       </c>
       <c r="M10">
-        <v>1.119418755226342</v>
+        <v>6.11346656194898</v>
       </c>
       <c r="N10">
-        <v>1.119418755226342</v>
+        <v>6.11346656194898</v>
       </c>
       <c r="O10">
-        <v>0.9938004153855537</v>
+        <v>1.855237147334917</v>
       </c>
       <c r="P10">
-        <v>0.9902935021018133</v>
+        <v>2.771850277408438</v>
       </c>
       <c r="Q10">
-        <v>0.9992272533682869</v>
+        <v>1.787794168252022</v>
       </c>
       <c r="R10">
-        <v>1.033335253143323</v>
+        <v>3.885722372255285</v>
       </c>
       <c r="S10">
-        <v>0.9950803651848822</v>
+        <v>2.421350581328667</v>
       </c>
       <c r="T10">
-        <v>1.033335253143323</v>
+        <v>3.885722372255285</v>
       </c>
       <c r="U10">
-        <v>1.026164962695247</v>
+        <v>3.344379576483745</v>
       </c>
       <c r="V10">
-        <v>1.044815721201466</v>
+        <v>3.898196973576792</v>
       </c>
       <c r="W10">
-        <v>1.018948558463687</v>
+        <v>2.316347959023566</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.410038437625749</v>
+        <v>1.116417020986898</v>
       </c>
       <c r="D11">
-        <v>0.997865825041343</v>
+        <v>1.030446202932907</v>
       </c>
       <c r="E11">
-        <v>1.16817868244776</v>
+        <v>0.9900934808576933</v>
       </c>
       <c r="F11">
-        <v>1.16817868244776</v>
+        <v>0.9900934808576933</v>
       </c>
       <c r="G11">
-        <v>0.9860811672819638</v>
+        <v>1.028711654150213</v>
       </c>
       <c r="H11">
-        <v>1.057396578977097</v>
+        <v>0.9768923201565926</v>
       </c>
       <c r="I11">
-        <v>1.114171511208776</v>
+        <v>0.9703021122327241</v>
       </c>
       <c r="J11">
-        <v>1.059881886452539</v>
+        <v>1.035933620613166</v>
       </c>
       <c r="K11">
-        <v>0.9924431226287668</v>
+        <v>0.9659440025543677</v>
       </c>
       <c r="L11">
-        <v>1.410038437625749</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="M11">
-        <v>1.410038437625749</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="N11">
-        <v>1.410038437625749</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="O11">
-        <v>0.997865825041343</v>
+        <v>1.030446202932907</v>
       </c>
       <c r="P11">
-        <v>1.083022253744552</v>
+        <v>1.0102698418953</v>
       </c>
       <c r="Q11">
-        <v>1.028873855746941</v>
+        <v>1.033189911773037</v>
       </c>
       <c r="R11">
-        <v>1.192027648371617</v>
+        <v>1.045652234925834</v>
       </c>
       <c r="S11">
-        <v>1.075308797980548</v>
+        <v>1.018824434801256</v>
       </c>
       <c r="T11">
-        <v>1.192027648371617</v>
+        <v>1.045652234925834</v>
       </c>
       <c r="U11">
-        <v>1.158991207891848</v>
+        <v>1.043222581347667</v>
       </c>
       <c r="V11">
-        <v>1.209200653838628</v>
+        <v>1.057861469275513</v>
       </c>
       <c r="W11">
-        <v>1.098257151457999</v>
+        <v>1.014342551810571</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.04122531831870988</v>
+        <v>1.051169839750575</v>
       </c>
       <c r="D12">
-        <v>0.06882008110392791</v>
+        <v>1.023632711898389</v>
       </c>
       <c r="E12">
-        <v>0.03059505010989017</v>
+        <v>0.9923301576293735</v>
       </c>
       <c r="F12">
-        <v>0.03059505010989017</v>
+        <v>0.9923301576293735</v>
       </c>
       <c r="G12">
-        <v>1.585706857333606</v>
+        <v>1.013943586248267</v>
       </c>
       <c r="H12">
-        <v>1.649610209158356</v>
+        <v>0.9868903981427208</v>
       </c>
       <c r="I12">
-        <v>1.659235194594477</v>
+        <v>0.9926981014628906</v>
       </c>
       <c r="J12">
-        <v>1.707159803680534</v>
+        <v>1.022636715564664</v>
       </c>
       <c r="K12">
-        <v>0.492865113276363</v>
+        <v>0.9858337844654264</v>
       </c>
       <c r="L12">
-        <v>0.04122531831870988</v>
+        <v>1.051169839750576</v>
       </c>
       <c r="M12">
-        <v>0.04122531831870988</v>
+        <v>1.051169839750576</v>
       </c>
       <c r="N12">
-        <v>0.04122531831870988</v>
+        <v>1.051169839750576</v>
       </c>
       <c r="O12">
-        <v>0.06882008110392791</v>
+        <v>1.023632711898389</v>
       </c>
       <c r="P12">
-        <v>0.04970756560690904</v>
+        <v>1.007981434763881</v>
       </c>
       <c r="Q12">
-        <v>0.8879899423922307</v>
+        <v>1.023134713731526</v>
       </c>
       <c r="R12">
-        <v>0.04688014984417599</v>
+        <v>1.022377569759446</v>
       </c>
       <c r="S12">
-        <v>0.6021916449647838</v>
+        <v>1.012866528364142</v>
       </c>
       <c r="T12">
-        <v>0.04688014984417599</v>
+        <v>1.022377569759446</v>
       </c>
       <c r="U12">
-        <v>0.4619500633032654</v>
+        <v>1.022442356210751</v>
       </c>
       <c r="V12">
-        <v>0.3778051143063543</v>
+        <v>1.028187852918716</v>
       </c>
       <c r="W12">
-        <v>0.9044022034469829</v>
+        <v>1.008641911895289</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.10923066971491</v>
+        <v>1.214175349611358</v>
       </c>
       <c r="D13">
-        <v>1.99979456413514</v>
+        <v>1.115214447107354</v>
       </c>
       <c r="E13">
-        <v>2.837886055274509</v>
+        <v>0.8710853811673451</v>
       </c>
       <c r="F13">
-        <v>2.837886055274509</v>
+        <v>0.8710853811673451</v>
       </c>
       <c r="G13">
-        <v>0.9632593806865919</v>
+        <v>1.059719283912773</v>
       </c>
       <c r="H13">
-        <v>0.8732713772621292</v>
+        <v>0.9996889659155485</v>
       </c>
       <c r="I13">
-        <v>0.1471805849603647</v>
+        <v>1.006926903321012</v>
       </c>
       <c r="J13">
-        <v>0.4499063559951609</v>
+        <v>1.090747891575318</v>
       </c>
       <c r="K13">
-        <v>1.183671385942961</v>
+        <v>0.9900824210918436</v>
       </c>
       <c r="L13">
-        <v>2.10923066971491</v>
+        <v>1.214175349611367</v>
       </c>
       <c r="M13">
-        <v>2.10923066971491</v>
+        <v>1.214175349611367</v>
       </c>
       <c r="N13">
-        <v>2.10923066971491</v>
+        <v>1.214175349611367</v>
       </c>
       <c r="O13">
-        <v>1.99979456413514</v>
+        <v>1.115214447107354</v>
       </c>
       <c r="P13">
-        <v>2.418840309704825</v>
+        <v>0.9931499141373494</v>
       </c>
       <c r="Q13">
-        <v>1.224850460065151</v>
+        <v>1.102981169341336</v>
       </c>
       <c r="R13">
-        <v>2.315637096374853</v>
+        <v>1.066825059295355</v>
       </c>
       <c r="S13">
-        <v>1.762528991801603</v>
+        <v>1.025682573283339</v>
       </c>
       <c r="T13">
-        <v>2.315637096374853</v>
+        <v>1.066825059295355</v>
       </c>
       <c r="U13">
-        <v>1.84920441127993</v>
+        <v>1.072805767365346</v>
       </c>
       <c r="V13">
-        <v>1.901209662966926</v>
+        <v>1.10107968381455</v>
       </c>
       <c r="W13">
-        <v>1.320525046746471</v>
+        <v>1.04345508046282</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0001211739101641081</v>
+        <v>1.709403807730185</v>
       </c>
       <c r="D14">
-        <v>1.862018421830997</v>
+        <v>1.674656371113167</v>
       </c>
       <c r="E14">
-        <v>0.0003641762212946885</v>
+        <v>0.6941746066387101</v>
       </c>
       <c r="F14">
-        <v>0.0003641762212946885</v>
+        <v>0.6941746066387101</v>
       </c>
       <c r="G14">
-        <v>1.381973720091928</v>
+        <v>1.054628221120572</v>
       </c>
       <c r="H14">
-        <v>0.0002569795542226354</v>
+        <v>0.7954011866634967</v>
       </c>
       <c r="I14">
-        <v>0.04551524375942597</v>
+        <v>1.054751856738903</v>
       </c>
       <c r="J14">
-        <v>0.01136983510383892</v>
+        <v>1.517158541039662</v>
       </c>
       <c r="K14">
-        <v>2.785446655620628</v>
+        <v>0.7743309229606399</v>
       </c>
       <c r="L14">
-        <v>0.0001211739101641081</v>
+        <v>1.709403807730185</v>
       </c>
       <c r="M14">
-        <v>0.0001211739101641081</v>
+        <v>1.709403807730185</v>
       </c>
       <c r="N14">
-        <v>0.0001211739101641081</v>
+        <v>1.709403807730185</v>
       </c>
       <c r="O14">
-        <v>1.862018421830997</v>
+        <v>1.674656371113167</v>
       </c>
       <c r="P14">
-        <v>0.9311912990261457</v>
+        <v>1.184415488875939</v>
       </c>
       <c r="Q14">
-        <v>0.9366941284674178</v>
+        <v>1.595907456076415</v>
       </c>
       <c r="R14">
-        <v>0.6208345906541518</v>
+        <v>1.359411595160687</v>
       </c>
       <c r="S14">
-        <v>0.6245841443853768</v>
+        <v>1.29532983959718</v>
       </c>
       <c r="T14">
-        <v>0.6208345906541518</v>
+        <v>1.359411595160687</v>
       </c>
       <c r="U14">
-        <v>0.4684684017665736</v>
+        <v>1.398848331630431</v>
       </c>
       <c r="V14">
-        <v>0.3747989561952917</v>
+        <v>1.460959426850382</v>
       </c>
       <c r="W14">
-        <v>0.7608832757615624</v>
+        <v>1.159313189250667</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.292570538149609</v>
+        <v>1.088096470005097</v>
       </c>
       <c r="D15">
-        <v>1.487689455301568E-05</v>
+        <v>1.03050888989264</v>
       </c>
       <c r="E15">
-        <v>0.005991714432968145</v>
+        <v>0.9578570720223452</v>
       </c>
       <c r="F15">
-        <v>0.005991714432968145</v>
+        <v>0.9578570720223452</v>
       </c>
       <c r="G15">
-        <v>0.8391380875820508</v>
+        <v>1.041233105886447</v>
       </c>
       <c r="H15">
-        <v>0.6248453032206281</v>
+        <v>0.9604933475364092</v>
       </c>
       <c r="I15">
-        <v>2.194377304364672</v>
+        <v>0.9845960719278705</v>
       </c>
       <c r="J15">
-        <v>1.706995109393747</v>
+        <v>1.046242591011267</v>
       </c>
       <c r="K15">
-        <v>0.2146094748090753</v>
+        <v>0.9612557958717943</v>
       </c>
       <c r="L15">
-        <v>1.292570538149609</v>
+        <v>1.088096470005099</v>
       </c>
       <c r="M15">
-        <v>1.292570538149609</v>
+        <v>1.088096470005099</v>
       </c>
       <c r="N15">
-        <v>1.292570538149609</v>
+        <v>1.088096470005099</v>
       </c>
       <c r="O15">
-        <v>1.487689455301568E-05</v>
+        <v>1.03050888989264</v>
       </c>
       <c r="P15">
-        <v>0.00300329566376058</v>
+        <v>0.9941829809574928</v>
       </c>
       <c r="Q15">
-        <v>0.8535049931441497</v>
+        <v>1.038375740451954</v>
       </c>
       <c r="R15">
-        <v>0.4328590431590435</v>
+        <v>1.025487477306695</v>
       </c>
       <c r="S15">
-        <v>0.5710005669070892</v>
+        <v>1.011536184308751</v>
       </c>
       <c r="T15">
-        <v>0.4328590431590435</v>
+        <v>1.025487477306695</v>
       </c>
       <c r="U15">
-        <v>0.7513930597177192</v>
+        <v>1.030676255732838</v>
       </c>
       <c r="V15">
-        <v>0.8596285554040971</v>
+        <v>1.04216029858729</v>
       </c>
       <c r="W15">
-        <v>0.8598178011059129</v>
+        <v>1.008785418019234</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.280588241331856</v>
+        <v>1.145971862819932</v>
       </c>
       <c r="D16">
-        <v>1.572722035716359</v>
+        <v>1.065610559024315</v>
       </c>
       <c r="E16">
-        <v>0.2088910491602734</v>
+        <v>0.9389443473461672</v>
       </c>
       <c r="F16">
-        <v>0.2088910491602734</v>
+        <v>0.9389443473461672</v>
       </c>
       <c r="G16">
-        <v>1.634688522628786</v>
+        <v>1.066631321207997</v>
       </c>
       <c r="H16">
-        <v>0.3600977882977351</v>
+        <v>0.9501479730209618</v>
       </c>
       <c r="I16">
-        <v>0.6212007664887649</v>
+        <v>0.9784991514486676</v>
       </c>
       <c r="J16">
-        <v>1.619283901663346</v>
+        <v>1.065435370003966</v>
       </c>
       <c r="K16">
-        <v>0.3407945207206747</v>
+        <v>0.9556153547180026</v>
       </c>
       <c r="L16">
-        <v>2.28058824133188</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="M16">
-        <v>2.28058824133188</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="N16">
-        <v>2.28058824133188</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="O16">
-        <v>1.572722035716359</v>
+        <v>1.065610559024315</v>
       </c>
       <c r="P16">
-        <v>0.8908065424383163</v>
+        <v>1.002277453185241</v>
       </c>
       <c r="Q16">
-        <v>1.596002968689853</v>
+        <v>1.06552296451414</v>
       </c>
       <c r="R16">
-        <v>1.354067108736171</v>
+        <v>1.050175589730139</v>
       </c>
       <c r="S16">
-        <v>1.13363232884666</v>
+        <v>1.023330092124816</v>
       </c>
       <c r="T16">
-        <v>1.354067108736171</v>
+        <v>1.050175589730139</v>
       </c>
       <c r="U16">
-        <v>1.420371306967965</v>
+        <v>1.053990534798596</v>
       </c>
       <c r="V16">
-        <v>1.592414693840748</v>
+        <v>1.072386800402864</v>
       </c>
       <c r="W16">
-        <v>1.079783353250977</v>
+        <v>1.020856992448752</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.873173595447033</v>
+        <v>1.314325285482043</v>
       </c>
       <c r="D17">
-        <v>1.344578563915996</v>
+        <v>1.48385224340547</v>
       </c>
       <c r="E17">
-        <v>0.4162110626911268</v>
+        <v>0.7395383512493192</v>
       </c>
       <c r="F17">
-        <v>0.4162110626911268</v>
+        <v>0.7395383512493192</v>
       </c>
       <c r="G17">
-        <v>1.386491241035061</v>
+        <v>1.178474583227805</v>
       </c>
       <c r="H17">
-        <v>0.5322914139186178</v>
+        <v>0.8460152596984222</v>
       </c>
       <c r="I17">
-        <v>0.9687521150563123</v>
+        <v>0.7986850682140122</v>
       </c>
       <c r="J17">
-        <v>1.434301975736214</v>
+        <v>1.3907792673713</v>
       </c>
       <c r="K17">
-        <v>0.5387030491567144</v>
+        <v>0.8727591039710728</v>
       </c>
       <c r="L17">
-        <v>1.873173595447047</v>
+        <v>1.314325285482058</v>
       </c>
       <c r="M17">
-        <v>1.873173595447047</v>
+        <v>1.314325285482058</v>
       </c>
       <c r="N17">
-        <v>1.873173595447047</v>
+        <v>1.314325285482058</v>
       </c>
       <c r="O17">
-        <v>1.344578563915996</v>
+        <v>1.48385224340547</v>
       </c>
       <c r="P17">
-        <v>0.8803948133035613</v>
+        <v>1.111695297327395</v>
       </c>
       <c r="Q17">
-        <v>1.389440269826105</v>
+        <v>1.437315755388385</v>
       </c>
       <c r="R17">
-        <v>1.211321074018056</v>
+        <v>1.179238626712283</v>
       </c>
       <c r="S17">
-        <v>1.065030534114445</v>
+        <v>1.20472328734203</v>
       </c>
       <c r="T17">
-        <v>1.211321074018056</v>
+        <v>1.179238626712283</v>
       </c>
       <c r="U17">
-        <v>1.267066299447596</v>
+        <v>1.232123786877037</v>
       </c>
       <c r="V17">
-        <v>1.388287758647486</v>
+        <v>1.248564086598041</v>
       </c>
       <c r="W17">
-        <v>1.061812877119636</v>
+        <v>1.078053645327433</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.099299815228436</v>
+        <v>2.565641111240899</v>
       </c>
       <c r="D18">
-        <v>0.9037516422495977</v>
+        <v>1.151249508480644</v>
       </c>
       <c r="E18">
-        <v>0.8414559402992636</v>
+        <v>0.7786477807869666</v>
       </c>
       <c r="F18">
-        <v>0.8414559402992636</v>
+        <v>0.7786477807869666</v>
       </c>
       <c r="G18">
-        <v>0.893537155956767</v>
+        <v>1.203162009877595</v>
       </c>
       <c r="H18">
-        <v>0.8670785629653583</v>
+        <v>0.8485302553490859</v>
       </c>
       <c r="I18">
-        <v>1.648515636591351</v>
+        <v>0.7172146972836324</v>
       </c>
       <c r="J18">
-        <v>1.06772628466901</v>
+        <v>1.753190958844787</v>
       </c>
       <c r="K18">
-        <v>0.9379852954229404</v>
+        <v>1.126843897696946</v>
       </c>
       <c r="L18">
-        <v>1.099299815228435</v>
+        <v>2.565641111240899</v>
       </c>
       <c r="M18">
-        <v>1.099299815228435</v>
+        <v>2.565641111240899</v>
       </c>
       <c r="N18">
-        <v>1.099299815228435</v>
+        <v>2.565641111240899</v>
       </c>
       <c r="O18">
-        <v>0.9037516422495977</v>
+        <v>1.151249508480644</v>
       </c>
       <c r="P18">
-        <v>0.8726037912744307</v>
+        <v>0.9649486446338056</v>
       </c>
       <c r="Q18">
-        <v>0.9857389634593038</v>
+        <v>1.452220233662716</v>
       </c>
       <c r="R18">
-        <v>0.9481691325924319</v>
+        <v>1.498512800169503</v>
       </c>
       <c r="S18">
-        <v>0.937644622405957</v>
+        <v>1.227696082704133</v>
       </c>
       <c r="T18">
-        <v>0.9481691325924319</v>
+        <v>1.498512800169503</v>
       </c>
       <c r="U18">
-        <v>0.9780584206115763</v>
+        <v>1.562182339838324</v>
       </c>
       <c r="V18">
-        <v>1.002306699534948</v>
+        <v>1.762874094118839</v>
       </c>
       <c r="W18">
-        <v>1.03241879167284</v>
+        <v>1.26806002744507</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8840594611904913</v>
+        <v>1.006781160073849</v>
       </c>
       <c r="D19">
-        <v>0.8624944859569099</v>
+        <v>1.000052070752198</v>
       </c>
       <c r="E19">
-        <v>0.6264641030859048</v>
+        <v>0.9972956987087751</v>
       </c>
       <c r="F19">
-        <v>0.6264641030859048</v>
+        <v>0.9972956987087751</v>
       </c>
       <c r="G19">
-        <v>0.8426215581496785</v>
+        <v>0.9990647930591284</v>
       </c>
       <c r="H19">
-        <v>0.8930592050802686</v>
+        <v>0.9992141111836842</v>
       </c>
       <c r="I19">
-        <v>1.991458129719665</v>
+        <v>1.012045830377895</v>
       </c>
       <c r="J19">
-        <v>1.13694442782779</v>
+        <v>1.000304672977763</v>
       </c>
       <c r="K19">
-        <v>0.8490619878107004</v>
+        <v>0.9985927780707086</v>
       </c>
       <c r="L19">
-        <v>0.8840594611904913</v>
+        <v>1.006781160073851</v>
       </c>
       <c r="M19">
-        <v>0.8840594611904913</v>
+        <v>1.006781160073851</v>
       </c>
       <c r="N19">
-        <v>0.8840594611904913</v>
+        <v>1.006781160073851</v>
       </c>
       <c r="O19">
-        <v>0.8624944859569099</v>
+        <v>1.000052070752198</v>
       </c>
       <c r="P19">
-        <v>0.7444792945214074</v>
+        <v>0.9986738847304868</v>
       </c>
       <c r="Q19">
-        <v>0.9997194568923499</v>
+        <v>1.000178371864981</v>
       </c>
       <c r="R19">
-        <v>0.7910060167444354</v>
+        <v>1.001376309844942</v>
       </c>
       <c r="S19">
-        <v>0.8753010056235349</v>
+        <v>0.9992174808129123</v>
       </c>
       <c r="T19">
-        <v>0.7910060167444354</v>
+        <v>1.001376309844942</v>
       </c>
       <c r="U19">
-        <v>0.877490619515274</v>
+        <v>1.001108400628147</v>
       </c>
       <c r="V19">
-        <v>0.8788043878503174</v>
+        <v>1.002242952517288</v>
       </c>
       <c r="W19">
-        <v>1.010770419852676</v>
+        <v>1.0016688894005</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9847179780176704</v>
+        <v>1.020687090393898</v>
       </c>
       <c r="D20">
-        <v>1.014300898512301</v>
+        <v>0.990785535253317</v>
       </c>
       <c r="E20">
-        <v>1.000849738189512</v>
+        <v>0.9976531351811131</v>
       </c>
       <c r="F20">
-        <v>1.000849738189512</v>
+        <v>0.9976531351811131</v>
       </c>
       <c r="G20">
-        <v>1.003053743295728</v>
+        <v>0.9953360072071875</v>
       </c>
       <c r="H20">
-        <v>1.001057952061715</v>
+        <v>0.9920809741333685</v>
       </c>
       <c r="I20">
-        <v>1.009060273105468</v>
+        <v>1.029214847590023</v>
       </c>
       <c r="J20">
-        <v>0.9927346114629189</v>
+        <v>0.9985690040349668</v>
       </c>
       <c r="K20">
-        <v>1.002562240912709</v>
+        <v>0.9965679336709522</v>
       </c>
       <c r="L20">
-        <v>0.9847179780176718</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="M20">
-        <v>0.9847179780176718</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="N20">
-        <v>0.9847179780176718</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="O20">
-        <v>1.014300898512301</v>
+        <v>0.990785535253317</v>
       </c>
       <c r="P20">
-        <v>1.007575318350906</v>
+        <v>0.9942193352172151</v>
       </c>
       <c r="Q20">
-        <v>1.00351775498761</v>
+        <v>0.9946772696441419</v>
       </c>
       <c r="R20">
-        <v>0.9999562049064948</v>
+        <v>1.00304192027611</v>
       </c>
       <c r="S20">
-        <v>1.00262841605491</v>
+        <v>0.9956692248231324</v>
       </c>
       <c r="T20">
-        <v>0.9999562049064946</v>
+        <v>1.00304192027611</v>
       </c>
       <c r="U20">
-        <v>0.9981508065456007</v>
+        <v>1.001923691215824</v>
       </c>
       <c r="V20">
-        <v>0.9954642408400149</v>
+        <v>1.00567637105144</v>
       </c>
       <c r="W20">
-        <v>1.001042179444753</v>
+        <v>1.002611815933104</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.026836882610507</v>
+        <v>1.081580611680687</v>
       </c>
       <c r="D21">
-        <v>0.9713629600775763</v>
+        <v>0.99937134808087</v>
       </c>
       <c r="E21">
-        <v>0.9891697619618893</v>
+        <v>0.983157246914566</v>
       </c>
       <c r="F21">
-        <v>0.9891697619618893</v>
+        <v>0.983157246914566</v>
       </c>
       <c r="G21">
-        <v>0.9930204570533889</v>
+        <v>0.9872057038235125</v>
       </c>
       <c r="H21">
-        <v>1.000471482141445</v>
+        <v>0.9893203942947312</v>
       </c>
       <c r="I21">
-        <v>1.012292232849553</v>
+        <v>1.030214032476727</v>
       </c>
       <c r="J21">
-        <v>1.025246920833269</v>
+        <v>1.009037303558819</v>
       </c>
       <c r="K21">
-        <v>1.003343200252852</v>
+        <v>0.9944099612826865</v>
       </c>
       <c r="L21">
-        <v>1.026836882610509</v>
+        <v>1.08158061168069</v>
       </c>
       <c r="M21">
-        <v>1.026836882610509</v>
+        <v>1.08158061168069</v>
       </c>
       <c r="N21">
-        <v>1.026836882610509</v>
+        <v>1.08158061168069</v>
       </c>
       <c r="O21">
-        <v>0.9713629600775763</v>
+        <v>0.99937134808087</v>
       </c>
       <c r="P21">
-        <v>0.9802663610197329</v>
+        <v>0.9912642974977179</v>
       </c>
       <c r="Q21">
-        <v>0.9983049404554225</v>
+        <v>1.004204325819845</v>
       </c>
       <c r="R21">
-        <v>0.9957898682166583</v>
+        <v>1.021369735558709</v>
       </c>
       <c r="S21">
-        <v>0.9952598809575782</v>
+        <v>0.9971886328514185</v>
       </c>
       <c r="T21">
-        <v>0.995789868216658</v>
+        <v>1.021369735558709</v>
       </c>
       <c r="U21">
-        <v>1.003154131370811</v>
+        <v>1.018286627558736</v>
       </c>
       <c r="V21">
-        <v>1.007890681618751</v>
+        <v>1.030945424383127</v>
       </c>
       <c r="W21">
-        <v>1.00271798722256</v>
+        <v>1.009287075264075</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.123291695185909</v>
+        <v>1.119418755226334</v>
       </c>
       <c r="D22">
-        <v>1.071741884001334</v>
+        <v>0.9938004153855537</v>
       </c>
       <c r="E22">
-        <v>0.9728788568495984</v>
+        <v>0.9867865888180729</v>
       </c>
       <c r="F22">
-        <v>0.9728788568495984</v>
+        <v>0.9867865888180729</v>
       </c>
       <c r="G22">
-        <v>1.081433295951298</v>
+        <v>0.9952383064012894</v>
       </c>
       <c r="H22">
-        <v>0.9752380658806912</v>
+        <v>0.9887231856468607</v>
       </c>
       <c r="I22">
-        <v>1.02012897608073</v>
+        <v>1.072779076811434</v>
       </c>
       <c r="J22">
-        <v>1.092471344666595</v>
+        <v>1.00465409135102</v>
       </c>
       <c r="K22">
-        <v>0.996254242386704</v>
+        <v>0.9901880480689254</v>
       </c>
       <c r="L22">
-        <v>1.123291695185913</v>
+        <v>1.119418755226342</v>
       </c>
       <c r="M22">
-        <v>1.123291695185913</v>
+        <v>1.119418755226342</v>
       </c>
       <c r="N22">
-        <v>1.123291695185913</v>
+        <v>1.119418755226342</v>
       </c>
       <c r="O22">
-        <v>1.071741884001334</v>
+        <v>0.9938004153855537</v>
       </c>
       <c r="P22">
-        <v>1.022310370425466</v>
+        <v>0.9902935021018133</v>
       </c>
       <c r="Q22">
-        <v>1.082106614333965</v>
+        <v>0.9992272533682869</v>
       </c>
       <c r="R22">
-        <v>1.055970812012282</v>
+        <v>1.033335253143323</v>
       </c>
       <c r="S22">
-        <v>1.045697361839176</v>
+        <v>0.9950803651848822</v>
       </c>
       <c r="T22">
-        <v>1.055970812012282</v>
+        <v>1.033335253143323</v>
       </c>
       <c r="U22">
-        <v>1.06509594517586</v>
+        <v>1.026164962695247</v>
       </c>
       <c r="V22">
-        <v>1.076735095177871</v>
+        <v>1.044815721201466</v>
       </c>
       <c r="W22">
-        <v>1.041679795125358</v>
+        <v>1.018948558463687</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.410038437625749</v>
+      </c>
+      <c r="D23">
+        <v>0.997865825041343</v>
+      </c>
+      <c r="E23">
+        <v>1.16817868244776</v>
+      </c>
+      <c r="F23">
+        <v>1.16817868244776</v>
+      </c>
+      <c r="G23">
+        <v>0.9860811672819638</v>
+      </c>
+      <c r="H23">
+        <v>1.057396578977097</v>
+      </c>
+      <c r="I23">
+        <v>1.114171511208776</v>
+      </c>
+      <c r="J23">
+        <v>1.059881886452539</v>
+      </c>
+      <c r="K23">
+        <v>0.9924431226287668</v>
+      </c>
+      <c r="L23">
+        <v>1.410038437625749</v>
+      </c>
+      <c r="M23">
+        <v>1.410038437625749</v>
+      </c>
+      <c r="N23">
+        <v>1.410038437625749</v>
+      </c>
+      <c r="O23">
+        <v>0.997865825041343</v>
+      </c>
+      <c r="P23">
+        <v>1.083022253744552</v>
+      </c>
+      <c r="Q23">
+        <v>1.028873855746941</v>
+      </c>
+      <c r="R23">
+        <v>1.192027648371617</v>
+      </c>
+      <c r="S23">
+        <v>1.075308797980548</v>
+      </c>
+      <c r="T23">
+        <v>1.192027648371617</v>
+      </c>
+      <c r="U23">
+        <v>1.158991207891848</v>
+      </c>
+      <c r="V23">
+        <v>1.209200653838628</v>
+      </c>
+      <c r="W23">
+        <v>1.098257151457999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.04122531831870988</v>
+      </c>
+      <c r="D24">
+        <v>0.06882008110392791</v>
+      </c>
+      <c r="E24">
+        <v>0.03059505010989017</v>
+      </c>
+      <c r="F24">
+        <v>0.03059505010989017</v>
+      </c>
+      <c r="G24">
+        <v>1.585706857333606</v>
+      </c>
+      <c r="H24">
+        <v>1.649610209158356</v>
+      </c>
+      <c r="I24">
+        <v>1.659235194594477</v>
+      </c>
+      <c r="J24">
+        <v>1.707159803680534</v>
+      </c>
+      <c r="K24">
+        <v>0.492865113276363</v>
+      </c>
+      <c r="L24">
+        <v>0.04122531831870988</v>
+      </c>
+      <c r="M24">
+        <v>0.04122531831870988</v>
+      </c>
+      <c r="N24">
+        <v>0.04122531831870988</v>
+      </c>
+      <c r="O24">
+        <v>0.06882008110392791</v>
+      </c>
+      <c r="P24">
+        <v>0.04970756560690904</v>
+      </c>
+      <c r="Q24">
+        <v>0.8879899423922307</v>
+      </c>
+      <c r="R24">
+        <v>0.04688014984417599</v>
+      </c>
+      <c r="S24">
+        <v>0.6021916449647838</v>
+      </c>
+      <c r="T24">
+        <v>0.04688014984417599</v>
+      </c>
+      <c r="U24">
+        <v>0.4619500633032654</v>
+      </c>
+      <c r="V24">
+        <v>0.3778051143063543</v>
+      </c>
+      <c r="W24">
+        <v>0.9044022034469829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>2.10923066971491</v>
+      </c>
+      <c r="D25">
+        <v>1.99979456413514</v>
+      </c>
+      <c r="E25">
+        <v>2.837886055274509</v>
+      </c>
+      <c r="F25">
+        <v>2.837886055274509</v>
+      </c>
+      <c r="G25">
+        <v>0.9632593806865919</v>
+      </c>
+      <c r="H25">
+        <v>0.8732713772621292</v>
+      </c>
+      <c r="I25">
+        <v>0.1471805849603647</v>
+      </c>
+      <c r="J25">
+        <v>0.4499063559951609</v>
+      </c>
+      <c r="K25">
+        <v>1.183671385942961</v>
+      </c>
+      <c r="L25">
+        <v>2.10923066971491</v>
+      </c>
+      <c r="M25">
+        <v>2.10923066971491</v>
+      </c>
+      <c r="N25">
+        <v>2.10923066971491</v>
+      </c>
+      <c r="O25">
+        <v>1.99979456413514</v>
+      </c>
+      <c r="P25">
+        <v>2.418840309704825</v>
+      </c>
+      <c r="Q25">
+        <v>1.224850460065151</v>
+      </c>
+      <c r="R25">
+        <v>2.315637096374853</v>
+      </c>
+      <c r="S25">
+        <v>1.762528991801603</v>
+      </c>
+      <c r="T25">
+        <v>2.315637096374853</v>
+      </c>
+      <c r="U25">
+        <v>1.84920441127993</v>
+      </c>
+      <c r="V25">
+        <v>1.901209662966926</v>
+      </c>
+      <c r="W25">
+        <v>1.320525046746471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.0001211739101641081</v>
+      </c>
+      <c r="D26">
+        <v>1.862018421830997</v>
+      </c>
+      <c r="E26">
+        <v>0.0003641762212946885</v>
+      </c>
+      <c r="F26">
+        <v>0.0003641762212946885</v>
+      </c>
+      <c r="G26">
+        <v>1.381973720091928</v>
+      </c>
+      <c r="H26">
+        <v>0.0002569795542226354</v>
+      </c>
+      <c r="I26">
+        <v>0.04551524375942597</v>
+      </c>
+      <c r="J26">
+        <v>0.01136983510383892</v>
+      </c>
+      <c r="K26">
+        <v>2.785446655620628</v>
+      </c>
+      <c r="L26">
+        <v>0.0001211739101641081</v>
+      </c>
+      <c r="M26">
+        <v>0.0001211739101641081</v>
+      </c>
+      <c r="N26">
+        <v>0.0001211739101641081</v>
+      </c>
+      <c r="O26">
+        <v>1.862018421830997</v>
+      </c>
+      <c r="P26">
+        <v>0.9311912990261457</v>
+      </c>
+      <c r="Q26">
+        <v>0.9366941284674178</v>
+      </c>
+      <c r="R26">
+        <v>0.6208345906541518</v>
+      </c>
+      <c r="S26">
+        <v>0.6245841443853768</v>
+      </c>
+      <c r="T26">
+        <v>0.6208345906541518</v>
+      </c>
+      <c r="U26">
+        <v>0.4684684017665736</v>
+      </c>
+      <c r="V26">
+        <v>0.3747989561952917</v>
+      </c>
+      <c r="W26">
+        <v>0.7608832757615624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.292570538149609</v>
+      </c>
+      <c r="D27">
+        <v>1.487689455301568E-05</v>
+      </c>
+      <c r="E27">
+        <v>0.005991714432968145</v>
+      </c>
+      <c r="F27">
+        <v>0.005991714432968145</v>
+      </c>
+      <c r="G27">
+        <v>0.8391380875820508</v>
+      </c>
+      <c r="H27">
+        <v>0.6248453032206281</v>
+      </c>
+      <c r="I27">
+        <v>2.194377304364672</v>
+      </c>
+      <c r="J27">
+        <v>1.706995109393747</v>
+      </c>
+      <c r="K27">
+        <v>0.2146094748090753</v>
+      </c>
+      <c r="L27">
+        <v>1.292570538149609</v>
+      </c>
+      <c r="M27">
+        <v>1.292570538149609</v>
+      </c>
+      <c r="N27">
+        <v>1.292570538149609</v>
+      </c>
+      <c r="O27">
+        <v>1.487689455301568E-05</v>
+      </c>
+      <c r="P27">
+        <v>0.00300329566376058</v>
+      </c>
+      <c r="Q27">
+        <v>0.8535049931441497</v>
+      </c>
+      <c r="R27">
+        <v>0.4328590431590435</v>
+      </c>
+      <c r="S27">
+        <v>0.5710005669070892</v>
+      </c>
+      <c r="T27">
+        <v>0.4328590431590435</v>
+      </c>
+      <c r="U27">
+        <v>0.7513930597177192</v>
+      </c>
+      <c r="V27">
+        <v>0.8596285554040971</v>
+      </c>
+      <c r="W27">
+        <v>0.8598178011059129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.280588241331856</v>
+      </c>
+      <c r="D28">
+        <v>1.572722035716359</v>
+      </c>
+      <c r="E28">
+        <v>0.2088910491602734</v>
+      </c>
+      <c r="F28">
+        <v>0.2088910491602734</v>
+      </c>
+      <c r="G28">
+        <v>1.634688522628786</v>
+      </c>
+      <c r="H28">
+        <v>0.3600977882977351</v>
+      </c>
+      <c r="I28">
+        <v>0.6212007664887649</v>
+      </c>
+      <c r="J28">
+        <v>1.619283901663346</v>
+      </c>
+      <c r="K28">
+        <v>0.3407945207206747</v>
+      </c>
+      <c r="L28">
+        <v>2.28058824133188</v>
+      </c>
+      <c r="M28">
+        <v>2.28058824133188</v>
+      </c>
+      <c r="N28">
+        <v>2.28058824133188</v>
+      </c>
+      <c r="O28">
+        <v>1.572722035716359</v>
+      </c>
+      <c r="P28">
+        <v>0.8908065424383163</v>
+      </c>
+      <c r="Q28">
+        <v>1.596002968689853</v>
+      </c>
+      <c r="R28">
+        <v>1.354067108736171</v>
+      </c>
+      <c r="S28">
+        <v>1.13363232884666</v>
+      </c>
+      <c r="T28">
+        <v>1.354067108736171</v>
+      </c>
+      <c r="U28">
+        <v>1.420371306967965</v>
+      </c>
+      <c r="V28">
+        <v>1.592414693840748</v>
+      </c>
+      <c r="W28">
+        <v>1.079783353250977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.873173595447033</v>
+      </c>
+      <c r="D29">
+        <v>1.344578563915996</v>
+      </c>
+      <c r="E29">
+        <v>0.4162110626911268</v>
+      </c>
+      <c r="F29">
+        <v>0.4162110626911268</v>
+      </c>
+      <c r="G29">
+        <v>1.386491241035061</v>
+      </c>
+      <c r="H29">
+        <v>0.5322914139186178</v>
+      </c>
+      <c r="I29">
+        <v>0.9687521150563123</v>
+      </c>
+      <c r="J29">
+        <v>1.434301975736214</v>
+      </c>
+      <c r="K29">
+        <v>0.5387030491567144</v>
+      </c>
+      <c r="L29">
+        <v>1.873173595447047</v>
+      </c>
+      <c r="M29">
+        <v>1.873173595447047</v>
+      </c>
+      <c r="N29">
+        <v>1.873173595447047</v>
+      </c>
+      <c r="O29">
+        <v>1.344578563915996</v>
+      </c>
+      <c r="P29">
+        <v>0.8803948133035613</v>
+      </c>
+      <c r="Q29">
+        <v>1.389440269826105</v>
+      </c>
+      <c r="R29">
+        <v>1.211321074018056</v>
+      </c>
+      <c r="S29">
+        <v>1.065030534114445</v>
+      </c>
+      <c r="T29">
+        <v>1.211321074018056</v>
+      </c>
+      <c r="U29">
+        <v>1.267066299447596</v>
+      </c>
+      <c r="V29">
+        <v>1.388287758647486</v>
+      </c>
+      <c r="W29">
+        <v>1.061812877119636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.099299815228436</v>
+      </c>
+      <c r="D30">
+        <v>0.9037516422495977</v>
+      </c>
+      <c r="E30">
+        <v>0.8414559402992636</v>
+      </c>
+      <c r="F30">
+        <v>0.8414559402992636</v>
+      </c>
+      <c r="G30">
+        <v>0.893537155956767</v>
+      </c>
+      <c r="H30">
+        <v>0.8670785629653583</v>
+      </c>
+      <c r="I30">
+        <v>1.648515636591351</v>
+      </c>
+      <c r="J30">
+        <v>1.06772628466901</v>
+      </c>
+      <c r="K30">
+        <v>0.9379852954229404</v>
+      </c>
+      <c r="L30">
+        <v>1.099299815228435</v>
+      </c>
+      <c r="M30">
+        <v>1.099299815228435</v>
+      </c>
+      <c r="N30">
+        <v>1.099299815228435</v>
+      </c>
+      <c r="O30">
+        <v>0.9037516422495977</v>
+      </c>
+      <c r="P30">
+        <v>0.8726037912744307</v>
+      </c>
+      <c r="Q30">
+        <v>0.9857389634593038</v>
+      </c>
+      <c r="R30">
+        <v>0.9481691325924319</v>
+      </c>
+      <c r="S30">
+        <v>0.937644622405957</v>
+      </c>
+      <c r="T30">
+        <v>0.9481691325924319</v>
+      </c>
+      <c r="U30">
+        <v>0.9780584206115763</v>
+      </c>
+      <c r="V30">
+        <v>1.002306699534948</v>
+      </c>
+      <c r="W30">
+        <v>1.03241879167284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8840594611904913</v>
+      </c>
+      <c r="D31">
+        <v>0.8624944859569099</v>
+      </c>
+      <c r="E31">
+        <v>0.6264641030859048</v>
+      </c>
+      <c r="F31">
+        <v>0.6264641030859048</v>
+      </c>
+      <c r="G31">
+        <v>0.8426215581496785</v>
+      </c>
+      <c r="H31">
+        <v>0.8930592050802686</v>
+      </c>
+      <c r="I31">
+        <v>1.991458129719665</v>
+      </c>
+      <c r="J31">
+        <v>1.13694442782779</v>
+      </c>
+      <c r="K31">
+        <v>0.8490619878107004</v>
+      </c>
+      <c r="L31">
+        <v>0.8840594611904913</v>
+      </c>
+      <c r="M31">
+        <v>0.8840594611904913</v>
+      </c>
+      <c r="N31">
+        <v>0.8840594611904913</v>
+      </c>
+      <c r="O31">
+        <v>0.8624944859569099</v>
+      </c>
+      <c r="P31">
+        <v>0.7444792945214074</v>
+      </c>
+      <c r="Q31">
+        <v>0.9997194568923499</v>
+      </c>
+      <c r="R31">
+        <v>0.7910060167444354</v>
+      </c>
+      <c r="S31">
+        <v>0.8753010056235349</v>
+      </c>
+      <c r="T31">
+        <v>0.7910060167444354</v>
+      </c>
+      <c r="U31">
+        <v>0.877490619515274</v>
+      </c>
+      <c r="V31">
+        <v>0.8788043878503174</v>
+      </c>
+      <c r="W31">
+        <v>1.010770419852676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>3.282909864111424</v>
+      </c>
+      <c r="D32">
+        <v>1.775310747420164</v>
+      </c>
+      <c r="E32">
+        <v>0.001145416088054794</v>
+      </c>
+      <c r="F32">
+        <v>0.001145416088054794</v>
+      </c>
+      <c r="G32">
+        <v>1.856352736080274</v>
+      </c>
+      <c r="H32">
+        <v>0.1847958925058904</v>
+      </c>
+      <c r="I32">
+        <v>0.2777057930038357</v>
+      </c>
+      <c r="J32">
+        <v>1.779027783452876</v>
+      </c>
+      <c r="K32">
+        <v>0.140330415609589</v>
+      </c>
+      <c r="L32">
+        <v>3.282909864111451</v>
+      </c>
+      <c r="M32">
+        <v>3.282909864111451</v>
+      </c>
+      <c r="N32">
+        <v>3.282909864111451</v>
+      </c>
+      <c r="O32">
+        <v>1.775310747420164</v>
+      </c>
+      <c r="P32">
+        <v>0.8882280817541096</v>
+      </c>
+      <c r="Q32">
+        <v>1.77716926543652</v>
+      </c>
+      <c r="R32">
+        <v>1.68645534253989</v>
+      </c>
+      <c r="S32">
+        <v>1.185161315653698</v>
+      </c>
+      <c r="T32">
+        <v>1.68645534253989</v>
+      </c>
+      <c r="U32">
+        <v>1.709598452768136</v>
+      </c>
+      <c r="V32">
+        <v>2.024260735036799</v>
+      </c>
+      <c r="W32">
+        <v>1.162197331034017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.001325673068421053</v>
+      </c>
+      <c r="D33">
+        <v>5.909017684447368</v>
+      </c>
+      <c r="E33">
+        <v>-0.0012979378</v>
+      </c>
+      <c r="F33">
+        <v>-0.0012979378</v>
+      </c>
+      <c r="G33">
+        <v>0.009580375117894738</v>
+      </c>
+      <c r="H33">
+        <v>-0.0005682035306842105</v>
+      </c>
+      <c r="I33">
+        <v>2.953486430137895</v>
+      </c>
+      <c r="J33">
+        <v>0.1838737728705263</v>
+      </c>
+      <c r="K33">
+        <v>1.031983523047369</v>
+      </c>
+      <c r="L33">
+        <v>0.001325673068421053</v>
+      </c>
+      <c r="M33">
+        <v>0.001325673068421053</v>
+      </c>
+      <c r="N33">
+        <v>0.001325673068421053</v>
+      </c>
+      <c r="O33">
+        <v>5.909017684447368</v>
+      </c>
+      <c r="P33">
+        <v>2.953859873323684</v>
+      </c>
+      <c r="Q33">
+        <v>3.046445728658947</v>
+      </c>
+      <c r="R33">
+        <v>1.969681806571929</v>
+      </c>
+      <c r="S33">
+        <v>2.030531173172631</v>
+      </c>
+      <c r="T33">
+        <v>1.96968180657193</v>
+      </c>
+      <c r="U33">
+        <v>1.523229798146579</v>
+      </c>
+      <c r="V33">
+        <v>1.218848973130947</v>
+      </c>
+      <c r="W33">
+        <v>1.260925164669849</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>6.30880813691579</v>
+      </c>
+      <c r="D34">
+        <v>1.704390346541053</v>
+      </c>
+      <c r="E34">
+        <v>3.406934216705263</v>
+      </c>
+      <c r="F34">
+        <v>3.406934216705263</v>
+      </c>
+      <c r="G34">
+        <v>0.001140613399</v>
+      </c>
+      <c r="H34">
+        <v>1.705027424505789</v>
+      </c>
+      <c r="I34">
+        <v>2.105215039510158</v>
+      </c>
+      <c r="J34">
+        <v>1.728209627506842</v>
+      </c>
+      <c r="K34">
+        <v>1.703101720480527</v>
+      </c>
+      <c r="L34">
+        <v>6.30880813691579</v>
+      </c>
+      <c r="M34">
+        <v>6.30880813691579</v>
+      </c>
+      <c r="N34">
+        <v>6.30880813691579</v>
+      </c>
+      <c r="O34">
+        <v>1.704390346541053</v>
+      </c>
+      <c r="P34">
+        <v>2.555662281623158</v>
+      </c>
+      <c r="Q34">
+        <v>1.716299987023947</v>
+      </c>
+      <c r="R34">
+        <v>3.806710900054036</v>
+      </c>
+      <c r="S34">
+        <v>2.279844730251053</v>
+      </c>
+      <c r="T34">
+        <v>3.806710900054036</v>
+      </c>
+      <c r="U34">
+        <v>3.287085581917237</v>
+      </c>
+      <c r="V34">
+        <v>3.891430092916948</v>
+      </c>
+      <c r="W34">
+        <v>2.332853390695552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5067464873416903</v>
+      </c>
+      <c r="D35">
+        <v>0.4359002708131007</v>
+      </c>
+      <c r="E35">
+        <v>0.4101829332046888</v>
+      </c>
+      <c r="F35">
+        <v>0.4101829332046888</v>
+      </c>
+      <c r="G35">
+        <v>0.448825781313145</v>
+      </c>
+      <c r="H35">
+        <v>0.4365680328632727</v>
+      </c>
+      <c r="I35">
+        <v>8.409705560889325</v>
+      </c>
+      <c r="J35">
+        <v>0.9975712698411296</v>
+      </c>
+      <c r="K35">
+        <v>0.4656185883989549</v>
+      </c>
+      <c r="L35">
+        <v>0.5067464873416908</v>
+      </c>
+      <c r="M35">
+        <v>0.5067464873416908</v>
+      </c>
+      <c r="N35">
+        <v>0.5067464873416908</v>
+      </c>
+      <c r="O35">
+        <v>0.4359002708131007</v>
+      </c>
+      <c r="P35">
+        <v>0.4230416020088948</v>
+      </c>
+      <c r="Q35">
+        <v>0.7167357703271152</v>
+      </c>
+      <c r="R35">
+        <v>0.4509432304531601</v>
+      </c>
+      <c r="S35">
+        <v>0.6145514912863064</v>
+      </c>
+      <c r="T35">
+        <v>0.4509432304531601</v>
+      </c>
+      <c r="U35">
+        <v>0.5876002403001526</v>
+      </c>
+      <c r="V35">
+        <v>0.5714294897084602</v>
+      </c>
+      <c r="W35">
+        <v>1.513889865583164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9847179780176704</v>
+      </c>
+      <c r="D36">
+        <v>1.014300898512301</v>
+      </c>
+      <c r="E36">
+        <v>1.000849738189512</v>
+      </c>
+      <c r="F36">
+        <v>1.000849738189512</v>
+      </c>
+      <c r="G36">
+        <v>1.003053743295728</v>
+      </c>
+      <c r="H36">
+        <v>1.001057952061715</v>
+      </c>
+      <c r="I36">
+        <v>1.009060273105468</v>
+      </c>
+      <c r="J36">
+        <v>0.9927346114629189</v>
+      </c>
+      <c r="K36">
+        <v>1.002562240912709</v>
+      </c>
+      <c r="L36">
+        <v>0.9847179780176718</v>
+      </c>
+      <c r="M36">
+        <v>0.9847179780176718</v>
+      </c>
+      <c r="N36">
+        <v>0.9847179780176718</v>
+      </c>
+      <c r="O36">
+        <v>1.014300898512301</v>
+      </c>
+      <c r="P36">
+        <v>1.007575318350906</v>
+      </c>
+      <c r="Q36">
+        <v>1.00351775498761</v>
+      </c>
+      <c r="R36">
+        <v>0.9999562049064948</v>
+      </c>
+      <c r="S36">
+        <v>1.00262841605491</v>
+      </c>
+      <c r="T36">
+        <v>0.9999562049064946</v>
+      </c>
+      <c r="U36">
+        <v>0.9981508065456007</v>
+      </c>
+      <c r="V36">
+        <v>0.9954642408400149</v>
+      </c>
+      <c r="W36">
+        <v>1.001042179444753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.026836882610507</v>
+      </c>
+      <c r="D37">
+        <v>0.9713629600775763</v>
+      </c>
+      <c r="E37">
+        <v>0.9891697619618893</v>
+      </c>
+      <c r="F37">
+        <v>0.9891697619618893</v>
+      </c>
+      <c r="G37">
+        <v>0.9930204570533889</v>
+      </c>
+      <c r="H37">
+        <v>1.000471482141445</v>
+      </c>
+      <c r="I37">
+        <v>1.012292232849553</v>
+      </c>
+      <c r="J37">
+        <v>1.025246920833269</v>
+      </c>
+      <c r="K37">
+        <v>1.003343200252852</v>
+      </c>
+      <c r="L37">
+        <v>1.026836882610509</v>
+      </c>
+      <c r="M37">
+        <v>1.026836882610509</v>
+      </c>
+      <c r="N37">
+        <v>1.026836882610509</v>
+      </c>
+      <c r="O37">
+        <v>0.9713629600775763</v>
+      </c>
+      <c r="P37">
+        <v>0.9802663610197329</v>
+      </c>
+      <c r="Q37">
+        <v>0.9983049404554225</v>
+      </c>
+      <c r="R37">
+        <v>0.9957898682166583</v>
+      </c>
+      <c r="S37">
+        <v>0.9952598809575782</v>
+      </c>
+      <c r="T37">
+        <v>0.995789868216658</v>
+      </c>
+      <c r="U37">
+        <v>1.003154131370811</v>
+      </c>
+      <c r="V37">
+        <v>1.007890681618751</v>
+      </c>
+      <c r="W37">
+        <v>1.00271798722256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.123291695185909</v>
+      </c>
+      <c r="D38">
+        <v>1.071741884001334</v>
+      </c>
+      <c r="E38">
+        <v>0.9728788568495984</v>
+      </c>
+      <c r="F38">
+        <v>0.9728788568495984</v>
+      </c>
+      <c r="G38">
+        <v>1.081433295951298</v>
+      </c>
+      <c r="H38">
+        <v>0.9752380658806912</v>
+      </c>
+      <c r="I38">
+        <v>1.02012897608073</v>
+      </c>
+      <c r="J38">
+        <v>1.092471344666595</v>
+      </c>
+      <c r="K38">
+        <v>0.996254242386704</v>
+      </c>
+      <c r="L38">
+        <v>1.123291695185913</v>
+      </c>
+      <c r="M38">
+        <v>1.123291695185913</v>
+      </c>
+      <c r="N38">
+        <v>1.123291695185913</v>
+      </c>
+      <c r="O38">
+        <v>1.071741884001334</v>
+      </c>
+      <c r="P38">
+        <v>1.022310370425466</v>
+      </c>
+      <c r="Q38">
+        <v>1.082106614333965</v>
+      </c>
+      <c r="R38">
+        <v>1.055970812012282</v>
+      </c>
+      <c r="S38">
+        <v>1.045697361839176</v>
+      </c>
+      <c r="T38">
+        <v>1.055970812012282</v>
+      </c>
+      <c r="U38">
+        <v>1.06509594517586</v>
+      </c>
+      <c r="V38">
+        <v>1.076735095177871</v>
+      </c>
+      <c r="W38">
+        <v>1.041679795125358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.8397971454215949</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.192563673556887</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.7844595799847061</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.7844595799847061</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.08396462939503</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.034561169937635</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9433631019229672</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.014644920484191</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9122545845888161</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.8397971454216029</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.8397971454216029</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.8397971454216029</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.192563673556887</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9885116267707963</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.103604297020539</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9389401329877319</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.997222724675261</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9389401329877319</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9578663298618466</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9342524929737979</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9757011006614794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8575596154951953</v>
+      </c>
+      <c r="D40">
+        <v>1.977069655844254</v>
+      </c>
+      <c r="E40">
+        <v>0.7999827459702282</v>
+      </c>
+      <c r="F40">
+        <v>0.7999827459702282</v>
+      </c>
+      <c r="G40">
+        <v>0.9434608298204006</v>
+      </c>
+      <c r="H40">
+        <v>0.8244267188307782</v>
+      </c>
+      <c r="I40">
+        <v>0.9300665330052508</v>
+      </c>
+      <c r="J40">
+        <v>0.865683094735572</v>
+      </c>
+      <c r="K40">
+        <v>1.159610427373316</v>
+      </c>
+      <c r="L40">
+        <v>0.8575596154951962</v>
+      </c>
+      <c r="M40">
+        <v>0.8575596154951962</v>
+      </c>
+      <c r="N40">
+        <v>0.8575596154951962</v>
+      </c>
+      <c r="O40">
+        <v>1.977069655844254</v>
+      </c>
+      <c r="P40">
+        <v>1.388526200907241</v>
+      </c>
+      <c r="Q40">
+        <v>1.421376375289913</v>
+      </c>
+      <c r="R40">
+        <v>1.211537339103226</v>
+      </c>
+      <c r="S40">
+        <v>1.214245165516685</v>
+      </c>
+      <c r="T40">
+        <v>1.211537339103226</v>
+      </c>
+      <c r="U40">
+        <v>1.125073778011313</v>
+      </c>
+      <c r="V40">
+        <v>1.07157094550809</v>
+      </c>
+      <c r="W40">
+        <v>1.044732452634374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9602310917149001</v>
+      </c>
+      <c r="D41">
+        <v>0.8596313498514728</v>
+      </c>
+      <c r="E41">
+        <v>1.412595798176994</v>
+      </c>
+      <c r="F41">
+        <v>1.412595798176994</v>
+      </c>
+      <c r="G41">
+        <v>0.979707431316976</v>
+      </c>
+      <c r="H41">
+        <v>1.264661059051326</v>
+      </c>
+      <c r="I41">
+        <v>0.9722916211849056</v>
+      </c>
+      <c r="J41">
+        <v>1.100300877720329</v>
+      </c>
+      <c r="K41">
+        <v>0.8813693068637647</v>
+      </c>
+      <c r="L41">
+        <v>0.9602310917149016</v>
+      </c>
+      <c r="M41">
+        <v>0.9602310917149016</v>
+      </c>
+      <c r="N41">
+        <v>0.9602310917149016</v>
+      </c>
+      <c r="O41">
+        <v>0.8596313498514728</v>
+      </c>
+      <c r="P41">
+        <v>1.136113574014234</v>
+      </c>
+      <c r="Q41">
+        <v>0.9799661137859008</v>
+      </c>
+      <c r="R41">
+        <v>1.077486079914456</v>
+      </c>
+      <c r="S41">
+        <v>1.124176008582932</v>
+      </c>
+      <c r="T41">
+        <v>1.077486079914456</v>
+      </c>
+      <c r="U41">
+        <v>1.083189779365924</v>
+      </c>
+      <c r="V41">
+        <v>1.05859804183572</v>
+      </c>
+      <c r="W41">
+        <v>1.053848566985084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.4568498365147985</v>
+      </c>
+      <c r="D42">
+        <v>2.079274113256214</v>
+      </c>
+      <c r="E42">
+        <v>0.615627397241578</v>
+      </c>
+      <c r="F42">
+        <v>0.615627397241578</v>
+      </c>
+      <c r="G42">
+        <v>1.005509108153099</v>
+      </c>
+      <c r="H42">
+        <v>0.8537466343755711</v>
+      </c>
+      <c r="I42">
+        <v>0.9816019163999274</v>
+      </c>
+      <c r="J42">
+        <v>1.008060476815548</v>
+      </c>
+      <c r="K42">
+        <v>1.034430100760484</v>
+      </c>
+      <c r="L42">
+        <v>0.4568498365148007</v>
+      </c>
+      <c r="M42">
+        <v>0.4568498365148007</v>
+      </c>
+      <c r="N42">
+        <v>0.4568498365148007</v>
+      </c>
+      <c r="O42">
+        <v>2.079274113256214</v>
+      </c>
+      <c r="P42">
+        <v>1.347450755248896</v>
+      </c>
+      <c r="Q42">
+        <v>1.543667295035881</v>
+      </c>
+      <c r="R42">
+        <v>1.050583782337531</v>
+      </c>
+      <c r="S42">
+        <v>1.23432066243778</v>
+      </c>
+      <c r="T42">
+        <v>1.050583782337531</v>
+      </c>
+      <c r="U42">
+        <v>1.039952955957035</v>
+      </c>
+      <c r="V42">
+        <v>0.9233323320685882</v>
+      </c>
+      <c r="W42">
+        <v>1.004387447939653</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.088096470005099</v>
+        <v>1.020687090393898</v>
       </c>
       <c r="D3">
-        <v>0.9578570720223452</v>
+        <v>0.990785535253317</v>
       </c>
       <c r="E3">
-        <v>1.03050888989264</v>
+        <v>0.9976531351811131</v>
       </c>
       <c r="F3">
-        <v>1.088096470005099</v>
+        <v>0.9976531351811131</v>
       </c>
       <c r="G3">
-        <v>1.046242591011267</v>
+        <v>0.9953360072071875</v>
       </c>
       <c r="H3">
-        <v>0.9612557958717943</v>
+        <v>0.9920809741333685</v>
       </c>
       <c r="I3">
-        <v>1.088096470005097</v>
+        <v>1.029214847590023</v>
       </c>
       <c r="J3">
-        <v>0.9578570720223452</v>
+        <v>0.9985690040349668</v>
       </c>
       <c r="K3">
-        <v>1.041233105886447</v>
+        <v>0.9965679336709522</v>
       </c>
       <c r="L3">
-        <v>0.9845960719278705</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="M3">
-        <v>0.9604933475364092</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="N3">
-        <v>1.088096470005099</v>
+        <v>1.020687090393901</v>
       </c>
       <c r="O3">
-        <v>1.03050888989264</v>
+        <v>0.990785535253317</v>
       </c>
       <c r="P3">
-        <v>0.9941829809574928</v>
+        <v>0.9942193352172151</v>
       </c>
       <c r="Q3">
-        <v>1.038375740451954</v>
+        <v>0.9946772696441419</v>
       </c>
       <c r="R3">
-        <v>1.025487477306695</v>
+        <v>1.00304192027611</v>
       </c>
       <c r="S3">
-        <v>1.011536184308751</v>
+        <v>0.9956692248231324</v>
       </c>
       <c r="T3">
-        <v>1.025487477306695</v>
+        <v>1.00304192027611</v>
       </c>
       <c r="U3">
-        <v>1.030676255732838</v>
+        <v>1.001923691215824</v>
       </c>
       <c r="V3">
-        <v>1.04216029858729</v>
+        <v>1.00567637105144</v>
       </c>
       <c r="W3">
-        <v>1.008785418019234</v>
+        <v>1.002611815933104</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.145971862819936</v>
+        <v>0.8575596154951953</v>
       </c>
       <c r="D4">
-        <v>0.9389443473461672</v>
+        <v>1.977069655844254</v>
       </c>
       <c r="E4">
-        <v>1.065610559024315</v>
+        <v>0.7999827459702282</v>
       </c>
       <c r="F4">
-        <v>1.145971862819936</v>
+        <v>0.7999827459702282</v>
       </c>
       <c r="G4">
-        <v>1.065435370003966</v>
+        <v>0.9434608298204006</v>
       </c>
       <c r="H4">
-        <v>0.9556153547180026</v>
+        <v>0.8244267188307782</v>
       </c>
       <c r="I4">
-        <v>1.145971862819932</v>
+        <v>0.9300665330052508</v>
       </c>
       <c r="J4">
-        <v>0.9389443473461672</v>
+        <v>0.865683094735572</v>
       </c>
       <c r="K4">
-        <v>1.066631321207997</v>
+        <v>1.159610427373316</v>
       </c>
       <c r="L4">
-        <v>0.9784991514486676</v>
+        <v>0.8575596154951962</v>
       </c>
       <c r="M4">
-        <v>0.9501479730209618</v>
+        <v>0.8575596154951962</v>
       </c>
       <c r="N4">
-        <v>1.145971862819936</v>
+        <v>0.8575596154951962</v>
       </c>
       <c r="O4">
-        <v>1.065610559024315</v>
+        <v>1.977069655844254</v>
       </c>
       <c r="P4">
-        <v>1.002277453185241</v>
+        <v>1.388526200907241</v>
       </c>
       <c r="Q4">
-        <v>1.06552296451414</v>
+        <v>1.421376375289913</v>
       </c>
       <c r="R4">
-        <v>1.050175589730139</v>
+        <v>1.211537339103226</v>
       </c>
       <c r="S4">
-        <v>1.023330092124816</v>
+        <v>1.214245165516685</v>
       </c>
       <c r="T4">
-        <v>1.050175589730139</v>
+        <v>1.211537339103226</v>
       </c>
       <c r="U4">
-        <v>1.053990534798596</v>
+        <v>1.125073778011313</v>
       </c>
       <c r="V4">
-        <v>1.072386800402864</v>
+        <v>1.07157094550809</v>
       </c>
       <c r="W4">
-        <v>1.020856992448752</v>
+        <v>1.044732452634374</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.314325285482058</v>
+        <v>1.102062085766269</v>
       </c>
       <c r="D5">
-        <v>0.7395383512493194</v>
+        <v>0.8995451935870699</v>
       </c>
       <c r="E5">
-        <v>1.48385224340547</v>
+        <v>0.8280594355865986</v>
       </c>
       <c r="F5">
-        <v>1.314325285482058</v>
+        <v>0.8280594355865986</v>
       </c>
       <c r="G5">
-        <v>1.3907792673713</v>
+        <v>0.8797638267940923</v>
       </c>
       <c r="H5">
-        <v>0.8727591039710728</v>
+        <v>0.8522367258236537</v>
       </c>
       <c r="I5">
-        <v>1.314325285482043</v>
+        <v>1.963873167267354</v>
       </c>
       <c r="J5">
-        <v>0.7395383512493194</v>
+        <v>1.088071348964817</v>
       </c>
       <c r="K5">
-        <v>1.178474583227805</v>
+        <v>0.9055202589760148</v>
       </c>
       <c r="L5">
-        <v>0.7986850682140121</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="M5">
-        <v>0.8460152596984222</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="N5">
-        <v>1.314325285482058</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="O5">
-        <v>1.48385224340547</v>
+        <v>0.8995451935870699</v>
       </c>
       <c r="P5">
-        <v>1.111695297327395</v>
+        <v>0.8638023145868342</v>
       </c>
       <c r="Q5">
-        <v>1.437315755388385</v>
+        <v>0.9938082712759437</v>
       </c>
       <c r="R5">
-        <v>1.179238626712283</v>
+        <v>0.943222238313313</v>
       </c>
       <c r="S5">
-        <v>1.20472328734203</v>
+        <v>0.9385586593794953</v>
       </c>
       <c r="T5">
-        <v>1.179238626712283</v>
+        <v>0.943222238313313</v>
       </c>
       <c r="U5">
-        <v>1.232123786877037</v>
+        <v>0.979434515976189</v>
       </c>
       <c r="V5">
-        <v>1.248564086598041</v>
+        <v>1.003960029934205</v>
       </c>
       <c r="W5">
-        <v>1.078053645327433</v>
+        <v>1.064891505345734</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.565641111240899</v>
+        <v>0.5067464873416903</v>
       </c>
       <c r="D6">
-        <v>0.7786477807869666</v>
+        <v>0.4359002708131007</v>
       </c>
       <c r="E6">
-        <v>1.151249508480644</v>
+        <v>0.4101829332046888</v>
       </c>
       <c r="F6">
-        <v>2.565641111240899</v>
+        <v>0.4101829332046888</v>
       </c>
       <c r="G6">
-        <v>1.753190958844787</v>
+        <v>0.448825781313145</v>
       </c>
       <c r="H6">
-        <v>1.126843897696946</v>
+        <v>0.4365680328632727</v>
       </c>
       <c r="I6">
-        <v>2.565641111240899</v>
+        <v>8.409705560889325</v>
       </c>
       <c r="J6">
-        <v>0.7786477807869666</v>
+        <v>0.9975712698411296</v>
       </c>
       <c r="K6">
-        <v>1.203162009877595</v>
+        <v>0.4656185883989549</v>
       </c>
       <c r="L6">
-        <v>0.7172146972836324</v>
+        <v>0.5067464873416908</v>
       </c>
       <c r="M6">
-        <v>0.8485302553490859</v>
+        <v>0.5067464873416908</v>
       </c>
       <c r="N6">
-        <v>2.565641111240899</v>
+        <v>0.5067464873416908</v>
       </c>
       <c r="O6">
-        <v>1.151249508480644</v>
+        <v>0.4359002708131007</v>
       </c>
       <c r="P6">
-        <v>0.9649486446338056</v>
+        <v>0.4230416020088948</v>
       </c>
       <c r="Q6">
-        <v>1.452220233662716</v>
+        <v>0.7167357703271152</v>
       </c>
       <c r="R6">
-        <v>1.498512800169503</v>
+        <v>0.4509432304531601</v>
       </c>
       <c r="S6">
-        <v>1.227696082704133</v>
+        <v>0.6145514912863064</v>
       </c>
       <c r="T6">
-        <v>1.498512800169503</v>
+        <v>0.4509432304531601</v>
       </c>
       <c r="U6">
-        <v>1.562182339838324</v>
+        <v>0.5876002403001526</v>
       </c>
       <c r="V6">
-        <v>1.762874094118839</v>
+        <v>0.5714294897084602</v>
       </c>
       <c r="W6">
-        <v>1.26806002744507</v>
+        <v>1.513889865583164</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.006781160073852</v>
+        <v>1.116417020986898</v>
       </c>
       <c r="D7">
-        <v>0.9972956987087749</v>
+        <v>1.030446202932907</v>
       </c>
       <c r="E7">
-        <v>1.000052070752199</v>
+        <v>0.9900934808576933</v>
       </c>
       <c r="F7">
-        <v>1.006781160073852</v>
+        <v>0.9900934808576933</v>
       </c>
       <c r="G7">
-        <v>1.000304672977763</v>
+        <v>1.028711654150213</v>
       </c>
       <c r="H7">
-        <v>0.9985927780707087</v>
+        <v>0.9768923201565926</v>
       </c>
       <c r="I7">
-        <v>1.00678116007385</v>
+        <v>0.9703021122327241</v>
       </c>
       <c r="J7">
-        <v>0.9972956987087749</v>
+        <v>1.035933620613166</v>
       </c>
       <c r="K7">
-        <v>0.9990647930591283</v>
+        <v>0.9659440025543677</v>
       </c>
       <c r="L7">
-        <v>1.012045830377895</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="M7">
-        <v>0.9992141111836842</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="N7">
-        <v>1.006781160073852</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="O7">
-        <v>1.000052070752199</v>
+        <v>1.030446202932907</v>
       </c>
       <c r="P7">
-        <v>0.998673884730487</v>
+        <v>1.0102698418953</v>
       </c>
       <c r="Q7">
-        <v>1.000178371864981</v>
+        <v>1.033189911773037</v>
       </c>
       <c r="R7">
-        <v>1.001376309844942</v>
+        <v>1.045652234925834</v>
       </c>
       <c r="S7">
-        <v>0.9992174808129123</v>
+        <v>1.018824434801256</v>
       </c>
       <c r="T7">
-        <v>1.001376309844942</v>
+        <v>1.045652234925834</v>
       </c>
       <c r="U7">
-        <v>1.001108400628147</v>
+        <v>1.043222581347667</v>
       </c>
       <c r="V7">
-        <v>1.002242952517288</v>
+        <v>1.057861469275513</v>
       </c>
       <c r="W7">
-        <v>1.001668889400501</v>
+        <v>1.014342551810571</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.0206870903939</v>
+        <v>1.026836882610507</v>
       </c>
       <c r="D8">
-        <v>0.9976531351811119</v>
+        <v>0.9713629600775763</v>
       </c>
       <c r="E8">
-        <v>0.9907855352533176</v>
+        <v>0.9891697619618893</v>
       </c>
       <c r="F8">
-        <v>1.0206870903939</v>
+        <v>0.9891697619618893</v>
       </c>
       <c r="G8">
-        <v>0.9985690040349654</v>
+        <v>0.9930204570533889</v>
       </c>
       <c r="H8">
-        <v>0.9965679336709532</v>
+        <v>1.000471482141445</v>
       </c>
       <c r="I8">
-        <v>1.020687090393897</v>
+        <v>1.012292232849553</v>
       </c>
       <c r="J8">
-        <v>0.9976531351811119</v>
+        <v>1.025246920833269</v>
       </c>
       <c r="K8">
-        <v>0.9953360072071893</v>
+        <v>1.003343200252852</v>
       </c>
       <c r="L8">
-        <v>1.029214847590021</v>
+        <v>1.026836882610509</v>
       </c>
       <c r="M8">
-        <v>0.9920809741333679</v>
+        <v>1.026836882610509</v>
       </c>
       <c r="N8">
-        <v>1.0206870903939</v>
+        <v>1.026836882610509</v>
       </c>
       <c r="O8">
-        <v>0.9907855352533176</v>
+        <v>0.9713629600775763</v>
       </c>
       <c r="P8">
-        <v>0.9942193352172147</v>
+        <v>0.9802663610197329</v>
       </c>
       <c r="Q8">
-        <v>0.9946772696441415</v>
+        <v>0.9983049404554225</v>
       </c>
       <c r="R8">
-        <v>1.00304192027611</v>
+        <v>0.9957898682166583</v>
       </c>
       <c r="S8">
-        <v>0.9956692248231316</v>
+        <v>0.9952598809575782</v>
       </c>
       <c r="T8">
-        <v>1.00304192027611</v>
+        <v>0.995789868216658</v>
       </c>
       <c r="U8">
-        <v>1.001923691215824</v>
+        <v>1.003154131370811</v>
       </c>
       <c r="V8">
-        <v>1.005676371051439</v>
+        <v>1.007890681618751</v>
       </c>
       <c r="W8">
-        <v>1.002611815933103</v>
+        <v>1.00271798722256</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.08158061168069</v>
+        <v>1.145971862819932</v>
       </c>
       <c r="D9">
-        <v>0.983157246914566</v>
+        <v>1.065610559024315</v>
       </c>
       <c r="E9">
-        <v>0.99937134808087</v>
+        <v>0.9389443473461672</v>
       </c>
       <c r="F9">
-        <v>1.08158061168069</v>
+        <v>0.9389443473461672</v>
       </c>
       <c r="G9">
-        <v>1.009037303558819</v>
+        <v>1.066631321207997</v>
       </c>
       <c r="H9">
-        <v>0.9944099612826865</v>
+        <v>0.9501479730209618</v>
       </c>
       <c r="I9">
-        <v>1.081580611680687</v>
+        <v>0.9784991514486676</v>
       </c>
       <c r="J9">
-        <v>0.983157246914566</v>
+        <v>1.065435370003966</v>
       </c>
       <c r="K9">
-        <v>0.9872057038235125</v>
+        <v>0.9556153547180026</v>
       </c>
       <c r="L9">
-        <v>1.030214032476727</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="M9">
-        <v>0.9893203942947312</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="N9">
-        <v>1.08158061168069</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="O9">
-        <v>0.99937134808087</v>
+        <v>1.065610559024315</v>
       </c>
       <c r="P9">
-        <v>0.9912642974977179</v>
+        <v>1.002277453185241</v>
       </c>
       <c r="Q9">
-        <v>1.004204325819845</v>
+        <v>1.06552296451414</v>
       </c>
       <c r="R9">
-        <v>1.021369735558708</v>
+        <v>1.050175589730139</v>
       </c>
       <c r="S9">
-        <v>0.9971886328514185</v>
+        <v>1.023330092124816</v>
       </c>
       <c r="T9">
-        <v>1.021369735558708</v>
+        <v>1.050175589730139</v>
       </c>
       <c r="U9">
-        <v>1.018286627558736</v>
+        <v>1.053990534798596</v>
       </c>
       <c r="V9">
-        <v>1.030945424383127</v>
+        <v>1.072386800402864</v>
       </c>
       <c r="W9">
-        <v>1.009287075264075</v>
+        <v>1.020856992448752</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.119418755226342</v>
+        <v>0.4688739878395281</v>
       </c>
       <c r="D10">
-        <v>0.9867865888180729</v>
+        <v>0.4067411039140718</v>
       </c>
       <c r="E10">
-        <v>0.9938004153855537</v>
+        <v>0.3129443706710993</v>
       </c>
       <c r="F10">
-        <v>1.119418755226342</v>
+        <v>0.3129443706710993</v>
       </c>
       <c r="G10">
-        <v>1.00465409135102</v>
+        <v>0.4592697019178639</v>
       </c>
       <c r="H10">
-        <v>0.9901880480689254</v>
+        <v>0.4352878656879532</v>
       </c>
       <c r="I10">
-        <v>1.119418755226334</v>
+        <v>8.568665346515965</v>
       </c>
       <c r="J10">
-        <v>0.9867865888180729</v>
+        <v>1.030328105014642</v>
       </c>
       <c r="K10">
-        <v>0.9952383064012894</v>
+        <v>0.4182545724985387</v>
       </c>
       <c r="L10">
-        <v>1.072779076811434</v>
+        <v>0.4688739878395281</v>
       </c>
       <c r="M10">
-        <v>0.9887231856468607</v>
+        <v>0.4688739878395281</v>
       </c>
       <c r="N10">
-        <v>1.119418755226342</v>
+        <v>0.4688739878395281</v>
       </c>
       <c r="O10">
-        <v>0.9938004153855537</v>
+        <v>0.4067411039140718</v>
       </c>
       <c r="P10">
-        <v>0.9902935021018133</v>
+        <v>0.3598427372925855</v>
       </c>
       <c r="Q10">
-        <v>0.9992272533682868</v>
+        <v>0.718534604464357</v>
       </c>
       <c r="R10">
-        <v>1.033335253143323</v>
+        <v>0.3961864874748997</v>
       </c>
       <c r="S10">
-        <v>0.9950803651848821</v>
+        <v>0.5833378598666045</v>
       </c>
       <c r="T10">
-        <v>1.033335253143323</v>
+        <v>0.3961864874748997</v>
       </c>
       <c r="U10">
-        <v>1.026164962695247</v>
+        <v>0.5547218918598353</v>
       </c>
       <c r="V10">
-        <v>1.044815721201466</v>
+        <v>0.5375523110557738</v>
       </c>
       <c r="W10">
-        <v>1.018948558463687</v>
+        <v>1.512545631757458</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.410038437625749</v>
+        <v>0.8848872726097238</v>
       </c>
       <c r="D11">
-        <v>1.16817868244776</v>
+        <v>1.831082564160873</v>
       </c>
       <c r="E11">
-        <v>0.9978658250413432</v>
+        <v>1.160329398880746</v>
       </c>
       <c r="F11">
-        <v>1.410038437625749</v>
+        <v>1.160329398880746</v>
       </c>
       <c r="G11">
-        <v>1.059881886452539</v>
+        <v>1.021932700585678</v>
       </c>
       <c r="H11">
-        <v>0.9924431226287668</v>
+        <v>1.077729759182189</v>
       </c>
       <c r="I11">
-        <v>1.410038437625749</v>
+        <v>0.823248892729034</v>
       </c>
       <c r="J11">
-        <v>1.16817868244776</v>
+        <v>0.9267367956616961</v>
       </c>
       <c r="K11">
-        <v>0.9860811672819638</v>
+        <v>1.01002734553764</v>
       </c>
       <c r="L11">
-        <v>1.114171511208776</v>
+        <v>0.884887272609725</v>
       </c>
       <c r="M11">
-        <v>1.057396578977097</v>
+        <v>0.884887272609725</v>
       </c>
       <c r="N11">
-        <v>1.410038437625749</v>
+        <v>0.884887272609725</v>
       </c>
       <c r="O11">
-        <v>0.9978658250413432</v>
+        <v>1.831082564160873</v>
       </c>
       <c r="P11">
-        <v>1.083022253744552</v>
+        <v>1.49570598152081</v>
       </c>
       <c r="Q11">
-        <v>1.028873855746941</v>
+        <v>1.378909679911285</v>
       </c>
       <c r="R11">
-        <v>1.192027648371617</v>
+        <v>1.292099745217115</v>
       </c>
       <c r="S11">
-        <v>1.075308797980548</v>
+        <v>1.306049586234439</v>
       </c>
       <c r="T11">
-        <v>1.192027648371617</v>
+        <v>1.292099745217115</v>
       </c>
       <c r="U11">
-        <v>1.158991207891848</v>
+        <v>1.20075900782826</v>
       </c>
       <c r="V11">
-        <v>1.209200653838628</v>
+        <v>1.137584660784553</v>
       </c>
       <c r="W11">
-        <v>1.098257151457999</v>
+        <v>1.091996841168448</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.04122531831870994</v>
+        <v>1.003052276713883</v>
       </c>
       <c r="D12">
-        <v>0.03059505010989016</v>
+        <v>0.7935754438458219</v>
       </c>
       <c r="E12">
-        <v>0.0688200811039279</v>
+        <v>0.7017293659879198</v>
       </c>
       <c r="F12">
-        <v>0.04122531831870994</v>
+        <v>0.7017293659879198</v>
       </c>
       <c r="G12">
-        <v>1.707159803680534</v>
+        <v>0.89603163626434</v>
       </c>
       <c r="H12">
-        <v>0.4928651132763635</v>
+        <v>0.8685774676447587</v>
       </c>
       <c r="I12">
-        <v>0.04122531831870994</v>
+        <v>2.429034465314773</v>
       </c>
       <c r="J12">
-        <v>0.03059505010989016</v>
+        <v>1.146032480508926</v>
       </c>
       <c r="K12">
-        <v>1.585706857333606</v>
+        <v>0.7919083321434865</v>
       </c>
       <c r="L12">
-        <v>1.659235194594476</v>
+        <v>1.003052276713883</v>
       </c>
       <c r="M12">
-        <v>1.649610209158356</v>
+        <v>1.003052276713883</v>
       </c>
       <c r="N12">
-        <v>0.04122531831870994</v>
+        <v>1.003052276713883</v>
       </c>
       <c r="O12">
-        <v>0.0688200811039279</v>
+        <v>0.7935754438458219</v>
       </c>
       <c r="P12">
-        <v>0.04970756560690903</v>
+        <v>0.7476524049168709</v>
       </c>
       <c r="Q12">
-        <v>0.8879899423922311</v>
+        <v>0.969803962177374</v>
       </c>
       <c r="R12">
-        <v>0.04688014984417601</v>
+        <v>0.8327856955158749</v>
       </c>
       <c r="S12">
-        <v>0.6021916449647841</v>
+        <v>0.8804457634475559</v>
       </c>
       <c r="T12">
-        <v>0.04688014984417601</v>
+        <v>0.8327856955158749</v>
       </c>
       <c r="U12">
-        <v>0.4619500633032655</v>
+        <v>0.9110973917641376</v>
       </c>
       <c r="V12">
-        <v>0.3778051143063544</v>
+        <v>0.9294883687540867</v>
       </c>
       <c r="W12">
-        <v>0.904402203446983</v>
+        <v>1.078742683552989</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.10923066971491</v>
+        <v>0.7822326929501341</v>
       </c>
       <c r="D13">
-        <v>2.837886055274508</v>
+        <v>0.9512510231659965</v>
       </c>
       <c r="E13">
-        <v>1.99979456413514</v>
+        <v>0.783691504070483</v>
       </c>
       <c r="F13">
-        <v>2.10923066971491</v>
+        <v>0.783691504070483</v>
       </c>
       <c r="G13">
-        <v>0.449906355995161</v>
+        <v>1.18212834813484</v>
       </c>
       <c r="H13">
-        <v>1.18367138594296</v>
+        <v>1.088096279452517</v>
       </c>
       <c r="I13">
-        <v>2.10923066971491</v>
+        <v>1.060250499136232</v>
       </c>
       <c r="J13">
-        <v>2.837886055274508</v>
+        <v>1.045149960169622</v>
       </c>
       <c r="K13">
-        <v>0.9632593806865921</v>
+        <v>0.8534775660287339</v>
       </c>
       <c r="L13">
-        <v>0.1471805849603647</v>
+        <v>0.7822326929501341</v>
       </c>
       <c r="M13">
-        <v>0.8732713772621288</v>
+        <v>0.7822326929501341</v>
       </c>
       <c r="N13">
-        <v>2.10923066971491</v>
+        <v>0.7822326929501341</v>
       </c>
       <c r="O13">
-        <v>1.99979456413514</v>
+        <v>0.9512510231659965</v>
       </c>
       <c r="P13">
-        <v>2.418840309704824</v>
+        <v>0.8674712636182398</v>
       </c>
       <c r="Q13">
-        <v>1.224850460065151</v>
+        <v>0.9982004916678093</v>
       </c>
       <c r="R13">
-        <v>2.315637096374853</v>
+        <v>0.8390584067288712</v>
       </c>
       <c r="S13">
-        <v>1.762528991801603</v>
+        <v>0.926697495802034</v>
       </c>
       <c r="T13">
-        <v>2.315637096374853</v>
+        <v>0.8390584067288712</v>
       </c>
       <c r="U13">
-        <v>1.84920441127993</v>
+        <v>0.890581295089059</v>
       </c>
       <c r="V13">
-        <v>1.901209662966926</v>
+        <v>0.8689115746612741</v>
       </c>
       <c r="W13">
-        <v>1.320525046746471</v>
+        <v>0.9682847341385699</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0001211739101641088</v>
+        <v>0.008035351600000009</v>
       </c>
       <c r="D14">
-        <v>0.0003641762212946879</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="E14">
-        <v>1.862018421830995</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="F14">
-        <v>0.0001211739101641088</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="G14">
-        <v>0.01136983510383893</v>
+        <v>-0.0020116523</v>
       </c>
       <c r="H14">
-        <v>2.785446655620628</v>
+        <v>0.0002333084100000004</v>
       </c>
       <c r="I14">
-        <v>0.0001211739101641088</v>
+        <v>15.18988100000001</v>
       </c>
       <c r="J14">
-        <v>0.0003641762212946879</v>
+        <v>0.9379539099999991</v>
       </c>
       <c r="K14">
-        <v>1.381973720091928</v>
+        <v>-0.0031867441</v>
       </c>
       <c r="L14">
-        <v>0.04551524375942603</v>
+        <v>0.008035351600000009</v>
       </c>
       <c r="M14">
-        <v>0.0002569795542226351</v>
+        <v>0.008035351600000009</v>
       </c>
       <c r="N14">
-        <v>0.0001211739101641088</v>
+        <v>0.008035351600000009</v>
       </c>
       <c r="O14">
-        <v>1.862018421830995</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="P14">
-        <v>0.9311912990261447</v>
+        <v>-0.00383106035</v>
       </c>
       <c r="Q14">
-        <v>0.9366941284674168</v>
+        <v>0.4683616950999995</v>
       </c>
       <c r="R14">
-        <v>0.6208345906541511</v>
+        <v>0.0001244103000000033</v>
       </c>
       <c r="S14">
-        <v>0.6245841443853761</v>
+        <v>0.3100972630999997</v>
       </c>
       <c r="T14">
-        <v>0.6208345906541511</v>
+        <v>0.0001244103000000032</v>
       </c>
       <c r="U14">
-        <v>0.4684684017665731</v>
+        <v>0.2345817852249998</v>
       </c>
       <c r="V14">
-        <v>0.3747989561952913</v>
+        <v>0.1892724984999998</v>
       </c>
       <c r="W14">
-        <v>0.7608832757615622</v>
+        <v>2.015405381613751</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.292570538149609</v>
+        <v>45.564748</v>
       </c>
       <c r="D15">
-        <v>0.005991714432968144</v>
+        <v>-0.0027921708</v>
       </c>
       <c r="E15">
-        <v>1.487689455301548E-05</v>
+        <v>0.0062360679</v>
       </c>
       <c r="F15">
-        <v>1.292570538149609</v>
+        <v>0.0062360679</v>
       </c>
       <c r="G15">
-        <v>1.706995109393747</v>
+        <v>0.0091395608</v>
       </c>
       <c r="H15">
-        <v>0.2146094748090753</v>
+        <v>0.00010522111</v>
       </c>
       <c r="I15">
-        <v>1.292570538149609</v>
+        <v>0.0080378142</v>
       </c>
       <c r="J15">
-        <v>0.005991714432968144</v>
+        <v>-0.0070311687</v>
       </c>
       <c r="K15">
-        <v>0.839138087582051</v>
+        <v>-0.0026279171</v>
       </c>
       <c r="L15">
-        <v>2.194377304364673</v>
+        <v>45.564748</v>
       </c>
       <c r="M15">
-        <v>0.6248453032206283</v>
+        <v>45.564748</v>
       </c>
       <c r="N15">
-        <v>1.292570538149609</v>
+        <v>45.564748</v>
       </c>
       <c r="O15">
-        <v>1.487689455301548E-05</v>
+        <v>-0.0027921708</v>
       </c>
       <c r="P15">
-        <v>0.003003295663760579</v>
+        <v>0.00172194855</v>
       </c>
       <c r="Q15">
-        <v>0.8535049931441497</v>
+        <v>-0.00491166975</v>
       </c>
       <c r="R15">
-        <v>0.4328590431590435</v>
+        <v>15.18939729903333</v>
       </c>
       <c r="S15">
-        <v>0.5710005669070892</v>
+        <v>-0.0011957572</v>
       </c>
       <c r="T15">
-        <v>0.4328590431590435</v>
+        <v>15.18939729903333</v>
       </c>
       <c r="U15">
-        <v>0.7513930597177192</v>
+        <v>11.3902901821</v>
       </c>
       <c r="V15">
-        <v>0.8596285554040971</v>
+        <v>18.22518174568</v>
       </c>
       <c r="W15">
-        <v>0.859817801105913</v>
+        <v>5.69697692592625</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9847179780176707</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="D16">
-        <v>1.000849738189512</v>
+        <v>30.381976</v>
       </c>
       <c r="E16">
-        <v>1.0143008985123</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F16">
-        <v>0.9847179780176707</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G16">
-        <v>0.9927346114629173</v>
+        <v>0.00082574953</v>
       </c>
       <c r="H16">
-        <v>1.002562240912709</v>
+        <v>-0.0050457973</v>
       </c>
       <c r="I16">
-        <v>0.9847179780176694</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="J16">
-        <v>1.000849738189512</v>
+        <v>0.0013896468</v>
       </c>
       <c r="K16">
-        <v>1.00305374329573</v>
+        <v>0.22401373</v>
       </c>
       <c r="L16">
-        <v>1.009060273105469</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="M16">
-        <v>1.001057952061716</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="N16">
-        <v>0.9847179780176707</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="O16">
-        <v>1.0143008985123</v>
+        <v>30.381976</v>
       </c>
       <c r="P16">
-        <v>1.007575318350906</v>
+        <v>15.1925364709</v>
       </c>
       <c r="Q16">
-        <v>1.003517754987609</v>
+        <v>15.1916828234</v>
       </c>
       <c r="R16">
-        <v>0.9999562049064944</v>
+        <v>10.12742692363333</v>
       </c>
       <c r="S16">
-        <v>1.00262841605491</v>
+        <v>10.12882086286667</v>
       </c>
       <c r="T16">
-        <v>0.9999562049064942</v>
+        <v>10.12742692363333</v>
       </c>
       <c r="U16">
-        <v>0.9981508065456</v>
+        <v>7.595917604425</v>
       </c>
       <c r="V16">
-        <v>0.9954642408400141</v>
+        <v>6.07617564936</v>
       </c>
       <c r="W16">
-        <v>1.001042179444753</v>
+        <v>3.82527931614125</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.026836882610509</v>
+        <v>0.008039045700000001</v>
       </c>
       <c r="D17">
-        <v>0.9891697619618893</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="E17">
-        <v>0.9713629600775756</v>
+        <v>-0.0064341065</v>
       </c>
       <c r="F17">
-        <v>1.026836882610509</v>
+        <v>-0.0064341065</v>
       </c>
       <c r="G17">
-        <v>1.02524692083327</v>
+        <v>-0.0020108036</v>
       </c>
       <c r="H17">
-        <v>1.003343200252853</v>
+        <v>0.00023258761</v>
       </c>
       <c r="I17">
-        <v>1.026836882610507</v>
+        <v>15.189881</v>
       </c>
       <c r="J17">
-        <v>0.9891697619618893</v>
+        <v>0.9376514</v>
       </c>
       <c r="K17">
-        <v>0.9930204570533889</v>
+        <v>-0.003185654</v>
       </c>
       <c r="L17">
-        <v>1.012292232849553</v>
+        <v>0.008039045700000001</v>
       </c>
       <c r="M17">
-        <v>1.000471482141446</v>
+        <v>0.008039045700000001</v>
       </c>
       <c r="N17">
-        <v>1.026836882610509</v>
+        <v>0.008039045700000001</v>
       </c>
       <c r="O17">
-        <v>0.9713629600775756</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="P17">
-        <v>0.9802663610197324</v>
+        <v>-0.0038316014</v>
       </c>
       <c r="Q17">
-        <v>0.9983049404554225</v>
+        <v>0.46821115185</v>
       </c>
       <c r="R17">
-        <v>0.9957898682166578</v>
+        <v>0.000125280966666667</v>
       </c>
       <c r="S17">
-        <v>0.9952598809575782</v>
+        <v>0.3099960657333333</v>
       </c>
       <c r="T17">
-        <v>0.9957898682166579</v>
+        <v>0.0001252809666666669</v>
       </c>
       <c r="U17">
-        <v>1.003154131370811</v>
+        <v>0.234506810725</v>
       </c>
       <c r="V17">
-        <v>1.00789068161875</v>
+        <v>0.18921325772</v>
       </c>
       <c r="W17">
-        <v>1.00271798722256</v>
+        <v>2.01536804661375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.123291695185911</v>
+        <v>3.282909864111424</v>
       </c>
       <c r="D18">
-        <v>0.9728788568495987</v>
+        <v>1.775310747420164</v>
       </c>
       <c r="E18">
-        <v>1.071741884001333</v>
+        <v>0.001145416088054794</v>
       </c>
       <c r="F18">
-        <v>1.123291695185911</v>
+        <v>0.001145416088054794</v>
       </c>
       <c r="G18">
-        <v>1.092471344666595</v>
+        <v>1.856352736080274</v>
       </c>
       <c r="H18">
-        <v>0.9962542423867041</v>
+        <v>0.1847958925058904</v>
       </c>
       <c r="I18">
-        <v>1.123291695185908</v>
+        <v>0.2777057930038357</v>
       </c>
       <c r="J18">
-        <v>0.9728788568495987</v>
+        <v>1.779027783452876</v>
       </c>
       <c r="K18">
-        <v>1.081433295951298</v>
+        <v>0.140330415609589</v>
       </c>
       <c r="L18">
-        <v>1.02012897608073</v>
+        <v>3.282909864111451</v>
       </c>
       <c r="M18">
-        <v>0.9752380658806912</v>
+        <v>3.282909864111451</v>
       </c>
       <c r="N18">
-        <v>1.123291695185911</v>
+        <v>3.282909864111451</v>
       </c>
       <c r="O18">
-        <v>1.071741884001333</v>
+        <v>1.775310747420164</v>
       </c>
       <c r="P18">
-        <v>1.022310370425466</v>
+        <v>0.8882280817541096</v>
       </c>
       <c r="Q18">
-        <v>1.082106614333964</v>
+        <v>1.77716926543652</v>
       </c>
       <c r="R18">
-        <v>1.055970812012281</v>
+        <v>1.68645534253989</v>
       </c>
       <c r="S18">
-        <v>1.045697361839175</v>
+        <v>1.185161315653698</v>
       </c>
       <c r="T18">
-        <v>1.055970812012281</v>
+        <v>1.68645534253989</v>
       </c>
       <c r="U18">
-        <v>1.065095945175859</v>
+        <v>1.709598452768136</v>
       </c>
       <c r="V18">
-        <v>1.07673509517787</v>
+        <v>2.024260735036799</v>
       </c>
       <c r="W18">
-        <v>1.041679795125358</v>
+        <v>1.162197331034017</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.839797145421603</v>
+        <v>0.001325673068421053</v>
       </c>
       <c r="D19">
-        <v>0.7844595799847061</v>
+        <v>5.909017684447368</v>
       </c>
       <c r="E19">
-        <v>1.192563673556887</v>
+        <v>-0.0012979378</v>
       </c>
       <c r="F19">
-        <v>0.839797145421603</v>
+        <v>-0.0012979378</v>
       </c>
       <c r="G19">
-        <v>1.014644920484191</v>
+        <v>0.009580375117894738</v>
       </c>
       <c r="H19">
-        <v>0.9122545845888161</v>
+        <v>-0.0005682035306842105</v>
       </c>
       <c r="I19">
-        <v>0.839797145421595</v>
+        <v>2.953486430137895</v>
       </c>
       <c r="J19">
-        <v>0.7844595799847061</v>
+        <v>0.1838737728705263</v>
       </c>
       <c r="K19">
-        <v>1.08396462939503</v>
+        <v>1.031983523047369</v>
       </c>
       <c r="L19">
-        <v>0.9433631019229672</v>
+        <v>0.001325673068421053</v>
       </c>
       <c r="M19">
-        <v>1.034561169937635</v>
+        <v>0.001325673068421053</v>
       </c>
       <c r="N19">
-        <v>0.839797145421603</v>
+        <v>0.001325673068421053</v>
       </c>
       <c r="O19">
-        <v>1.192563673556887</v>
+        <v>5.909017684447368</v>
       </c>
       <c r="P19">
-        <v>0.9885116267707963</v>
+        <v>2.953859873323684</v>
       </c>
       <c r="Q19">
-        <v>1.103604297020539</v>
+        <v>3.046445728658947</v>
       </c>
       <c r="R19">
-        <v>0.9389401329877319</v>
+        <v>1.969681806571929</v>
       </c>
       <c r="S19">
-        <v>0.997222724675261</v>
+        <v>2.030531173172631</v>
       </c>
       <c r="T19">
-        <v>0.9389401329877319</v>
+        <v>1.96968180657193</v>
       </c>
       <c r="U19">
-        <v>0.9578663298618466</v>
+        <v>1.523229798146579</v>
       </c>
       <c r="V19">
-        <v>0.9342524929737979</v>
+        <v>1.218848973130947</v>
       </c>
       <c r="W19">
-        <v>0.9757011006614794</v>
+        <v>1.260925164669849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>6.30880813691579</v>
+      </c>
+      <c r="D20">
+        <v>1.704390346541053</v>
+      </c>
+      <c r="E20">
+        <v>3.406934216705263</v>
+      </c>
+      <c r="F20">
+        <v>3.406934216705263</v>
+      </c>
+      <c r="G20">
+        <v>0.001140613399</v>
+      </c>
+      <c r="H20">
+        <v>1.705027424505789</v>
+      </c>
+      <c r="I20">
+        <v>2.105215039510158</v>
+      </c>
+      <c r="J20">
+        <v>1.728209627506842</v>
+      </c>
+      <c r="K20">
+        <v>1.703101720480527</v>
+      </c>
+      <c r="L20">
+        <v>6.30880813691579</v>
+      </c>
+      <c r="M20">
+        <v>6.30880813691579</v>
+      </c>
+      <c r="N20">
+        <v>6.30880813691579</v>
+      </c>
+      <c r="O20">
+        <v>1.704390346541053</v>
+      </c>
+      <c r="P20">
+        <v>2.555662281623158</v>
+      </c>
+      <c r="Q20">
+        <v>1.716299987023947</v>
+      </c>
+      <c r="R20">
+        <v>3.806710900054036</v>
+      </c>
+      <c r="S20">
+        <v>2.279844730251053</v>
+      </c>
+      <c r="T20">
+        <v>3.806710900054036</v>
+      </c>
+      <c r="U20">
+        <v>3.287085581917237</v>
+      </c>
+      <c r="V20">
+        <v>3.891430092916948</v>
+      </c>
+      <c r="W20">
+        <v>2.332853390695552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.0001211739101641081</v>
+      </c>
+      <c r="D21">
+        <v>1.862018421830997</v>
+      </c>
+      <c r="E21">
+        <v>0.0003641762212946885</v>
+      </c>
+      <c r="F21">
+        <v>0.0003641762212946885</v>
+      </c>
+      <c r="G21">
+        <v>1.381973720091928</v>
+      </c>
+      <c r="H21">
+        <v>0.0002569795542226354</v>
+      </c>
+      <c r="I21">
+        <v>0.04551524375942597</v>
+      </c>
+      <c r="J21">
+        <v>0.01136983510383892</v>
+      </c>
+      <c r="K21">
+        <v>2.785446655620628</v>
+      </c>
+      <c r="L21">
+        <v>0.0001211739101641081</v>
+      </c>
+      <c r="M21">
+        <v>0.0001211739101641081</v>
+      </c>
+      <c r="N21">
+        <v>0.0001211739101641081</v>
+      </c>
+      <c r="O21">
+        <v>1.862018421830997</v>
+      </c>
+      <c r="P21">
+        <v>0.9311912990261457</v>
+      </c>
+      <c r="Q21">
+        <v>0.9366941284674178</v>
+      </c>
+      <c r="R21">
+        <v>0.6208345906541518</v>
+      </c>
+      <c r="S21">
+        <v>0.6245841443853768</v>
+      </c>
+      <c r="T21">
+        <v>0.6208345906541518</v>
+      </c>
+      <c r="U21">
+        <v>0.4684684017665736</v>
+      </c>
+      <c r="V21">
+        <v>0.3747989561952917</v>
+      </c>
+      <c r="W21">
+        <v>0.7608832757615624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.292570538149609</v>
+      </c>
+      <c r="D22">
+        <v>1.487689455301568E-05</v>
+      </c>
+      <c r="E22">
+        <v>0.005991714432968145</v>
+      </c>
+      <c r="F22">
+        <v>0.005991714432968145</v>
+      </c>
+      <c r="G22">
+        <v>0.8391380875820508</v>
+      </c>
+      <c r="H22">
+        <v>0.6248453032206281</v>
+      </c>
+      <c r="I22">
+        <v>2.194377304364672</v>
+      </c>
+      <c r="J22">
+        <v>1.706995109393747</v>
+      </c>
+      <c r="K22">
+        <v>0.2146094748090753</v>
+      </c>
+      <c r="L22">
+        <v>1.292570538149609</v>
+      </c>
+      <c r="M22">
+        <v>1.292570538149609</v>
+      </c>
+      <c r="N22">
+        <v>1.292570538149609</v>
+      </c>
+      <c r="O22">
+        <v>1.487689455301568E-05</v>
+      </c>
+      <c r="P22">
+        <v>0.00300329566376058</v>
+      </c>
+      <c r="Q22">
+        <v>0.8535049931441497</v>
+      </c>
+      <c r="R22">
+        <v>0.4328590431590435</v>
+      </c>
+      <c r="S22">
+        <v>0.5710005669070892</v>
+      </c>
+      <c r="T22">
+        <v>0.4328590431590435</v>
+      </c>
+      <c r="U22">
+        <v>0.7513930597177192</v>
+      </c>
+      <c r="V22">
+        <v>0.8596285554040971</v>
+      </c>
+      <c r="W22">
+        <v>0.8598178011059129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.04122531831870988</v>
+      </c>
+      <c r="D23">
+        <v>0.06882008110392791</v>
+      </c>
+      <c r="E23">
+        <v>0.03059505010989017</v>
+      </c>
+      <c r="F23">
+        <v>0.03059505010989017</v>
+      </c>
+      <c r="G23">
+        <v>1.585706857333606</v>
+      </c>
+      <c r="H23">
+        <v>1.649610209158356</v>
+      </c>
+      <c r="I23">
+        <v>1.659235194594477</v>
+      </c>
+      <c r="J23">
+        <v>1.707159803680534</v>
+      </c>
+      <c r="K23">
+        <v>0.492865113276363</v>
+      </c>
+      <c r="L23">
+        <v>0.04122531831870988</v>
+      </c>
+      <c r="M23">
+        <v>0.04122531831870988</v>
+      </c>
+      <c r="N23">
+        <v>0.04122531831870988</v>
+      </c>
+      <c r="O23">
+        <v>0.06882008110392791</v>
+      </c>
+      <c r="P23">
+        <v>0.04970756560690904</v>
+      </c>
+      <c r="Q23">
+        <v>0.8879899423922307</v>
+      </c>
+      <c r="R23">
+        <v>0.04688014984417599</v>
+      </c>
+      <c r="S23">
+        <v>0.6021916449647838</v>
+      </c>
+      <c r="T23">
+        <v>0.04688014984417599</v>
+      </c>
+      <c r="U23">
+        <v>0.4619500633032654</v>
+      </c>
+      <c r="V23">
+        <v>0.3778051143063543</v>
+      </c>
+      <c r="W23">
+        <v>0.9044022034469829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2.10923066971491</v>
+      </c>
+      <c r="D24">
+        <v>1.99979456413514</v>
+      </c>
+      <c r="E24">
+        <v>2.837886055274509</v>
+      </c>
+      <c r="F24">
+        <v>2.837886055274509</v>
+      </c>
+      <c r="G24">
+        <v>0.9632593806865919</v>
+      </c>
+      <c r="H24">
+        <v>0.8732713772621292</v>
+      </c>
+      <c r="I24">
+        <v>0.1471805849603647</v>
+      </c>
+      <c r="J24">
+        <v>0.4499063559951609</v>
+      </c>
+      <c r="K24">
+        <v>1.183671385942961</v>
+      </c>
+      <c r="L24">
+        <v>2.10923066971491</v>
+      </c>
+      <c r="M24">
+        <v>2.10923066971491</v>
+      </c>
+      <c r="N24">
+        <v>2.10923066971491</v>
+      </c>
+      <c r="O24">
+        <v>1.99979456413514</v>
+      </c>
+      <c r="P24">
+        <v>2.418840309704825</v>
+      </c>
+      <c r="Q24">
+        <v>1.224850460065151</v>
+      </c>
+      <c r="R24">
+        <v>2.315637096374853</v>
+      </c>
+      <c r="S24">
+        <v>1.762528991801603</v>
+      </c>
+      <c r="T24">
+        <v>2.315637096374853</v>
+      </c>
+      <c r="U24">
+        <v>1.84920441127993</v>
+      </c>
+      <c r="V24">
+        <v>1.901209662966926</v>
+      </c>
+      <c r="W24">
+        <v>1.320525046746471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>2.048758903676941</v>
+      </c>
+      <c r="D25">
+        <v>0.4599238638391239</v>
+      </c>
+      <c r="E25">
+        <v>0.7262854997355961</v>
+      </c>
+      <c r="F25">
+        <v>0.7262854997355961</v>
+      </c>
+      <c r="G25">
+        <v>0.02635293275512818</v>
+      </c>
+      <c r="H25">
+        <v>2.565595227169283</v>
+      </c>
+      <c r="I25">
+        <v>0.7819508001920283</v>
+      </c>
+      <c r="J25">
+        <v>0.07624355057803317</v>
+      </c>
+      <c r="K25">
+        <v>0.6613822604835309</v>
+      </c>
+      <c r="L25">
+        <v>2.048758903676941</v>
+      </c>
+      <c r="M25">
+        <v>2.048758903676941</v>
+      </c>
+      <c r="N25">
+        <v>2.048758903676941</v>
+      </c>
+      <c r="O25">
+        <v>0.4599238638391239</v>
+      </c>
+      <c r="P25">
+        <v>0.59310468178736</v>
+      </c>
+      <c r="Q25">
+        <v>0.2680837072085785</v>
+      </c>
+      <c r="R25">
+        <v>1.078322755750554</v>
+      </c>
+      <c r="S25">
+        <v>0.4208176380509177</v>
+      </c>
+      <c r="T25">
+        <v>1.078322755750554</v>
+      </c>
+      <c r="U25">
+        <v>0.8278029544574236</v>
+      </c>
+      <c r="V25">
+        <v>1.071994144301327</v>
+      </c>
+      <c r="W25">
+        <v>0.9183116298037081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.1189268388672023</v>
+      </c>
+      <c r="D26">
+        <v>0.4594090643823779</v>
+      </c>
+      <c r="E26">
+        <v>0.0009743962595293884</v>
+      </c>
+      <c r="F26">
+        <v>0.0009743962595293884</v>
+      </c>
+      <c r="G26">
+        <v>2.782010512091008</v>
+      </c>
+      <c r="H26">
+        <v>0.4112453524188622</v>
+      </c>
+      <c r="I26">
+        <v>0.4843144812561912</v>
+      </c>
+      <c r="J26">
+        <v>2.937114329036834</v>
+      </c>
+      <c r="K26">
+        <v>0.3848407775901069</v>
+      </c>
+      <c r="L26">
+        <v>0.1189268388672023</v>
+      </c>
+      <c r="M26">
+        <v>0.1189268388672023</v>
+      </c>
+      <c r="N26">
+        <v>0.1189268388672023</v>
+      </c>
+      <c r="O26">
+        <v>0.4594090643823779</v>
+      </c>
+      <c r="P26">
+        <v>0.2301917303209536</v>
+      </c>
+      <c r="Q26">
+        <v>1.698261696709606</v>
+      </c>
+      <c r="R26">
+        <v>0.1931034331697032</v>
+      </c>
+      <c r="S26">
+        <v>1.132499263226247</v>
+      </c>
+      <c r="T26">
+        <v>0.1931034331697032</v>
+      </c>
+      <c r="U26">
+        <v>0.8791061571364858</v>
+      </c>
+      <c r="V26">
+        <v>0.7270702934826291</v>
+      </c>
+      <c r="W26">
+        <v>0.947354468987764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.111229351878187</v>
+      </c>
+      <c r="D27">
+        <v>3.406046826992374</v>
+      </c>
+      <c r="E27">
+        <v>3.86251643034826</v>
+      </c>
+      <c r="F27">
+        <v>3.86251643034826</v>
+      </c>
+      <c r="G27">
+        <v>0.5081214401534041</v>
+      </c>
+      <c r="H27">
+        <v>0.1937922534703129</v>
+      </c>
+      <c r="I27">
+        <v>2.1954103358405</v>
+      </c>
+      <c r="J27">
+        <v>0.2279728240186968</v>
+      </c>
+      <c r="K27">
+        <v>2.486945862475289</v>
+      </c>
+      <c r="L27">
+        <v>0.111229351878187</v>
+      </c>
+      <c r="M27">
+        <v>0.111229351878187</v>
+      </c>
+      <c r="N27">
+        <v>0.111229351878187</v>
+      </c>
+      <c r="O27">
+        <v>3.406046826992374</v>
+      </c>
+      <c r="P27">
+        <v>3.634281628670316</v>
+      </c>
+      <c r="Q27">
+        <v>1.817009825505535</v>
+      </c>
+      <c r="R27">
+        <v>2.459930869739607</v>
+      </c>
+      <c r="S27">
+        <v>2.49884536045311</v>
+      </c>
+      <c r="T27">
+        <v>2.459930869739607</v>
+      </c>
+      <c r="U27">
+        <v>1.901941358309379</v>
+      </c>
+      <c r="V27">
+        <v>1.543798957023141</v>
+      </c>
+      <c r="W27">
+        <v>1.624004415647128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.6630202600874433</v>
+      </c>
+      <c r="D28">
+        <v>0.4917950273502348</v>
+      </c>
+      <c r="E28">
+        <v>2.061557863080802</v>
+      </c>
+      <c r="F28">
+        <v>2.061557863080802</v>
+      </c>
+      <c r="G28">
+        <v>1.871682642346785</v>
+      </c>
+      <c r="H28">
+        <v>0.2827719617291714</v>
+      </c>
+      <c r="I28">
+        <v>1.167283188965892</v>
+      </c>
+      <c r="J28">
+        <v>0.6985015064935355</v>
+      </c>
+      <c r="K28">
+        <v>0.8860566082203293</v>
+      </c>
+      <c r="L28">
+        <v>0.6630202600875412</v>
+      </c>
+      <c r="M28">
+        <v>0.6630202600875412</v>
+      </c>
+      <c r="N28">
+        <v>0.6630202600875412</v>
+      </c>
+      <c r="O28">
+        <v>0.4917950273502348</v>
+      </c>
+      <c r="P28">
+        <v>1.276676445215518</v>
+      </c>
+      <c r="Q28">
+        <v>0.5951482669218852</v>
+      </c>
+      <c r="R28">
+        <v>1.072124383506193</v>
+      </c>
+      <c r="S28">
+        <v>1.083951465641524</v>
+      </c>
+      <c r="T28">
+        <v>1.072124383506193</v>
+      </c>
+      <c r="U28">
+        <v>0.9787186642530283</v>
+      </c>
+      <c r="V28">
+        <v>0.9155789834199309</v>
+      </c>
+      <c r="W28">
+        <v>1.015333632284286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.2481508645222807</v>
+      </c>
+      <c r="D29">
+        <v>0.01558540699093472</v>
+      </c>
+      <c r="E29">
+        <v>3.81192269624784</v>
+      </c>
+      <c r="F29">
+        <v>3.81192269624784</v>
+      </c>
+      <c r="G29">
+        <v>1.374693171534741</v>
+      </c>
+      <c r="H29">
+        <v>0.1296380380366048</v>
+      </c>
+      <c r="I29">
+        <v>1.550255833421954</v>
+      </c>
+      <c r="J29">
+        <v>0.1570012307081872</v>
+      </c>
+      <c r="K29">
+        <v>0.2187991240157036</v>
+      </c>
+      <c r="L29">
+        <v>0.2481508645222807</v>
+      </c>
+      <c r="M29">
+        <v>0.2481508645222807</v>
+      </c>
+      <c r="N29">
+        <v>0.2481508645222807</v>
+      </c>
+      <c r="O29">
+        <v>0.01558540699093472</v>
+      </c>
+      <c r="P29">
+        <v>1.913754051619387</v>
+      </c>
+      <c r="Q29">
+        <v>0.08629331884956097</v>
+      </c>
+      <c r="R29">
+        <v>1.358552989253685</v>
+      </c>
+      <c r="S29">
+        <v>1.328169777982321</v>
+      </c>
+      <c r="T29">
+        <v>1.358552989253685</v>
+      </c>
+      <c r="U29">
+        <v>1.058165049617311</v>
+      </c>
+      <c r="V29">
+        <v>0.8961622125983044</v>
+      </c>
+      <c r="W29">
+        <v>0.9382557956847807</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8575596154951953</v>
+        <v>0.9493410223854676</v>
       </c>
       <c r="D4">
-        <v>1.977069655844254</v>
+        <v>0.896073875458408</v>
       </c>
       <c r="E4">
-        <v>0.7999827459702282</v>
+        <v>0.8352010844876633</v>
       </c>
       <c r="F4">
-        <v>0.7999827459702282</v>
+        <v>0.8352010844876633</v>
       </c>
       <c r="G4">
-        <v>0.9434608298204006</v>
+        <v>0.8980203708836505</v>
       </c>
       <c r="H4">
-        <v>0.8244267188307782</v>
+        <v>0.8815812870412419</v>
       </c>
       <c r="I4">
-        <v>0.9300665330052508</v>
+        <v>1.662024168384186</v>
       </c>
       <c r="J4">
-        <v>0.865683094735572</v>
+        <v>1.072508968225846</v>
       </c>
       <c r="K4">
-        <v>1.159610427373316</v>
+        <v>0.9390093785187607</v>
       </c>
       <c r="L4">
-        <v>0.8575596154951962</v>
+        <v>0.9493410223854666</v>
       </c>
       <c r="M4">
-        <v>0.8575596154951962</v>
+        <v>0.9493410223854666</v>
       </c>
       <c r="N4">
-        <v>0.8575596154951962</v>
+        <v>0.9493410223854666</v>
       </c>
       <c r="O4">
-        <v>1.977069655844254</v>
+        <v>0.896073875458408</v>
       </c>
       <c r="P4">
-        <v>1.388526200907241</v>
+        <v>0.8656374799730356</v>
       </c>
       <c r="Q4">
-        <v>1.421376375289913</v>
+        <v>0.984291421842127</v>
       </c>
       <c r="R4">
-        <v>1.211537339103226</v>
+        <v>0.8935386607771792</v>
       </c>
       <c r="S4">
-        <v>1.214245165516685</v>
+        <v>0.9345946427239724</v>
       </c>
       <c r="T4">
-        <v>1.211537339103226</v>
+        <v>0.8935386607771792</v>
       </c>
       <c r="U4">
-        <v>1.125073778011313</v>
+        <v>0.938281237639346</v>
       </c>
       <c r="V4">
-        <v>1.07157094550809</v>
+        <v>0.9404931945885702</v>
       </c>
       <c r="W4">
-        <v>1.044732452634374</v>
+        <v>1.016720019423153</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.102062085766269</v>
+        <v>5.832237165862105</v>
       </c>
       <c r="D5">
-        <v>0.8995451935870699</v>
+        <v>1.885724113833821</v>
       </c>
       <c r="E5">
-        <v>0.8280594355865986</v>
+        <v>3.763022004417179</v>
       </c>
       <c r="F5">
-        <v>0.8280594355865986</v>
+        <v>3.763022004417179</v>
       </c>
       <c r="G5">
-        <v>0.8797638267940923</v>
+        <v>0.00120454327565099</v>
       </c>
       <c r="H5">
-        <v>0.8522367258236537</v>
+        <v>1.880164334510104</v>
       </c>
       <c r="I5">
-        <v>1.963873167267354</v>
+        <v>1.308818660563083</v>
       </c>
       <c r="J5">
-        <v>1.088071348964817</v>
+        <v>1.757991991705512</v>
       </c>
       <c r="K5">
-        <v>0.9055202589760148</v>
+        <v>1.884090894036707</v>
       </c>
       <c r="L5">
-        <v>1.102062085766271</v>
+        <v>5.832237165862105</v>
       </c>
       <c r="M5">
-        <v>1.102062085766271</v>
+        <v>5.832237165862105</v>
       </c>
       <c r="N5">
-        <v>1.102062085766271</v>
+        <v>5.832237165862105</v>
       </c>
       <c r="O5">
-        <v>0.8995451935870699</v>
+        <v>1.885724113833821</v>
       </c>
       <c r="P5">
-        <v>0.8638023145868342</v>
+        <v>2.8243730591255</v>
       </c>
       <c r="Q5">
-        <v>0.9938082712759437</v>
+        <v>1.821858052769667</v>
       </c>
       <c r="R5">
-        <v>0.943222238313313</v>
+        <v>3.826994428037702</v>
       </c>
       <c r="S5">
-        <v>0.9385586593794953</v>
+        <v>2.468912703318837</v>
       </c>
       <c r="T5">
-        <v>0.943222238313313</v>
+        <v>3.826994428037702</v>
       </c>
       <c r="U5">
-        <v>0.979434515976189</v>
+        <v>3.309743818954654</v>
       </c>
       <c r="V5">
-        <v>1.003960029934205</v>
+        <v>3.814242488336144</v>
       </c>
       <c r="W5">
-        <v>1.064891505345734</v>
+        <v>2.289156713525521</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5067464873416903</v>
+        <v>0.8575596154951953</v>
       </c>
       <c r="D6">
-        <v>0.4359002708131007</v>
+        <v>1.977069655844254</v>
       </c>
       <c r="E6">
-        <v>0.4101829332046888</v>
+        <v>0.7999827459702282</v>
       </c>
       <c r="F6">
-        <v>0.4101829332046888</v>
+        <v>0.7999827459702282</v>
       </c>
       <c r="G6">
-        <v>0.448825781313145</v>
+        <v>0.9434608298204006</v>
       </c>
       <c r="H6">
-        <v>0.4365680328632727</v>
+        <v>0.8244267188307782</v>
       </c>
       <c r="I6">
-        <v>8.409705560889325</v>
+        <v>0.9300665330052508</v>
       </c>
       <c r="J6">
-        <v>0.9975712698411296</v>
+        <v>0.865683094735572</v>
       </c>
       <c r="K6">
-        <v>0.4656185883989549</v>
+        <v>1.159610427373316</v>
       </c>
       <c r="L6">
-        <v>0.5067464873416908</v>
+        <v>0.8575596154951962</v>
       </c>
       <c r="M6">
-        <v>0.5067464873416908</v>
+        <v>0.8575596154951962</v>
       </c>
       <c r="N6">
-        <v>0.5067464873416908</v>
+        <v>0.8575596154951962</v>
       </c>
       <c r="O6">
-        <v>0.4359002708131007</v>
+        <v>1.977069655844254</v>
       </c>
       <c r="P6">
-        <v>0.4230416020088948</v>
+        <v>1.388526200907241</v>
       </c>
       <c r="Q6">
-        <v>0.7167357703271152</v>
+        <v>1.421376375289913</v>
       </c>
       <c r="R6">
-        <v>0.4509432304531601</v>
+        <v>1.211537339103226</v>
       </c>
       <c r="S6">
-        <v>0.6145514912863064</v>
+        <v>1.214245165516685</v>
       </c>
       <c r="T6">
-        <v>0.4509432304531601</v>
+        <v>1.211537339103226</v>
       </c>
       <c r="U6">
-        <v>0.5876002403001526</v>
+        <v>1.125073778011313</v>
       </c>
       <c r="V6">
-        <v>0.5714294897084602</v>
+        <v>1.07157094550809</v>
       </c>
       <c r="W6">
-        <v>1.513889865583164</v>
+        <v>1.044732452634374</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.116417020986898</v>
+        <v>1.102062085766269</v>
       </c>
       <c r="D7">
-        <v>1.030446202932907</v>
+        <v>0.8995451935870699</v>
       </c>
       <c r="E7">
-        <v>0.9900934808576933</v>
+        <v>0.8280594355865986</v>
       </c>
       <c r="F7">
-        <v>0.9900934808576933</v>
+        <v>0.8280594355865986</v>
       </c>
       <c r="G7">
-        <v>1.028711654150213</v>
+        <v>0.8797638267940923</v>
       </c>
       <c r="H7">
-        <v>0.9768923201565926</v>
+        <v>0.8522367258236537</v>
       </c>
       <c r="I7">
-        <v>0.9703021122327241</v>
+        <v>1.963873167267354</v>
       </c>
       <c r="J7">
-        <v>1.035933620613166</v>
+        <v>1.088071348964817</v>
       </c>
       <c r="K7">
-        <v>0.9659440025543677</v>
+        <v>0.9055202589760148</v>
       </c>
       <c r="L7">
-        <v>1.1164170209869</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="M7">
-        <v>1.1164170209869</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="N7">
-        <v>1.1164170209869</v>
+        <v>1.102062085766271</v>
       </c>
       <c r="O7">
-        <v>1.030446202932907</v>
+        <v>0.8995451935870699</v>
       </c>
       <c r="P7">
-        <v>1.0102698418953</v>
+        <v>0.8638023145868342</v>
       </c>
       <c r="Q7">
-        <v>1.033189911773037</v>
+        <v>0.9938082712759437</v>
       </c>
       <c r="R7">
-        <v>1.045652234925834</v>
+        <v>0.943222238313313</v>
       </c>
       <c r="S7">
-        <v>1.018824434801256</v>
+        <v>0.9385586593794953</v>
       </c>
       <c r="T7">
-        <v>1.045652234925834</v>
+        <v>0.943222238313313</v>
       </c>
       <c r="U7">
-        <v>1.043222581347667</v>
+        <v>0.979434515976189</v>
       </c>
       <c r="V7">
-        <v>1.057861469275513</v>
+        <v>1.003960029934205</v>
       </c>
       <c r="W7">
-        <v>1.014342551810571</v>
+        <v>1.064891505345734</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.026836882610507</v>
+        <v>0.5067464873416903</v>
       </c>
       <c r="D8">
-        <v>0.9713629600775763</v>
+        <v>0.4359002708131007</v>
       </c>
       <c r="E8">
-        <v>0.9891697619618893</v>
+        <v>0.4101829332046888</v>
       </c>
       <c r="F8">
-        <v>0.9891697619618893</v>
+        <v>0.4101829332046888</v>
       </c>
       <c r="G8">
-        <v>0.9930204570533889</v>
+        <v>0.448825781313145</v>
       </c>
       <c r="H8">
-        <v>1.000471482141445</v>
+        <v>0.4365680328632727</v>
       </c>
       <c r="I8">
-        <v>1.012292232849553</v>
+        <v>8.409705560889325</v>
       </c>
       <c r="J8">
-        <v>1.025246920833269</v>
+        <v>0.9975712698411296</v>
       </c>
       <c r="K8">
-        <v>1.003343200252852</v>
+        <v>0.4656185883989549</v>
       </c>
       <c r="L8">
-        <v>1.026836882610509</v>
+        <v>0.5067464873416908</v>
       </c>
       <c r="M8">
-        <v>1.026836882610509</v>
+        <v>0.5067464873416908</v>
       </c>
       <c r="N8">
-        <v>1.026836882610509</v>
+        <v>0.5067464873416908</v>
       </c>
       <c r="O8">
-        <v>0.9713629600775763</v>
+        <v>0.4359002708131007</v>
       </c>
       <c r="P8">
-        <v>0.9802663610197329</v>
+        <v>0.4230416020088948</v>
       </c>
       <c r="Q8">
-        <v>0.9983049404554225</v>
+        <v>0.7167357703271152</v>
       </c>
       <c r="R8">
-        <v>0.9957898682166583</v>
+        <v>0.4509432304531601</v>
       </c>
       <c r="S8">
-        <v>0.9952598809575782</v>
+        <v>0.6145514912863064</v>
       </c>
       <c r="T8">
-        <v>0.995789868216658</v>
+        <v>0.4509432304531601</v>
       </c>
       <c r="U8">
-        <v>1.003154131370811</v>
+        <v>0.5876002403001526</v>
       </c>
       <c r="V8">
-        <v>1.007890681618751</v>
+        <v>0.5714294897084602</v>
       </c>
       <c r="W8">
-        <v>1.00271798722256</v>
+        <v>1.513889865583164</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.145971862819932</v>
+        <v>1.116417020986898</v>
       </c>
       <c r="D9">
-        <v>1.065610559024315</v>
+        <v>1.030446202932907</v>
       </c>
       <c r="E9">
-        <v>0.9389443473461672</v>
+        <v>0.9900934808576933</v>
       </c>
       <c r="F9">
-        <v>0.9389443473461672</v>
+        <v>0.9900934808576933</v>
       </c>
       <c r="G9">
-        <v>1.066631321207997</v>
+        <v>1.028711654150213</v>
       </c>
       <c r="H9">
-        <v>0.9501479730209618</v>
+        <v>0.9768923201565926</v>
       </c>
       <c r="I9">
-        <v>0.9784991514486676</v>
+        <v>0.9703021122327241</v>
       </c>
       <c r="J9">
-        <v>1.065435370003966</v>
+        <v>1.035933620613166</v>
       </c>
       <c r="K9">
-        <v>0.9556153547180026</v>
+        <v>0.9659440025543677</v>
       </c>
       <c r="L9">
-        <v>1.145971862819936</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="M9">
-        <v>1.145971862819936</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="N9">
-        <v>1.145971862819936</v>
+        <v>1.1164170209869</v>
       </c>
       <c r="O9">
-        <v>1.065610559024315</v>
+        <v>1.030446202932907</v>
       </c>
       <c r="P9">
-        <v>1.002277453185241</v>
+        <v>1.0102698418953</v>
       </c>
       <c r="Q9">
-        <v>1.06552296451414</v>
+        <v>1.033189911773037</v>
       </c>
       <c r="R9">
-        <v>1.050175589730139</v>
+        <v>1.045652234925834</v>
       </c>
       <c r="S9">
-        <v>1.023330092124816</v>
+        <v>1.018824434801256</v>
       </c>
       <c r="T9">
-        <v>1.050175589730139</v>
+        <v>1.045652234925834</v>
       </c>
       <c r="U9">
-        <v>1.053990534798596</v>
+        <v>1.043222581347667</v>
       </c>
       <c r="V9">
-        <v>1.072386800402864</v>
+        <v>1.057861469275513</v>
       </c>
       <c r="W9">
-        <v>1.020856992448752</v>
+        <v>1.014342551810571</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4688739878395281</v>
+        <v>1.026836882610507</v>
       </c>
       <c r="D10">
-        <v>0.4067411039140718</v>
+        <v>0.9713629600775763</v>
       </c>
       <c r="E10">
-        <v>0.3129443706710993</v>
+        <v>0.9891697619618893</v>
       </c>
       <c r="F10">
-        <v>0.3129443706710993</v>
+        <v>0.9891697619618893</v>
       </c>
       <c r="G10">
-        <v>0.4592697019178639</v>
+        <v>0.9930204570533889</v>
       </c>
       <c r="H10">
-        <v>0.4352878656879532</v>
+        <v>1.000471482141445</v>
       </c>
       <c r="I10">
-        <v>8.568665346515965</v>
+        <v>1.012292232849553</v>
       </c>
       <c r="J10">
-        <v>1.030328105014642</v>
+        <v>1.025246920833269</v>
       </c>
       <c r="K10">
-        <v>0.4182545724985387</v>
+        <v>1.003343200252852</v>
       </c>
       <c r="L10">
-        <v>0.4688739878395281</v>
+        <v>1.026836882610509</v>
       </c>
       <c r="M10">
-        <v>0.4688739878395281</v>
+        <v>1.026836882610509</v>
       </c>
       <c r="N10">
-        <v>0.4688739878395281</v>
+        <v>1.026836882610509</v>
       </c>
       <c r="O10">
-        <v>0.4067411039140718</v>
+        <v>0.9713629600775763</v>
       </c>
       <c r="P10">
-        <v>0.3598427372925855</v>
+        <v>0.9802663610197329</v>
       </c>
       <c r="Q10">
-        <v>0.718534604464357</v>
+        <v>0.9983049404554225</v>
       </c>
       <c r="R10">
-        <v>0.3961864874748997</v>
+        <v>0.9957898682166583</v>
       </c>
       <c r="S10">
-        <v>0.5833378598666045</v>
+        <v>0.9952598809575782</v>
       </c>
       <c r="T10">
-        <v>0.3961864874748997</v>
+        <v>0.995789868216658</v>
       </c>
       <c r="U10">
-        <v>0.5547218918598353</v>
+        <v>1.003154131370811</v>
       </c>
       <c r="V10">
-        <v>0.5375523110557738</v>
+        <v>1.007890681618751</v>
       </c>
       <c r="W10">
-        <v>1.512545631757458</v>
+        <v>1.00271798722256</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8848872726097238</v>
+        <v>1.145971862819932</v>
       </c>
       <c r="D11">
-        <v>1.831082564160873</v>
+        <v>1.065610559024315</v>
       </c>
       <c r="E11">
-        <v>1.160329398880746</v>
+        <v>0.9389443473461672</v>
       </c>
       <c r="F11">
-        <v>1.160329398880746</v>
+        <v>0.9389443473461672</v>
       </c>
       <c r="G11">
-        <v>1.021932700585678</v>
+        <v>1.066631321207997</v>
       </c>
       <c r="H11">
-        <v>1.077729759182189</v>
+        <v>0.9501479730209618</v>
       </c>
       <c r="I11">
-        <v>0.823248892729034</v>
+        <v>0.9784991514486676</v>
       </c>
       <c r="J11">
-        <v>0.9267367956616961</v>
+        <v>1.065435370003966</v>
       </c>
       <c r="K11">
-        <v>1.01002734553764</v>
+        <v>0.9556153547180026</v>
       </c>
       <c r="L11">
-        <v>0.884887272609725</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="M11">
-        <v>0.884887272609725</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="N11">
-        <v>0.884887272609725</v>
+        <v>1.145971862819936</v>
       </c>
       <c r="O11">
-        <v>1.831082564160873</v>
+        <v>1.065610559024315</v>
       </c>
       <c r="P11">
-        <v>1.49570598152081</v>
+        <v>1.002277453185241</v>
       </c>
       <c r="Q11">
-        <v>1.378909679911285</v>
+        <v>1.06552296451414</v>
       </c>
       <c r="R11">
-        <v>1.292099745217115</v>
+        <v>1.050175589730139</v>
       </c>
       <c r="S11">
-        <v>1.306049586234439</v>
+        <v>1.023330092124816</v>
       </c>
       <c r="T11">
-        <v>1.292099745217115</v>
+        <v>1.050175589730139</v>
       </c>
       <c r="U11">
-        <v>1.20075900782826</v>
+        <v>1.053990534798596</v>
       </c>
       <c r="V11">
-        <v>1.137584660784553</v>
+        <v>1.072386800402864</v>
       </c>
       <c r="W11">
-        <v>1.091996841168448</v>
+        <v>1.020856992448752</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.003052276713883</v>
+        <v>0.4688739878395281</v>
       </c>
       <c r="D12">
-        <v>0.7935754438458219</v>
+        <v>0.4067411039140718</v>
       </c>
       <c r="E12">
-        <v>0.7017293659879198</v>
+        <v>0.3129443706710993</v>
       </c>
       <c r="F12">
-        <v>0.7017293659879198</v>
+        <v>0.3129443706710993</v>
       </c>
       <c r="G12">
-        <v>0.89603163626434</v>
+        <v>0.4592697019178639</v>
       </c>
       <c r="H12">
-        <v>0.8685774676447587</v>
+        <v>0.4352878656879532</v>
       </c>
       <c r="I12">
-        <v>2.429034465314773</v>
+        <v>8.568665346515965</v>
       </c>
       <c r="J12">
-        <v>1.146032480508926</v>
+        <v>1.030328105014642</v>
       </c>
       <c r="K12">
-        <v>0.7919083321434865</v>
+        <v>0.4182545724985387</v>
       </c>
       <c r="L12">
-        <v>1.003052276713883</v>
+        <v>0.4688739878395281</v>
       </c>
       <c r="M12">
-        <v>1.003052276713883</v>
+        <v>0.4688739878395281</v>
       </c>
       <c r="N12">
-        <v>1.003052276713883</v>
+        <v>0.4688739878395281</v>
       </c>
       <c r="O12">
-        <v>0.7935754438458219</v>
+        <v>0.4067411039140718</v>
       </c>
       <c r="P12">
-        <v>0.7476524049168709</v>
+        <v>0.3598427372925855</v>
       </c>
       <c r="Q12">
-        <v>0.969803962177374</v>
+        <v>0.718534604464357</v>
       </c>
       <c r="R12">
-        <v>0.8327856955158749</v>
+        <v>0.3961864874748997</v>
       </c>
       <c r="S12">
-        <v>0.8804457634475559</v>
+        <v>0.5833378598666045</v>
       </c>
       <c r="T12">
-        <v>0.8327856955158749</v>
+        <v>0.3961864874748997</v>
       </c>
       <c r="U12">
-        <v>0.9110973917641376</v>
+        <v>0.5547218918598353</v>
       </c>
       <c r="V12">
-        <v>0.9294883687540867</v>
+        <v>0.5375523110557738</v>
       </c>
       <c r="W12">
-        <v>1.078742683552989</v>
+        <v>1.512545631757458</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7822326929501341</v>
+        <v>0.8848872726097238</v>
       </c>
       <c r="D13">
-        <v>0.9512510231659965</v>
+        <v>1.831082564160873</v>
       </c>
       <c r="E13">
-        <v>0.783691504070483</v>
+        <v>1.160329398880746</v>
       </c>
       <c r="F13">
-        <v>0.783691504070483</v>
+        <v>1.160329398880746</v>
       </c>
       <c r="G13">
-        <v>1.18212834813484</v>
+        <v>1.021932700585678</v>
       </c>
       <c r="H13">
-        <v>1.088096279452517</v>
+        <v>1.077729759182189</v>
       </c>
       <c r="I13">
-        <v>1.060250499136232</v>
+        <v>0.823248892729034</v>
       </c>
       <c r="J13">
-        <v>1.045149960169622</v>
+        <v>0.9267367956616961</v>
       </c>
       <c r="K13">
-        <v>0.8534775660287339</v>
+        <v>1.01002734553764</v>
       </c>
       <c r="L13">
-        <v>0.7822326929501341</v>
+        <v>0.884887272609725</v>
       </c>
       <c r="M13">
-        <v>0.7822326929501341</v>
+        <v>0.884887272609725</v>
       </c>
       <c r="N13">
-        <v>0.7822326929501341</v>
+        <v>0.884887272609725</v>
       </c>
       <c r="O13">
-        <v>0.9512510231659965</v>
+        <v>1.831082564160873</v>
       </c>
       <c r="P13">
-        <v>0.8674712636182398</v>
+        <v>1.49570598152081</v>
       </c>
       <c r="Q13">
-        <v>0.9982004916678093</v>
+        <v>1.378909679911285</v>
       </c>
       <c r="R13">
-        <v>0.8390584067288712</v>
+        <v>1.292099745217115</v>
       </c>
       <c r="S13">
-        <v>0.926697495802034</v>
+        <v>1.306049586234439</v>
       </c>
       <c r="T13">
-        <v>0.8390584067288712</v>
+        <v>1.292099745217115</v>
       </c>
       <c r="U13">
-        <v>0.890581295089059</v>
+        <v>1.20075900782826</v>
       </c>
       <c r="V13">
-        <v>0.8689115746612741</v>
+        <v>1.137584660784553</v>
       </c>
       <c r="W13">
-        <v>0.9682847341385699</v>
+        <v>1.091996841168448</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.008035351600000009</v>
+        <v>1.003052276713883</v>
       </c>
       <c r="D14">
-        <v>-0.0012305198</v>
+        <v>0.7935754438458219</v>
       </c>
       <c r="E14">
-        <v>-0.0064316009</v>
+        <v>0.7017293659879198</v>
       </c>
       <c r="F14">
-        <v>-0.0064316009</v>
+        <v>0.7017293659879198</v>
       </c>
       <c r="G14">
-        <v>-0.0020116523</v>
+        <v>0.89603163626434</v>
       </c>
       <c r="H14">
-        <v>0.0002333084100000004</v>
+        <v>0.8685774676447587</v>
       </c>
       <c r="I14">
-        <v>15.18988100000001</v>
+        <v>2.429034465314773</v>
       </c>
       <c r="J14">
-        <v>0.9379539099999991</v>
+        <v>1.146032480508926</v>
       </c>
       <c r="K14">
-        <v>-0.0031867441</v>
+        <v>0.7919083321434865</v>
       </c>
       <c r="L14">
-        <v>0.008035351600000009</v>
+        <v>1.003052276713883</v>
       </c>
       <c r="M14">
-        <v>0.008035351600000009</v>
+        <v>1.003052276713883</v>
       </c>
       <c r="N14">
-        <v>0.008035351600000009</v>
+        <v>1.003052276713883</v>
       </c>
       <c r="O14">
-        <v>-0.0012305198</v>
+        <v>0.7935754438458219</v>
       </c>
       <c r="P14">
-        <v>-0.00383106035</v>
+        <v>0.7476524049168709</v>
       </c>
       <c r="Q14">
-        <v>0.4683616950999995</v>
+        <v>0.969803962177374</v>
       </c>
       <c r="R14">
-        <v>0.0001244103000000033</v>
+        <v>0.8327856955158749</v>
       </c>
       <c r="S14">
-        <v>0.3100972630999997</v>
+        <v>0.8804457634475559</v>
       </c>
       <c r="T14">
-        <v>0.0001244103000000032</v>
+        <v>0.8327856955158749</v>
       </c>
       <c r="U14">
-        <v>0.2345817852249998</v>
+        <v>0.9110973917641376</v>
       </c>
       <c r="V14">
-        <v>0.1892724984999998</v>
+        <v>0.9294883687540867</v>
       </c>
       <c r="W14">
-        <v>2.015405381613751</v>
+        <v>1.078742683552989</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>45.564748</v>
+        <v>0.7822326929501341</v>
       </c>
       <c r="D15">
-        <v>-0.0027921708</v>
+        <v>0.9512510231659965</v>
       </c>
       <c r="E15">
-        <v>0.0062360679</v>
+        <v>0.783691504070483</v>
       </c>
       <c r="F15">
-        <v>0.0062360679</v>
+        <v>0.783691504070483</v>
       </c>
       <c r="G15">
-        <v>0.0091395608</v>
+        <v>1.18212834813484</v>
       </c>
       <c r="H15">
-        <v>0.00010522111</v>
+        <v>1.088096279452517</v>
       </c>
       <c r="I15">
-        <v>0.0080378142</v>
+        <v>1.060250499136232</v>
       </c>
       <c r="J15">
-        <v>-0.0070311687</v>
+        <v>1.045149960169622</v>
       </c>
       <c r="K15">
-        <v>-0.0026279171</v>
+        <v>0.8534775660287339</v>
       </c>
       <c r="L15">
-        <v>45.564748</v>
+        <v>0.7822326929501341</v>
       </c>
       <c r="M15">
-        <v>45.564748</v>
+        <v>0.7822326929501341</v>
       </c>
       <c r="N15">
-        <v>45.564748</v>
+        <v>0.7822326929501341</v>
       </c>
       <c r="O15">
-        <v>-0.0027921708</v>
+        <v>0.9512510231659965</v>
       </c>
       <c r="P15">
-        <v>0.00172194855</v>
+        <v>0.8674712636182398</v>
       </c>
       <c r="Q15">
-        <v>-0.00491166975</v>
+        <v>0.9982004916678093</v>
       </c>
       <c r="R15">
-        <v>15.18939729903333</v>
+        <v>0.8390584067288712</v>
       </c>
       <c r="S15">
-        <v>-0.0011957572</v>
+        <v>0.926697495802034</v>
       </c>
       <c r="T15">
-        <v>15.18939729903333</v>
+        <v>0.8390584067288712</v>
       </c>
       <c r="U15">
-        <v>11.3902901821</v>
+        <v>0.890581295089059</v>
       </c>
       <c r="V15">
-        <v>18.22518174568</v>
+        <v>0.8689115746612741</v>
       </c>
       <c r="W15">
-        <v>5.69697692592625</v>
+        <v>0.9682847341385699</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0027921709</v>
+        <v>0.008035351600000009</v>
       </c>
       <c r="D16">
-        <v>30.381976</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="E16">
-        <v>0.0030969418</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="F16">
-        <v>0.0030969418</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="G16">
-        <v>0.00082574953</v>
+        <v>-0.0020116523</v>
       </c>
       <c r="H16">
-        <v>-0.0050457973</v>
+        <v>0.0002333084100000004</v>
       </c>
       <c r="I16">
-        <v>-0.0012295708</v>
+        <v>15.18988100000001</v>
       </c>
       <c r="J16">
-        <v>0.0013896468</v>
+        <v>0.9379539099999991</v>
       </c>
       <c r="K16">
-        <v>0.22401373</v>
+        <v>-0.0031867441</v>
       </c>
       <c r="L16">
-        <v>-0.0027921709</v>
+        <v>0.008035351600000009</v>
       </c>
       <c r="M16">
-        <v>-0.0027921709</v>
+        <v>0.008035351600000009</v>
       </c>
       <c r="N16">
-        <v>-0.0027921709</v>
+        <v>0.008035351600000009</v>
       </c>
       <c r="O16">
-        <v>30.381976</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="P16">
-        <v>15.1925364709</v>
+        <v>-0.00383106035</v>
       </c>
       <c r="Q16">
-        <v>15.1916828234</v>
+        <v>0.4683616950999995</v>
       </c>
       <c r="R16">
-        <v>10.12742692363333</v>
+        <v>0.0001244103000000033</v>
       </c>
       <c r="S16">
-        <v>10.12882086286667</v>
+        <v>0.3100972630999997</v>
       </c>
       <c r="T16">
-        <v>10.12742692363333</v>
+        <v>0.0001244103000000032</v>
       </c>
       <c r="U16">
-        <v>7.595917604425</v>
+        <v>0.2345817852249998</v>
       </c>
       <c r="V16">
-        <v>6.07617564936</v>
+        <v>0.1892724984999998</v>
       </c>
       <c r="W16">
-        <v>3.82527931614125</v>
+        <v>2.015405381613751</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.008039045700000001</v>
+        <v>45.564748</v>
       </c>
       <c r="D17">
-        <v>-0.0012290963</v>
+        <v>-0.0027921708</v>
       </c>
       <c r="E17">
-        <v>-0.0064341065</v>
+        <v>0.0062360679</v>
       </c>
       <c r="F17">
-        <v>-0.0064341065</v>
+        <v>0.0062360679</v>
       </c>
       <c r="G17">
-        <v>-0.0020108036</v>
+        <v>0.0091395608</v>
       </c>
       <c r="H17">
-        <v>0.00023258761</v>
+        <v>0.00010522111</v>
       </c>
       <c r="I17">
-        <v>15.189881</v>
+        <v>0.0080378142</v>
       </c>
       <c r="J17">
-        <v>0.9376514</v>
+        <v>-0.0070311687</v>
       </c>
       <c r="K17">
-        <v>-0.003185654</v>
+        <v>-0.0026279171</v>
       </c>
       <c r="L17">
-        <v>0.008039045700000001</v>
+        <v>45.564748</v>
       </c>
       <c r="M17">
-        <v>0.008039045700000001</v>
+        <v>45.564748</v>
       </c>
       <c r="N17">
-        <v>0.008039045700000001</v>
+        <v>45.564748</v>
       </c>
       <c r="O17">
-        <v>-0.0012290963</v>
+        <v>-0.0027921708</v>
       </c>
       <c r="P17">
-        <v>-0.0038316014</v>
+        <v>0.00172194855</v>
       </c>
       <c r="Q17">
-        <v>0.46821115185</v>
+        <v>-0.00491166975</v>
       </c>
       <c r="R17">
-        <v>0.000125280966666667</v>
+        <v>15.18939729903333</v>
       </c>
       <c r="S17">
-        <v>0.3099960657333333</v>
+        <v>-0.0011957572</v>
       </c>
       <c r="T17">
-        <v>0.0001252809666666669</v>
+        <v>15.18939729903333</v>
       </c>
       <c r="U17">
-        <v>0.234506810725</v>
+        <v>11.3902901821</v>
       </c>
       <c r="V17">
-        <v>0.18921325772</v>
+        <v>18.22518174568</v>
       </c>
       <c r="W17">
-        <v>2.01536804661375</v>
+        <v>5.69697692592625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.282909864111424</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="D18">
-        <v>1.775310747420164</v>
+        <v>30.381976</v>
       </c>
       <c r="E18">
-        <v>0.001145416088054794</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F18">
-        <v>0.001145416088054794</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G18">
-        <v>1.856352736080274</v>
+        <v>0.00082574953</v>
       </c>
       <c r="H18">
-        <v>0.1847958925058904</v>
+        <v>-0.0050457973</v>
       </c>
       <c r="I18">
-        <v>0.2777057930038357</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="J18">
-        <v>1.779027783452876</v>
+        <v>0.0013896468</v>
       </c>
       <c r="K18">
-        <v>0.140330415609589</v>
+        <v>0.22401373</v>
       </c>
       <c r="L18">
-        <v>3.282909864111451</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="M18">
-        <v>3.282909864111451</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="N18">
-        <v>3.282909864111451</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="O18">
-        <v>1.775310747420164</v>
+        <v>30.381976</v>
       </c>
       <c r="P18">
-        <v>0.8882280817541096</v>
+        <v>15.1925364709</v>
       </c>
       <c r="Q18">
-        <v>1.77716926543652</v>
+        <v>15.1916828234</v>
       </c>
       <c r="R18">
-        <v>1.68645534253989</v>
+        <v>10.12742692363333</v>
       </c>
       <c r="S18">
-        <v>1.185161315653698</v>
+        <v>10.12882086286667</v>
       </c>
       <c r="T18">
-        <v>1.68645534253989</v>
+        <v>10.12742692363333</v>
       </c>
       <c r="U18">
-        <v>1.709598452768136</v>
+        <v>7.595917604425</v>
       </c>
       <c r="V18">
-        <v>2.024260735036799</v>
+        <v>6.07617564936</v>
       </c>
       <c r="W18">
-        <v>1.162197331034017</v>
+        <v>3.82527931614125</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.001325673068421053</v>
+        <v>0.008039045700000001</v>
       </c>
       <c r="D19">
-        <v>5.909017684447368</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="E19">
-        <v>-0.0012979378</v>
+        <v>-0.0064341065</v>
       </c>
       <c r="F19">
-        <v>-0.0012979378</v>
+        <v>-0.0064341065</v>
       </c>
       <c r="G19">
-        <v>0.009580375117894738</v>
+        <v>-0.0020108036</v>
       </c>
       <c r="H19">
-        <v>-0.0005682035306842105</v>
+        <v>0.00023258761</v>
       </c>
       <c r="I19">
-        <v>2.953486430137895</v>
+        <v>15.189881</v>
       </c>
       <c r="J19">
-        <v>0.1838737728705263</v>
+        <v>0.9376514</v>
       </c>
       <c r="K19">
-        <v>1.031983523047369</v>
+        <v>-0.003185654</v>
       </c>
       <c r="L19">
-        <v>0.001325673068421053</v>
+        <v>0.008039045700000001</v>
       </c>
       <c r="M19">
-        <v>0.001325673068421053</v>
+        <v>0.008039045700000001</v>
       </c>
       <c r="N19">
-        <v>0.001325673068421053</v>
+        <v>0.008039045700000001</v>
       </c>
       <c r="O19">
-        <v>5.909017684447368</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="P19">
-        <v>2.953859873323684</v>
+        <v>-0.0038316014</v>
       </c>
       <c r="Q19">
-        <v>3.046445728658947</v>
+        <v>0.46821115185</v>
       </c>
       <c r="R19">
-        <v>1.969681806571929</v>
+        <v>0.000125280966666667</v>
       </c>
       <c r="S19">
-        <v>2.030531173172631</v>
+        <v>0.3099960657333333</v>
       </c>
       <c r="T19">
-        <v>1.96968180657193</v>
+        <v>0.0001252809666666669</v>
       </c>
       <c r="U19">
-        <v>1.523229798146579</v>
+        <v>0.234506810725</v>
       </c>
       <c r="V19">
-        <v>1.218848973130947</v>
+        <v>0.18921325772</v>
       </c>
       <c r="W19">
-        <v>1.260925164669849</v>
+        <v>2.01536804661375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.30880813691579</v>
+        <v>3.282909864111424</v>
       </c>
       <c r="D20">
-        <v>1.704390346541053</v>
+        <v>1.775310747420164</v>
       </c>
       <c r="E20">
-        <v>3.406934216705263</v>
+        <v>0.001145416088054794</v>
       </c>
       <c r="F20">
-        <v>3.406934216705263</v>
+        <v>0.001145416088054794</v>
       </c>
       <c r="G20">
-        <v>0.001140613399</v>
+        <v>1.856352736080274</v>
       </c>
       <c r="H20">
-        <v>1.705027424505789</v>
+        <v>0.1847958925058904</v>
       </c>
       <c r="I20">
-        <v>2.105215039510158</v>
+        <v>0.2777057930038357</v>
       </c>
       <c r="J20">
-        <v>1.728209627506842</v>
+        <v>1.779027783452876</v>
       </c>
       <c r="K20">
-        <v>1.703101720480527</v>
+        <v>0.140330415609589</v>
       </c>
       <c r="L20">
-        <v>6.30880813691579</v>
+        <v>3.282909864111451</v>
       </c>
       <c r="M20">
-        <v>6.30880813691579</v>
+        <v>3.282909864111451</v>
       </c>
       <c r="N20">
-        <v>6.30880813691579</v>
+        <v>3.282909864111451</v>
       </c>
       <c r="O20">
-        <v>1.704390346541053</v>
+        <v>1.775310747420164</v>
       </c>
       <c r="P20">
-        <v>2.555662281623158</v>
+        <v>0.8882280817541096</v>
       </c>
       <c r="Q20">
-        <v>1.716299987023947</v>
+        <v>1.77716926543652</v>
       </c>
       <c r="R20">
-        <v>3.806710900054036</v>
+        <v>1.68645534253989</v>
       </c>
       <c r="S20">
-        <v>2.279844730251053</v>
+        <v>1.185161315653698</v>
       </c>
       <c r="T20">
-        <v>3.806710900054036</v>
+        <v>1.68645534253989</v>
       </c>
       <c r="U20">
-        <v>3.287085581917237</v>
+        <v>1.709598452768136</v>
       </c>
       <c r="V20">
-        <v>3.891430092916948</v>
+        <v>2.024260735036799</v>
       </c>
       <c r="W20">
-        <v>2.332853390695552</v>
+        <v>1.162197331034017</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.0001211739101641081</v>
+        <v>0.001325673068421053</v>
       </c>
       <c r="D21">
-        <v>1.862018421830997</v>
+        <v>5.909017684447368</v>
       </c>
       <c r="E21">
-        <v>0.0003641762212946885</v>
+        <v>-0.0012979378</v>
       </c>
       <c r="F21">
-        <v>0.0003641762212946885</v>
+        <v>-0.0012979378</v>
       </c>
       <c r="G21">
-        <v>1.381973720091928</v>
+        <v>0.009580375117894738</v>
       </c>
       <c r="H21">
-        <v>0.0002569795542226354</v>
+        <v>-0.0005682035306842105</v>
       </c>
       <c r="I21">
-        <v>0.04551524375942597</v>
+        <v>2.953486430137895</v>
       </c>
       <c r="J21">
-        <v>0.01136983510383892</v>
+        <v>0.1838737728705263</v>
       </c>
       <c r="K21">
-        <v>2.785446655620628</v>
+        <v>1.031983523047369</v>
       </c>
       <c r="L21">
-        <v>0.0001211739101641081</v>
+        <v>0.001325673068421053</v>
       </c>
       <c r="M21">
-        <v>0.0001211739101641081</v>
+        <v>0.001325673068421053</v>
       </c>
       <c r="N21">
-        <v>0.0001211739101641081</v>
+        <v>0.001325673068421053</v>
       </c>
       <c r="O21">
-        <v>1.862018421830997</v>
+        <v>5.909017684447368</v>
       </c>
       <c r="P21">
-        <v>0.9311912990261457</v>
+        <v>2.953859873323684</v>
       </c>
       <c r="Q21">
-        <v>0.9366941284674178</v>
+        <v>3.046445728658947</v>
       </c>
       <c r="R21">
-        <v>0.6208345906541518</v>
+        <v>1.969681806571929</v>
       </c>
       <c r="S21">
-        <v>0.6245841443853768</v>
+        <v>2.030531173172631</v>
       </c>
       <c r="T21">
-        <v>0.6208345906541518</v>
+        <v>1.96968180657193</v>
       </c>
       <c r="U21">
-        <v>0.4684684017665736</v>
+        <v>1.523229798146579</v>
       </c>
       <c r="V21">
-        <v>0.3747989561952917</v>
+        <v>1.218848973130947</v>
       </c>
       <c r="W21">
-        <v>0.7608832757615624</v>
+        <v>1.260925164669849</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.292570538149609</v>
+        <v>6.30880813691579</v>
       </c>
       <c r="D22">
-        <v>1.487689455301568E-05</v>
+        <v>1.704390346541053</v>
       </c>
       <c r="E22">
-        <v>0.005991714432968145</v>
+        <v>3.406934216705263</v>
       </c>
       <c r="F22">
-        <v>0.005991714432968145</v>
+        <v>3.406934216705263</v>
       </c>
       <c r="G22">
-        <v>0.8391380875820508</v>
+        <v>0.001140613399</v>
       </c>
       <c r="H22">
-        <v>0.6248453032206281</v>
+        <v>1.705027424505789</v>
       </c>
       <c r="I22">
-        <v>2.194377304364672</v>
+        <v>2.105215039510158</v>
       </c>
       <c r="J22">
-        <v>1.706995109393747</v>
+        <v>1.728209627506842</v>
       </c>
       <c r="K22">
-        <v>0.2146094748090753</v>
+        <v>1.703101720480527</v>
       </c>
       <c r="L22">
-        <v>1.292570538149609</v>
+        <v>6.30880813691579</v>
       </c>
       <c r="M22">
-        <v>1.292570538149609</v>
+        <v>6.30880813691579</v>
       </c>
       <c r="N22">
-        <v>1.292570538149609</v>
+        <v>6.30880813691579</v>
       </c>
       <c r="O22">
-        <v>1.487689455301568E-05</v>
+        <v>1.704390346541053</v>
       </c>
       <c r="P22">
-        <v>0.00300329566376058</v>
+        <v>2.555662281623158</v>
       </c>
       <c r="Q22">
-        <v>0.8535049931441497</v>
+        <v>1.716299987023947</v>
       </c>
       <c r="R22">
-        <v>0.4328590431590435</v>
+        <v>3.806710900054036</v>
       </c>
       <c r="S22">
-        <v>0.5710005669070892</v>
+        <v>2.279844730251053</v>
       </c>
       <c r="T22">
-        <v>0.4328590431590435</v>
+        <v>3.806710900054036</v>
       </c>
       <c r="U22">
-        <v>0.7513930597177192</v>
+        <v>3.287085581917237</v>
       </c>
       <c r="V22">
-        <v>0.8596285554040971</v>
+        <v>3.891430092916948</v>
       </c>
       <c r="W22">
-        <v>0.8598178011059129</v>
+        <v>2.332853390695552</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.04122531831870988</v>
+        <v>0.0001211739101641081</v>
       </c>
       <c r="D23">
-        <v>0.06882008110392791</v>
+        <v>1.862018421830997</v>
       </c>
       <c r="E23">
-        <v>0.03059505010989017</v>
+        <v>0.0003641762212946885</v>
       </c>
       <c r="F23">
-        <v>0.03059505010989017</v>
+        <v>0.0003641762212946885</v>
       </c>
       <c r="G23">
-        <v>1.585706857333606</v>
+        <v>1.381973720091928</v>
       </c>
       <c r="H23">
-        <v>1.649610209158356</v>
+        <v>0.0002569795542226354</v>
       </c>
       <c r="I23">
-        <v>1.659235194594477</v>
+        <v>0.04551524375942597</v>
       </c>
       <c r="J23">
-        <v>1.707159803680534</v>
+        <v>0.01136983510383892</v>
       </c>
       <c r="K23">
-        <v>0.492865113276363</v>
+        <v>2.785446655620628</v>
       </c>
       <c r="L23">
-        <v>0.04122531831870988</v>
+        <v>0.0001211739101641081</v>
       </c>
       <c r="M23">
-        <v>0.04122531831870988</v>
+        <v>0.0001211739101641081</v>
       </c>
       <c r="N23">
-        <v>0.04122531831870988</v>
+        <v>0.0001211739101641081</v>
       </c>
       <c r="O23">
-        <v>0.06882008110392791</v>
+        <v>1.862018421830997</v>
       </c>
       <c r="P23">
-        <v>0.04970756560690904</v>
+        <v>0.9311912990261457</v>
       </c>
       <c r="Q23">
-        <v>0.8879899423922307</v>
+        <v>0.9366941284674178</v>
       </c>
       <c r="R23">
-        <v>0.04688014984417599</v>
+        <v>0.6208345906541518</v>
       </c>
       <c r="S23">
-        <v>0.6021916449647838</v>
+        <v>0.6245841443853768</v>
       </c>
       <c r="T23">
-        <v>0.04688014984417599</v>
+        <v>0.6208345906541518</v>
       </c>
       <c r="U23">
-        <v>0.4619500633032654</v>
+        <v>0.4684684017665736</v>
       </c>
       <c r="V23">
-        <v>0.3778051143063543</v>
+        <v>0.3747989561952917</v>
       </c>
       <c r="W23">
-        <v>0.9044022034469829</v>
+        <v>0.7608832757615624</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.10923066971491</v>
+        <v>1.292570538149609</v>
       </c>
       <c r="D24">
-        <v>1.99979456413514</v>
+        <v>1.487689455301568E-05</v>
       </c>
       <c r="E24">
-        <v>2.837886055274509</v>
+        <v>0.005991714432968145</v>
       </c>
       <c r="F24">
-        <v>2.837886055274509</v>
+        <v>0.005991714432968145</v>
       </c>
       <c r="G24">
-        <v>0.9632593806865919</v>
+        <v>0.8391380875820508</v>
       </c>
       <c r="H24">
-        <v>0.8732713772621292</v>
+        <v>0.6248453032206281</v>
       </c>
       <c r="I24">
-        <v>0.1471805849603647</v>
+        <v>2.194377304364672</v>
       </c>
       <c r="J24">
-        <v>0.4499063559951609</v>
+        <v>1.706995109393747</v>
       </c>
       <c r="K24">
-        <v>1.183671385942961</v>
+        <v>0.2146094748090753</v>
       </c>
       <c r="L24">
-        <v>2.10923066971491</v>
+        <v>1.292570538149609</v>
       </c>
       <c r="M24">
-        <v>2.10923066971491</v>
+        <v>1.292570538149609</v>
       </c>
       <c r="N24">
-        <v>2.10923066971491</v>
+        <v>1.292570538149609</v>
       </c>
       <c r="O24">
-        <v>1.99979456413514</v>
+        <v>1.487689455301568E-05</v>
       </c>
       <c r="P24">
-        <v>2.418840309704825</v>
+        <v>0.00300329566376058</v>
       </c>
       <c r="Q24">
-        <v>1.224850460065151</v>
+        <v>0.8535049931441497</v>
       </c>
       <c r="R24">
-        <v>2.315637096374853</v>
+        <v>0.4328590431590435</v>
       </c>
       <c r="S24">
-        <v>1.762528991801603</v>
+        <v>0.5710005669070892</v>
       </c>
       <c r="T24">
-        <v>2.315637096374853</v>
+        <v>0.4328590431590435</v>
       </c>
       <c r="U24">
-        <v>1.84920441127993</v>
+        <v>0.7513930597177192</v>
       </c>
       <c r="V24">
-        <v>1.901209662966926</v>
+        <v>0.8596285554040971</v>
       </c>
       <c r="W24">
-        <v>1.320525046746471</v>
+        <v>0.8598178011059129</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.048758903676941</v>
+        <v>0.04122531831870988</v>
       </c>
       <c r="D25">
-        <v>0.4599238638391239</v>
+        <v>0.06882008110392791</v>
       </c>
       <c r="E25">
-        <v>0.7262854997355961</v>
+        <v>0.03059505010989017</v>
       </c>
       <c r="F25">
-        <v>0.7262854997355961</v>
+        <v>0.03059505010989017</v>
       </c>
       <c r="G25">
-        <v>0.02635293275512818</v>
+        <v>1.585706857333606</v>
       </c>
       <c r="H25">
-        <v>2.565595227169283</v>
+        <v>1.649610209158356</v>
       </c>
       <c r="I25">
-        <v>0.7819508001920283</v>
+        <v>1.659235194594477</v>
       </c>
       <c r="J25">
-        <v>0.07624355057803317</v>
+        <v>1.707159803680534</v>
       </c>
       <c r="K25">
-        <v>0.6613822604835309</v>
+        <v>0.492865113276363</v>
       </c>
       <c r="L25">
-        <v>2.048758903676941</v>
+        <v>0.04122531831870988</v>
       </c>
       <c r="M25">
-        <v>2.048758903676941</v>
+        <v>0.04122531831870988</v>
       </c>
       <c r="N25">
-        <v>2.048758903676941</v>
+        <v>0.04122531831870988</v>
       </c>
       <c r="O25">
-        <v>0.4599238638391239</v>
+        <v>0.06882008110392791</v>
       </c>
       <c r="P25">
-        <v>0.59310468178736</v>
+        <v>0.04970756560690904</v>
       </c>
       <c r="Q25">
-        <v>0.2680837072085785</v>
+        <v>0.8879899423922307</v>
       </c>
       <c r="R25">
-        <v>1.078322755750554</v>
+        <v>0.04688014984417599</v>
       </c>
       <c r="S25">
-        <v>0.4208176380509177</v>
+        <v>0.6021916449647838</v>
       </c>
       <c r="T25">
-        <v>1.078322755750554</v>
+        <v>0.04688014984417599</v>
       </c>
       <c r="U25">
-        <v>0.8278029544574236</v>
+        <v>0.4619500633032654</v>
       </c>
       <c r="V25">
-        <v>1.071994144301327</v>
+        <v>0.3778051143063543</v>
       </c>
       <c r="W25">
-        <v>0.9183116298037081</v>
+        <v>0.9044022034469829</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1189268388672023</v>
+        <v>2.10923066971491</v>
       </c>
       <c r="D26">
-        <v>0.4594090643823779</v>
+        <v>1.99979456413514</v>
       </c>
       <c r="E26">
-        <v>0.0009743962595293884</v>
+        <v>2.837886055274509</v>
       </c>
       <c r="F26">
-        <v>0.0009743962595293884</v>
+        <v>2.837886055274509</v>
       </c>
       <c r="G26">
-        <v>2.782010512091008</v>
+        <v>0.9632593806865919</v>
       </c>
       <c r="H26">
-        <v>0.4112453524188622</v>
+        <v>0.8732713772621292</v>
       </c>
       <c r="I26">
-        <v>0.4843144812561912</v>
+        <v>0.1471805849603647</v>
       </c>
       <c r="J26">
-        <v>2.937114329036834</v>
+        <v>0.4499063559951609</v>
       </c>
       <c r="K26">
-        <v>0.3848407775901069</v>
+        <v>1.183671385942961</v>
       </c>
       <c r="L26">
-        <v>0.1189268388672023</v>
+        <v>2.10923066971491</v>
       </c>
       <c r="M26">
-        <v>0.1189268388672023</v>
+        <v>2.10923066971491</v>
       </c>
       <c r="N26">
-        <v>0.1189268388672023</v>
+        <v>2.10923066971491</v>
       </c>
       <c r="O26">
-        <v>0.4594090643823779</v>
+        <v>1.99979456413514</v>
       </c>
       <c r="P26">
-        <v>0.2301917303209536</v>
+        <v>2.418840309704825</v>
       </c>
       <c r="Q26">
-        <v>1.698261696709606</v>
+        <v>1.224850460065151</v>
       </c>
       <c r="R26">
-        <v>0.1931034331697032</v>
+        <v>2.315637096374853</v>
       </c>
       <c r="S26">
-        <v>1.132499263226247</v>
+        <v>1.762528991801603</v>
       </c>
       <c r="T26">
-        <v>0.1931034331697032</v>
+        <v>2.315637096374853</v>
       </c>
       <c r="U26">
-        <v>0.8791061571364858</v>
+        <v>1.84920441127993</v>
       </c>
       <c r="V26">
-        <v>0.7270702934826291</v>
+        <v>1.901209662966926</v>
       </c>
       <c r="W26">
-        <v>0.947354468987764</v>
+        <v>1.320525046746471</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.111229351878187</v>
+        <v>2.048758903676941</v>
       </c>
       <c r="D27">
-        <v>3.406046826992374</v>
+        <v>0.4599238638391239</v>
       </c>
       <c r="E27">
-        <v>3.86251643034826</v>
+        <v>0.7262854997355961</v>
       </c>
       <c r="F27">
-        <v>3.86251643034826</v>
+        <v>0.7262854997355961</v>
       </c>
       <c r="G27">
-        <v>0.5081214401534041</v>
+        <v>0.02635293275512818</v>
       </c>
       <c r="H27">
-        <v>0.1937922534703129</v>
+        <v>2.565595227169283</v>
       </c>
       <c r="I27">
-        <v>2.1954103358405</v>
+        <v>0.7819508001920283</v>
       </c>
       <c r="J27">
-        <v>0.2279728240186968</v>
+        <v>0.07624355057803317</v>
       </c>
       <c r="K27">
-        <v>2.486945862475289</v>
+        <v>0.6613822604835309</v>
       </c>
       <c r="L27">
-        <v>0.111229351878187</v>
+        <v>2.048758903676941</v>
       </c>
       <c r="M27">
-        <v>0.111229351878187</v>
+        <v>2.048758903676941</v>
       </c>
       <c r="N27">
-        <v>0.111229351878187</v>
+        <v>2.048758903676941</v>
       </c>
       <c r="O27">
-        <v>3.406046826992374</v>
+        <v>0.4599238638391239</v>
       </c>
       <c r="P27">
-        <v>3.634281628670316</v>
+        <v>0.59310468178736</v>
       </c>
       <c r="Q27">
-        <v>1.817009825505535</v>
+        <v>0.2680837072085785</v>
       </c>
       <c r="R27">
-        <v>2.459930869739607</v>
+        <v>1.078322755750554</v>
       </c>
       <c r="S27">
-        <v>2.49884536045311</v>
+        <v>0.4208176380509177</v>
       </c>
       <c r="T27">
-        <v>2.459930869739607</v>
+        <v>1.078322755750554</v>
       </c>
       <c r="U27">
-        <v>1.901941358309379</v>
+        <v>0.8278029544574236</v>
       </c>
       <c r="V27">
-        <v>1.543798957023141</v>
+        <v>1.071994144301327</v>
       </c>
       <c r="W27">
-        <v>1.624004415647128</v>
+        <v>0.9183116298037081</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.6630202600874433</v>
+        <v>0.1189268388672023</v>
       </c>
       <c r="D28">
-        <v>0.4917950273502348</v>
+        <v>0.4594090643823779</v>
       </c>
       <c r="E28">
-        <v>2.061557863080802</v>
+        <v>0.0009743962595293884</v>
       </c>
       <c r="F28">
-        <v>2.061557863080802</v>
+        <v>0.0009743962595293884</v>
       </c>
       <c r="G28">
-        <v>1.871682642346785</v>
+        <v>2.782010512091008</v>
       </c>
       <c r="H28">
-        <v>0.2827719617291714</v>
+        <v>0.4112453524188622</v>
       </c>
       <c r="I28">
-        <v>1.167283188965892</v>
+        <v>0.4843144812561912</v>
       </c>
       <c r="J28">
-        <v>0.6985015064935355</v>
+        <v>2.937114329036834</v>
       </c>
       <c r="K28">
-        <v>0.8860566082203293</v>
+        <v>0.3848407775901069</v>
       </c>
       <c r="L28">
-        <v>0.6630202600875412</v>
+        <v>0.1189268388672023</v>
       </c>
       <c r="M28">
-        <v>0.6630202600875412</v>
+        <v>0.1189268388672023</v>
       </c>
       <c r="N28">
-        <v>0.6630202600875412</v>
+        <v>0.1189268388672023</v>
       </c>
       <c r="O28">
-        <v>0.4917950273502348</v>
+        <v>0.4594090643823779</v>
       </c>
       <c r="P28">
-        <v>1.276676445215518</v>
+        <v>0.2301917303209536</v>
       </c>
       <c r="Q28">
-        <v>0.5951482669218852</v>
+        <v>1.698261696709606</v>
       </c>
       <c r="R28">
-        <v>1.072124383506193</v>
+        <v>0.1931034331697032</v>
       </c>
       <c r="S28">
-        <v>1.083951465641524</v>
+        <v>1.132499263226247</v>
       </c>
       <c r="T28">
-        <v>1.072124383506193</v>
+        <v>0.1931034331697032</v>
       </c>
       <c r="U28">
-        <v>0.9787186642530283</v>
+        <v>0.8791061571364858</v>
       </c>
       <c r="V28">
-        <v>0.9155789834199309</v>
+        <v>0.7270702934826291</v>
       </c>
       <c r="W28">
-        <v>1.015333632284286</v>
+        <v>0.947354468987764</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.111229351878187</v>
+      </c>
+      <c r="D29">
+        <v>3.406046826992374</v>
+      </c>
+      <c r="E29">
+        <v>3.86251643034826</v>
+      </c>
+      <c r="F29">
+        <v>3.86251643034826</v>
+      </c>
+      <c r="G29">
+        <v>0.5081214401534041</v>
+      </c>
+      <c r="H29">
+        <v>0.1937922534703129</v>
+      </c>
+      <c r="I29">
+        <v>2.1954103358405</v>
+      </c>
+      <c r="J29">
+        <v>0.2279728240186968</v>
+      </c>
+      <c r="K29">
+        <v>2.486945862475289</v>
+      </c>
+      <c r="L29">
+        <v>0.111229351878187</v>
+      </c>
+      <c r="M29">
+        <v>0.111229351878187</v>
+      </c>
+      <c r="N29">
+        <v>0.111229351878187</v>
+      </c>
+      <c r="O29">
+        <v>3.406046826992374</v>
+      </c>
+      <c r="P29">
+        <v>3.634281628670316</v>
+      </c>
+      <c r="Q29">
+        <v>1.817009825505535</v>
+      </c>
+      <c r="R29">
+        <v>2.459930869739607</v>
+      </c>
+      <c r="S29">
+        <v>2.49884536045311</v>
+      </c>
+      <c r="T29">
+        <v>2.459930869739607</v>
+      </c>
+      <c r="U29">
+        <v>1.901941358309379</v>
+      </c>
+      <c r="V29">
+        <v>1.543798957023141</v>
+      </c>
+      <c r="W29">
+        <v>1.624004415647128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.6630202600874433</v>
+      </c>
+      <c r="D30">
+        <v>0.4917950273502348</v>
+      </c>
+      <c r="E30">
+        <v>2.061557863080802</v>
+      </c>
+      <c r="F30">
+        <v>2.061557863080802</v>
+      </c>
+      <c r="G30">
+        <v>1.871682642346785</v>
+      </c>
+      <c r="H30">
+        <v>0.2827719617291714</v>
+      </c>
+      <c r="I30">
+        <v>1.167283188965892</v>
+      </c>
+      <c r="J30">
+        <v>0.6985015064935355</v>
+      </c>
+      <c r="K30">
+        <v>0.8860566082203293</v>
+      </c>
+      <c r="L30">
+        <v>0.6630202600875412</v>
+      </c>
+      <c r="M30">
+        <v>0.6630202600875412</v>
+      </c>
+      <c r="N30">
+        <v>0.6630202600875412</v>
+      </c>
+      <c r="O30">
+        <v>0.4917950273502348</v>
+      </c>
+      <c r="P30">
+        <v>1.276676445215518</v>
+      </c>
+      <c r="Q30">
+        <v>0.5951482669218852</v>
+      </c>
+      <c r="R30">
+        <v>1.072124383506193</v>
+      </c>
+      <c r="S30">
+        <v>1.083951465641524</v>
+      </c>
+      <c r="T30">
+        <v>1.072124383506193</v>
+      </c>
+      <c r="U30">
+        <v>0.9787186642530283</v>
+      </c>
+      <c r="V30">
+        <v>0.9155789834199309</v>
+      </c>
+      <c r="W30">
+        <v>1.015333632284286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.2481508645222807</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.01558540699093472</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>3.81192269624784</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>3.81192269624784</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.374693171534741</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.1296380380366048</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.550255833421954</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.1570012307081872</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.2187991240157036</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.2481508645222807</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.2481508645222807</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.2481508645222807</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.01558540699093472</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.913754051619387</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.08629331884956097</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.358552989253685</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.328169777982321</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.358552989253685</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.058165049617311</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.8961622125983044</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9382557956847807</v>
       </c>
     </row>
